--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/MountPoints/mountedMeshnick/Projects/VivID_Seq/scrape_pubseqs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFEB268-1881-484F-9CE5-40F66191C322}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B5A10-5345-684D-8AEF-D280DAC03E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="880" windowWidth="11940" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="880" windowWidth="18060" windowHeight="12940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL samples" sheetId="3" r:id="rId1"/>
@@ -4581,7 +4581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4632,6 +4632,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5040,11 +5047,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="387">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5772,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B96" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8695,25 +8703,25 @@
       <c r="A109" t="s">
         <v>1027</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="4">
         <v>2013</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8721,25 +8729,25 @@
       <c r="A110" t="s">
         <v>1029</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="4">
         <v>2013</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8747,25 +8755,25 @@
       <c r="A111" t="s">
         <v>1031</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="4">
         <v>2013</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8773,25 +8781,25 @@
       <c r="A112" t="s">
         <v>1033</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="4">
         <v>2013</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8799,25 +8807,25 @@
       <c r="A113" t="s">
         <v>1035</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="4">
         <v>2013</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8825,25 +8833,25 @@
       <c r="A114" t="s">
         <v>1037</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="4">
         <v>2013</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8851,25 +8859,25 @@
       <c r="A115" t="s">
         <v>1039</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="4">
         <v>2013</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8877,25 +8885,25 @@
       <c r="A116" t="s">
         <v>1041</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="4">
         <v>2013</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="4" t="s">
         <v>555</v>
       </c>
     </row>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A451A-F826-9448-935F-62619708CB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3378ABA-DF92-104A-8259-A1553139F6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="900" windowWidth="18060" windowHeight="12940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5798,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="C664" sqref="C664"/>
+    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
+      <selection activeCell="D696" sqref="D696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3378ABA-DF92-104A-8259-A1553139F6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7367DB04-29FE-894A-B24C-F3CAB52D52DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="900" windowWidth="18060" windowHeight="12940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="23660" windowHeight="11440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL samples" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="1532">
   <si>
     <t>Kudat</t>
   </si>
@@ -4593,6 +4593,39 @@
   </si>
   <si>
     <t>PMID: 30668735</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>NHA</t>
+  </si>
+  <si>
+    <t>SAs</t>
+  </si>
+  <si>
+    <t>SAm</t>
+  </si>
+  <si>
+    <t>EAs</t>
+  </si>
+  <si>
+    <t>CAm</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>vividregion</t>
   </si>
 </sst>
 </file>
@@ -5796,10 +5829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H697"/>
+  <dimension ref="A1:I697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
-      <selection activeCell="D696" sqref="D696"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5814,7 +5847,7 @@
     <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5839,8 +5872,11 @@
       <c r="H1" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1251</v>
       </c>
@@ -5865,8 +5901,11 @@
       <c r="H2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1252</v>
       </c>
@@ -5891,8 +5930,11 @@
       <c r="H3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1253</v>
       </c>
@@ -5917,8 +5959,11 @@
       <c r="H4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1254</v>
       </c>
@@ -5943,8 +5988,11 @@
       <c r="H5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1255</v>
       </c>
@@ -5969,8 +6017,11 @@
       <c r="H6" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1256</v>
       </c>
@@ -5995,8 +6046,11 @@
       <c r="H7" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1257</v>
       </c>
@@ -6021,8 +6075,11 @@
       <c r="H8" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1258</v>
       </c>
@@ -6047,8 +6104,11 @@
       <c r="H9" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1259</v>
       </c>
@@ -6073,8 +6133,11 @@
       <c r="H10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>882</v>
       </c>
@@ -6099,8 +6162,11 @@
       <c r="H11" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>884</v>
       </c>
@@ -6125,8 +6191,11 @@
       <c r="H12" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>886</v>
       </c>
@@ -6151,8 +6220,11 @@
       <c r="H13" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>888</v>
       </c>
@@ -6177,8 +6249,11 @@
       <c r="H14" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>890</v>
       </c>
@@ -6203,8 +6278,11 @@
       <c r="H15" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>892</v>
       </c>
@@ -6229,8 +6307,11 @@
       <c r="H16" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>894</v>
       </c>
@@ -6255,8 +6336,11 @@
       <c r="H17" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>896</v>
       </c>
@@ -6281,8 +6365,11 @@
       <c r="H18" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>898</v>
       </c>
@@ -6307,8 +6394,11 @@
       <c r="H19" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>900</v>
       </c>
@@ -6333,8 +6423,11 @@
       <c r="H20" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>902</v>
       </c>
@@ -6359,8 +6452,11 @@
       <c r="H21" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>904</v>
       </c>
@@ -6385,8 +6481,11 @@
       <c r="H22" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>906</v>
       </c>
@@ -6411,8 +6510,11 @@
       <c r="H23" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>908</v>
       </c>
@@ -6437,8 +6539,11 @@
       <c r="H24" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>910</v>
       </c>
@@ -6463,8 +6568,11 @@
       <c r="H25" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>912</v>
       </c>
@@ -6489,8 +6597,11 @@
       <c r="H26" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>914</v>
       </c>
@@ -6515,8 +6626,11 @@
       <c r="H27" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>916</v>
       </c>
@@ -6541,8 +6655,11 @@
       <c r="H28" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>918</v>
       </c>
@@ -6567,8 +6684,11 @@
       <c r="H29" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>920</v>
       </c>
@@ -6593,8 +6713,11 @@
       <c r="H30" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -6616,8 +6739,11 @@
       <c r="H31" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -6642,8 +6768,11 @@
       <c r="H32" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -6668,8 +6797,11 @@
       <c r="H33" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -6694,8 +6826,11 @@
       <c r="H34" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -6720,8 +6855,11 @@
       <c r="H35" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -6746,8 +6884,11 @@
       <c r="H36" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -6772,8 +6913,11 @@
       <c r="H37" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -6798,8 +6942,11 @@
       <c r="H38" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -6824,8 +6971,11 @@
       <c r="H39" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -6850,8 +7000,11 @@
       <c r="H40" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>132</v>
       </c>
@@ -6876,8 +7029,11 @@
       <c r="H41" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -6902,8 +7058,11 @@
       <c r="H42" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>922</v>
       </c>
@@ -6928,8 +7087,11 @@
       <c r="H43" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>924</v>
       </c>
@@ -6954,8 +7116,11 @@
       <c r="H44" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>926</v>
       </c>
@@ -6980,8 +7145,11 @@
       <c r="H45" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>928</v>
       </c>
@@ -7006,8 +7174,11 @@
       <c r="H46" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>930</v>
       </c>
@@ -7032,8 +7203,11 @@
       <c r="H47" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>932</v>
       </c>
@@ -7058,8 +7232,11 @@
       <c r="H48" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>934</v>
       </c>
@@ -7084,8 +7261,11 @@
       <c r="H49" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>936</v>
       </c>
@@ -7110,8 +7290,11 @@
       <c r="H50" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>938</v>
       </c>
@@ -7136,8 +7319,11 @@
       <c r="H51" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>940</v>
       </c>
@@ -7162,8 +7348,11 @@
       <c r="H52" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>942</v>
       </c>
@@ -7188,8 +7377,11 @@
       <c r="H53" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>944</v>
       </c>
@@ -7214,8 +7406,11 @@
       <c r="H54" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>946</v>
       </c>
@@ -7240,8 +7435,11 @@
       <c r="H55" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>948</v>
       </c>
@@ -7266,8 +7464,11 @@
       <c r="H56" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>950</v>
       </c>
@@ -7292,8 +7493,11 @@
       <c r="H57" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>952</v>
       </c>
@@ -7318,8 +7522,11 @@
       <c r="H58" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>954</v>
       </c>
@@ -7344,8 +7551,11 @@
       <c r="H59" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>956</v>
       </c>
@@ -7370,8 +7580,11 @@
       <c r="H60" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
@@ -7396,8 +7609,11 @@
       <c r="H61" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>958</v>
       </c>
@@ -7422,8 +7638,11 @@
       <c r="H62" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>959</v>
       </c>
@@ -7448,8 +7667,11 @@
       <c r="H63" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>961</v>
       </c>
@@ -7474,8 +7696,11 @@
       <c r="H64" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>963</v>
       </c>
@@ -7500,8 +7725,11 @@
       <c r="H65" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>965</v>
       </c>
@@ -7526,8 +7754,11 @@
       <c r="H66" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
@@ -7552,8 +7783,11 @@
       <c r="H67" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>967</v>
       </c>
@@ -7578,8 +7812,11 @@
       <c r="H68" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>969</v>
       </c>
@@ -7604,8 +7841,11 @@
       <c r="H69" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>971</v>
       </c>
@@ -7630,8 +7870,11 @@
       <c r="H70" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>973</v>
       </c>
@@ -7656,8 +7899,11 @@
       <c r="H71" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>975</v>
       </c>
@@ -7682,8 +7928,11 @@
       <c r="H72" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>482</v>
       </c>
@@ -7708,8 +7957,11 @@
       <c r="H73" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>483</v>
       </c>
@@ -7734,8 +7986,11 @@
       <c r="H74" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>484</v>
       </c>
@@ -7760,8 +8015,11 @@
       <c r="H75" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>485</v>
       </c>
@@ -7786,8 +8044,11 @@
       <c r="H76" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>486</v>
       </c>
@@ -7812,8 +8073,11 @@
       <c r="H77" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>487</v>
       </c>
@@ -7838,8 +8102,11 @@
       <c r="H78" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>488</v>
       </c>
@@ -7864,8 +8131,11 @@
       <c r="H79" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>489</v>
       </c>
@@ -7890,8 +8160,11 @@
       <c r="H80" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>490</v>
       </c>
@@ -7916,8 +8189,11 @@
       <c r="H81" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>491</v>
       </c>
@@ -7942,8 +8218,11 @@
       <c r="H82" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>492</v>
       </c>
@@ -7968,8 +8247,11 @@
       <c r="H83" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>977</v>
       </c>
@@ -7996,8 +8278,11 @@
       <c r="H84" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>979</v>
       </c>
@@ -8022,8 +8307,11 @@
       <c r="H85" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>981</v>
       </c>
@@ -8048,8 +8336,11 @@
       <c r="H86" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>983</v>
       </c>
@@ -8074,8 +8365,11 @@
       <c r="H87" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>985</v>
       </c>
@@ -8100,8 +8394,11 @@
       <c r="H88" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>987</v>
       </c>
@@ -8126,8 +8423,11 @@
       <c r="H89" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>989</v>
       </c>
@@ -8152,8 +8452,11 @@
       <c r="H90" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>991</v>
       </c>
@@ -8178,8 +8481,11 @@
       <c r="H91" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>993</v>
       </c>
@@ -8204,8 +8510,11 @@
       <c r="H92" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>466</v>
       </c>
@@ -8230,8 +8539,11 @@
       <c r="H93" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>465</v>
       </c>
@@ -8256,8 +8568,11 @@
       <c r="H94" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>429</v>
       </c>
@@ -8282,8 +8597,11 @@
       <c r="H95" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>425</v>
       </c>
@@ -8308,8 +8626,11 @@
       <c r="H96" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>426</v>
       </c>
@@ -8334,8 +8655,11 @@
       <c r="H97" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>433</v>
       </c>
@@ -8360,8 +8684,11 @@
       <c r="H98" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>453</v>
       </c>
@@ -8386,8 +8713,11 @@
       <c r="H99" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>432</v>
       </c>
@@ -8412,8 +8742,11 @@
       <c r="H100" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>422</v>
       </c>
@@ -8438,8 +8771,11 @@
       <c r="H101" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>455</v>
       </c>
@@ -8464,8 +8800,11 @@
       <c r="H102" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>427</v>
       </c>
@@ -8490,8 +8829,11 @@
       <c r="H103" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>430</v>
       </c>
@@ -8516,8 +8858,11 @@
       <c r="H104" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>431</v>
       </c>
@@ -8542,8 +8887,11 @@
       <c r="H105" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>443</v>
       </c>
@@ -8568,8 +8916,11 @@
       <c r="H106" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>446</v>
       </c>
@@ -8594,8 +8945,11 @@
       <c r="H107" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>454</v>
       </c>
@@ -8620,8 +8974,11 @@
       <c r="H108" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>423</v>
       </c>
@@ -8646,8 +9003,11 @@
       <c r="H109" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>458</v>
       </c>
@@ -8672,8 +9032,11 @@
       <c r="H110" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>445</v>
       </c>
@@ -8698,8 +9061,11 @@
       <c r="H111" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>467</v>
       </c>
@@ -8724,8 +9090,11 @@
       <c r="H112" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>474</v>
       </c>
@@ -8750,8 +9119,11 @@
       <c r="H113" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>421</v>
       </c>
@@ -8776,8 +9148,11 @@
       <c r="H114" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>444</v>
       </c>
@@ -8802,8 +9177,11 @@
       <c r="H115" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>449</v>
       </c>
@@ -8828,8 +9206,11 @@
       <c r="H116" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>420</v>
       </c>
@@ -8854,8 +9235,11 @@
       <c r="H117" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>452</v>
       </c>
@@ -8880,8 +9264,11 @@
       <c r="H118" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>459</v>
       </c>
@@ -8906,8 +9293,11 @@
       <c r="H119" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>450</v>
       </c>
@@ -8932,8 +9322,11 @@
       <c r="H120" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>476</v>
       </c>
@@ -8958,8 +9351,11 @@
       <c r="H121" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>481</v>
       </c>
@@ -8984,8 +9380,11 @@
       <c r="H122" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>424</v>
       </c>
@@ -9010,8 +9409,11 @@
       <c r="H123" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>448</v>
       </c>
@@ -9036,8 +9438,11 @@
       <c r="H124" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>435</v>
       </c>
@@ -9062,8 +9467,11 @@
       <c r="H125" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>434</v>
       </c>
@@ -9088,8 +9496,11 @@
       <c r="H126" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>437</v>
       </c>
@@ -9114,8 +9525,11 @@
       <c r="H127" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>460</v>
       </c>
@@ -9140,8 +9554,11 @@
       <c r="H128" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>436</v>
       </c>
@@ -9166,8 +9583,11 @@
       <c r="H129" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>440</v>
       </c>
@@ -9192,8 +9612,11 @@
       <c r="H130" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>469</v>
       </c>
@@ -9218,8 +9641,11 @@
       <c r="H131" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>428</v>
       </c>
@@ -9244,8 +9670,11 @@
       <c r="H132" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>438</v>
       </c>
@@ -9270,8 +9699,11 @@
       <c r="H133" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>468</v>
       </c>
@@ -9296,8 +9728,11 @@
       <c r="H134" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>472</v>
       </c>
@@ -9322,8 +9757,11 @@
       <c r="H135" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>439</v>
       </c>
@@ -9348,8 +9786,11 @@
       <c r="H136" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>471</v>
       </c>
@@ -9374,8 +9815,11 @@
       <c r="H137" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>478</v>
       </c>
@@ -9400,8 +9844,11 @@
       <c r="H138" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>475</v>
       </c>
@@ -9426,8 +9873,11 @@
       <c r="H139" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>477</v>
       </c>
@@ -9452,8 +9902,11 @@
       <c r="H140" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>457</v>
       </c>
@@ -9478,8 +9931,11 @@
       <c r="H141" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>461</v>
       </c>
@@ -9504,8 +9960,11 @@
       <c r="H142" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>473</v>
       </c>
@@ -9530,8 +9989,11 @@
       <c r="H143" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>463</v>
       </c>
@@ -9556,8 +10018,11 @@
       <c r="H144" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>456</v>
       </c>
@@ -9582,8 +10047,11 @@
       <c r="H145" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>480</v>
       </c>
@@ -9608,8 +10076,11 @@
       <c r="H146" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -9634,8 +10105,11 @@
       <c r="H147" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>441</v>
       </c>
@@ -9660,8 +10134,11 @@
       <c r="H148" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>464</v>
       </c>
@@ -9686,8 +10163,11 @@
       <c r="H149" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>447</v>
       </c>
@@ -9712,8 +10192,11 @@
       <c r="H150" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>470</v>
       </c>
@@ -9738,8 +10221,11 @@
       <c r="H151" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>479</v>
       </c>
@@ -9764,8 +10250,11 @@
       <c r="H152" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>451</v>
       </c>
@@ -9790,8 +10279,11 @@
       <c r="H153" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>462</v>
       </c>
@@ -9816,8 +10308,11 @@
       <c r="H154" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1260</v>
       </c>
@@ -9842,8 +10337,11 @@
       <c r="H155" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1261</v>
       </c>
@@ -9868,8 +10366,11 @@
       <c r="H156" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1262</v>
       </c>
@@ -9894,8 +10395,11 @@
       <c r="H157" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1263</v>
       </c>
@@ -9920,8 +10424,11 @@
       <c r="H158" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1264</v>
       </c>
@@ -9946,8 +10453,11 @@
       <c r="H159" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1265</v>
       </c>
@@ -9972,8 +10482,11 @@
       <c r="H160" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1266</v>
       </c>
@@ -9998,8 +10511,11 @@
       <c r="H161" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1267</v>
       </c>
@@ -10024,8 +10540,11 @@
       <c r="H162" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1268</v>
       </c>
@@ -10050,8 +10569,11 @@
       <c r="H163" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>995</v>
       </c>
@@ -10076,8 +10598,11 @@
       <c r="H164" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>997</v>
       </c>
@@ -10102,8 +10627,11 @@
       <c r="H165" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>999</v>
       </c>
@@ -10128,8 +10656,11 @@
       <c r="H166" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1001</v>
       </c>
@@ -10154,8 +10685,11 @@
       <c r="H167" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1003</v>
       </c>
@@ -10180,8 +10714,11 @@
       <c r="H168" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1005</v>
       </c>
@@ -10206,8 +10743,11 @@
       <c r="H169" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1007</v>
       </c>
@@ -10232,8 +10772,11 @@
       <c r="H170" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1009</v>
       </c>
@@ -10258,8 +10801,11 @@
       <c r="H171" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1011</v>
       </c>
@@ -10284,8 +10830,11 @@
       <c r="H172" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1013</v>
       </c>
@@ -10310,8 +10859,11 @@
       <c r="H173" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1015</v>
       </c>
@@ -10336,8 +10888,11 @@
       <c r="H174" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1017</v>
       </c>
@@ -10362,8 +10917,11 @@
       <c r="H175" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1019</v>
       </c>
@@ -10388,8 +10946,11 @@
       <c r="H176" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1021</v>
       </c>
@@ -10414,8 +10975,11 @@
       <c r="H177" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1023</v>
       </c>
@@ -10440,8 +11004,11 @@
       <c r="H178" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1025</v>
       </c>
@@ -10466,8 +11033,11 @@
       <c r="H179" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1027</v>
       </c>
@@ -10492,8 +11062,11 @@
       <c r="H180" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1029</v>
       </c>
@@ -10518,8 +11091,11 @@
       <c r="H181" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1031</v>
       </c>
@@ -10544,8 +11120,11 @@
       <c r="H182" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1033</v>
       </c>
@@ -10570,8 +11149,11 @@
       <c r="H183" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1035</v>
       </c>
@@ -10596,8 +11178,11 @@
       <c r="H184" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1037</v>
       </c>
@@ -10622,8 +11207,11 @@
       <c r="H185" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1039</v>
       </c>
@@ -10648,8 +11236,11 @@
       <c r="H186" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1041</v>
       </c>
@@ -10674,8 +11265,11 @@
       <c r="H187" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1043</v>
       </c>
@@ -10700,8 +11294,11 @@
       <c r="H188" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1045</v>
       </c>
@@ -10726,8 +11323,11 @@
       <c r="H189" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1047</v>
       </c>
@@ -10752,8 +11352,11 @@
       <c r="H190" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1049</v>
       </c>
@@ -10778,8 +11381,11 @@
       <c r="H191" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1269</v>
       </c>
@@ -10804,8 +11410,11 @@
       <c r="H192" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1270</v>
       </c>
@@ -10830,8 +11439,11 @@
       <c r="H193" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1271</v>
       </c>
@@ -10856,8 +11468,11 @@
       <c r="H194" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1272</v>
       </c>
@@ -10882,8 +11497,11 @@
       <c r="H195" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1273</v>
       </c>
@@ -10908,8 +11526,11 @@
       <c r="H196" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1274</v>
       </c>
@@ -10934,8 +11555,11 @@
       <c r="H197" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1275</v>
       </c>
@@ -10960,8 +11584,11 @@
       <c r="H198" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1276</v>
       </c>
@@ -10986,8 +11613,11 @@
       <c r="H199" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1277</v>
       </c>
@@ -11012,8 +11642,11 @@
       <c r="H200" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1278</v>
       </c>
@@ -11038,8 +11671,11 @@
       <c r="H201" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1279</v>
       </c>
@@ -11064,8 +11700,11 @@
       <c r="H202" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1280</v>
       </c>
@@ -11090,8 +11729,11 @@
       <c r="H203" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1281</v>
       </c>
@@ -11116,8 +11758,11 @@
       <c r="H204" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1282</v>
       </c>
@@ -11142,8 +11787,11 @@
       <c r="H205" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1283</v>
       </c>
@@ -11168,8 +11816,11 @@
       <c r="H206" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1284</v>
       </c>
@@ -11194,8 +11845,11 @@
       <c r="H207" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1285</v>
       </c>
@@ -11220,8 +11874,11 @@
       <c r="H208" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1286</v>
       </c>
@@ -11246,8 +11903,11 @@
       <c r="H209" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1287</v>
       </c>
@@ -11272,8 +11932,11 @@
       <c r="H210" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1288</v>
       </c>
@@ -11298,8 +11961,11 @@
       <c r="H211" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1289</v>
       </c>
@@ -11324,8 +11990,11 @@
       <c r="H212" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1290</v>
       </c>
@@ -11350,8 +12019,11 @@
       <c r="H213" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1291</v>
       </c>
@@ -11376,8 +12048,11 @@
       <c r="H214" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1292</v>
       </c>
@@ -11402,8 +12077,11 @@
       <c r="H215" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1293</v>
       </c>
@@ -11428,8 +12106,11 @@
       <c r="H216" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1294</v>
       </c>
@@ -11454,8 +12135,11 @@
       <c r="H217" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1295</v>
       </c>
@@ -11480,8 +12164,11 @@
       <c r="H218" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1296</v>
       </c>
@@ -11506,8 +12193,11 @@
       <c r="H219" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1297</v>
       </c>
@@ -11532,8 +12222,11 @@
       <c r="H220" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1298</v>
       </c>
@@ -11558,8 +12251,11 @@
       <c r="H221" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1299</v>
       </c>
@@ -11584,8 +12280,11 @@
       <c r="H222" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1300</v>
       </c>
@@ -11610,8 +12309,11 @@
       <c r="H223" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1301</v>
       </c>
@@ -11636,8 +12338,11 @@
       <c r="H224" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1302</v>
       </c>
@@ -11662,8 +12367,11 @@
       <c r="H225" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1303</v>
       </c>
@@ -11688,8 +12396,11 @@
       <c r="H226" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1304</v>
       </c>
@@ -11714,8 +12425,11 @@
       <c r="H227" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1305</v>
       </c>
@@ -11740,8 +12454,11 @@
       <c r="H228" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1306</v>
       </c>
@@ -11766,8 +12483,11 @@
       <c r="H229" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1307</v>
       </c>
@@ -11792,8 +12512,11 @@
       <c r="H230" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1308</v>
       </c>
@@ -11818,8 +12541,11 @@
       <c r="H231" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1309</v>
       </c>
@@ -11844,8 +12570,11 @@
       <c r="H232" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1310</v>
       </c>
@@ -11870,8 +12599,11 @@
       <c r="H233" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1311</v>
       </c>
@@ -11896,8 +12628,11 @@
       <c r="H234" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1312</v>
       </c>
@@ -11922,8 +12657,11 @@
       <c r="H235" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1313</v>
       </c>
@@ -11948,8 +12686,11 @@
       <c r="H236" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1314</v>
       </c>
@@ -11974,8 +12715,11 @@
       <c r="H237" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1315</v>
       </c>
@@ -12000,8 +12744,11 @@
       <c r="H238" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1316</v>
       </c>
@@ -12026,8 +12773,11 @@
       <c r="H239" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1317</v>
       </c>
@@ -12052,8 +12802,11 @@
       <c r="H240" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1318</v>
       </c>
@@ -12078,8 +12831,11 @@
       <c r="H241" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1319</v>
       </c>
@@ -12104,8 +12860,11 @@
       <c r="H242" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1320</v>
       </c>
@@ -12130,8 +12889,11 @@
       <c r="H243" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1321</v>
       </c>
@@ -12156,8 +12918,11 @@
       <c r="H244" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1322</v>
       </c>
@@ -12182,8 +12947,11 @@
       <c r="H245" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1323</v>
       </c>
@@ -12208,8 +12976,11 @@
       <c r="H246" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1324</v>
       </c>
@@ -12234,8 +13005,11 @@
       <c r="H247" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1325</v>
       </c>
@@ -12260,8 +13034,11 @@
       <c r="H248" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1326</v>
       </c>
@@ -12286,8 +13063,11 @@
       <c r="H249" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1327</v>
       </c>
@@ -12312,8 +13092,11 @@
       <c r="H250" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1328</v>
       </c>
@@ -12338,8 +13121,11 @@
       <c r="H251" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>590</v>
       </c>
@@ -12365,8 +13151,11 @@
       <c r="H252" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>562</v>
       </c>
@@ -12392,8 +13181,11 @@
       <c r="H253" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>596</v>
       </c>
@@ -12419,8 +13211,11 @@
       <c r="H254" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>584</v>
       </c>
@@ -12446,8 +13241,11 @@
       <c r="H255" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>598</v>
       </c>
@@ -12473,8 +13271,11 @@
       <c r="H256" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>576</v>
       </c>
@@ -12500,8 +13301,11 @@
       <c r="H257" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>568</v>
       </c>
@@ -12527,8 +13331,11 @@
       <c r="H258" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I258" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>580</v>
       </c>
@@ -12554,8 +13361,11 @@
       <c r="H259" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I259" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>582</v>
       </c>
@@ -12581,8 +13391,11 @@
       <c r="H260" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I260" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>560</v>
       </c>
@@ -12608,8 +13421,11 @@
       <c r="H261" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I261" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>570</v>
       </c>
@@ -12635,8 +13451,11 @@
       <c r="H262" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>574</v>
       </c>
@@ -12662,8 +13481,11 @@
       <c r="H263" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I263" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>592</v>
       </c>
@@ -12689,8 +13511,11 @@
       <c r="H264" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I264" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>578</v>
       </c>
@@ -12716,8 +13541,11 @@
       <c r="H265" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I265" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>572</v>
       </c>
@@ -12743,8 +13571,11 @@
       <c r="H266" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>588</v>
       </c>
@@ -12770,8 +13601,11 @@
       <c r="H267" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>586</v>
       </c>
@@ -12797,8 +13631,11 @@
       <c r="H268" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>566</v>
       </c>
@@ -12824,8 +13661,11 @@
       <c r="H269" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>594</v>
       </c>
@@ -12851,8 +13691,11 @@
       <c r="H270" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>564</v>
       </c>
@@ -12878,8 +13721,11 @@
       <c r="H271" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I271" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>616</v>
       </c>
@@ -12905,8 +13751,11 @@
       <c r="H272" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I272" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>662</v>
       </c>
@@ -12932,8 +13781,11 @@
       <c r="H273" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I273" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>668</v>
       </c>
@@ -12959,8 +13811,11 @@
       <c r="H274" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>674</v>
       </c>
@@ -12986,8 +13841,11 @@
       <c r="H275" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I275" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>680</v>
       </c>
@@ -13013,8 +13871,11 @@
       <c r="H276" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>686</v>
       </c>
@@ -13040,8 +13901,11 @@
       <c r="H277" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I277" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>690</v>
       </c>
@@ -13067,8 +13931,11 @@
       <c r="H278" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>694</v>
       </c>
@@ -13094,8 +13961,11 @@
       <c r="H279" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I279" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>698</v>
       </c>
@@ -13121,8 +13991,11 @@
       <c r="H280" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I280" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>704</v>
       </c>
@@ -13148,8 +14021,11 @@
       <c r="H281" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I281" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>710</v>
       </c>
@@ -13175,8 +14051,11 @@
       <c r="H282" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I282" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>716</v>
       </c>
@@ -13202,8 +14081,11 @@
       <c r="H283" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I283" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>722</v>
       </c>
@@ -13229,8 +14111,11 @@
       <c r="H284" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I284" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>664</v>
       </c>
@@ -13256,8 +14141,11 @@
       <c r="H285" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I285" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>670</v>
       </c>
@@ -13283,8 +14171,11 @@
       <c r="H286" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I286" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>676</v>
       </c>
@@ -13310,8 +14201,11 @@
       <c r="H287" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I287" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>682</v>
       </c>
@@ -13337,8 +14231,11 @@
       <c r="H288" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I288" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>688</v>
       </c>
@@ -13364,8 +14261,11 @@
       <c r="H289" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I289" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>692</v>
       </c>
@@ -13391,8 +14291,11 @@
       <c r="H290" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I290" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>696</v>
       </c>
@@ -13418,8 +14321,11 @@
       <c r="H291" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I291" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>700</v>
       </c>
@@ -13445,8 +14351,11 @@
       <c r="H292" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I292" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>706</v>
       </c>
@@ -13472,8 +14381,11 @@
       <c r="H293" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I293" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>712</v>
       </c>
@@ -13499,8 +14411,11 @@
       <c r="H294" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I294" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>718</v>
       </c>
@@ -13526,8 +14441,11 @@
       <c r="H295" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>53</v>
       </c>
@@ -13552,8 +14470,11 @@
       <c r="H296" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>666</v>
       </c>
@@ -13579,8 +14500,11 @@
       <c r="H297" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>672</v>
       </c>
@@ -13606,8 +14530,11 @@
       <c r="H298" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>678</v>
       </c>
@@ -13633,8 +14560,11 @@
       <c r="H299" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>684</v>
       </c>
@@ -13660,8 +14590,11 @@
       <c r="H300" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>55</v>
       </c>
@@ -13686,8 +14619,11 @@
       <c r="H301" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -13712,8 +14648,11 @@
       <c r="H302" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>702</v>
       </c>
@@ -13739,8 +14678,11 @@
       <c r="H303" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>708</v>
       </c>
@@ -13766,8 +14708,11 @@
       <c r="H304" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I304" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>763</v>
       </c>
@@ -13793,8 +14738,11 @@
       <c r="H305" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I305" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>765</v>
       </c>
@@ -13820,8 +14768,11 @@
       <c r="H306" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I306" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>767</v>
       </c>
@@ -13847,8 +14798,11 @@
       <c r="H307" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I307" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>781</v>
       </c>
@@ -13874,8 +14828,11 @@
       <c r="H308" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I308" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>791</v>
       </c>
@@ -13901,8 +14858,11 @@
       <c r="H309" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I309" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>799</v>
       </c>
@@ -13928,8 +14888,11 @@
       <c r="H310" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I310" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>57</v>
       </c>
@@ -13954,8 +14917,11 @@
       <c r="H311" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I311" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>813</v>
       </c>
@@ -13981,8 +14947,11 @@
       <c r="H312" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I312" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>821</v>
       </c>
@@ -14008,8 +14977,11 @@
       <c r="H313" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I313" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>835</v>
       </c>
@@ -14035,8 +15007,11 @@
       <c r="H314" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I314" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>843</v>
       </c>
@@ -14062,8 +15037,11 @@
       <c r="H315" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I315" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>58</v>
       </c>
@@ -14088,8 +15066,11 @@
       <c r="H316" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I316" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>59</v>
       </c>
@@ -14114,8 +15095,11 @@
       <c r="H317" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I317" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>773</v>
       </c>
@@ -14141,8 +15125,11 @@
       <c r="H318" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I318" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>783</v>
       </c>
@@ -14168,8 +15155,11 @@
       <c r="H319" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I319" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>793</v>
       </c>
@@ -14195,8 +15185,11 @@
       <c r="H320" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I320" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>801</v>
       </c>
@@ -14222,8 +15215,11 @@
       <c r="H321" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I321" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>807</v>
       </c>
@@ -14249,8 +15245,11 @@
       <c r="H322" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I322" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>815</v>
       </c>
@@ -14276,8 +15275,11 @@
       <c r="H323" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I323" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>823</v>
       </c>
@@ -14303,8 +15305,11 @@
       <c r="H324" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I324" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>829</v>
       </c>
@@ -14330,8 +15335,11 @@
       <c r="H325" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I325" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>837</v>
       </c>
@@ -14357,8 +15365,11 @@
       <c r="H326" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I326" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>845</v>
       </c>
@@ -14384,8 +15395,11 @@
       <c r="H327" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I327" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>849</v>
       </c>
@@ -14411,8 +15425,11 @@
       <c r="H328" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I328" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>853</v>
       </c>
@@ -14438,8 +15455,11 @@
       <c r="H329" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I329" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>775</v>
       </c>
@@ -14465,8 +15485,11 @@
       <c r="H330" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I330" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>785</v>
       </c>
@@ -14492,8 +15515,11 @@
       <c r="H331" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I331" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>795</v>
       </c>
@@ -14519,8 +15545,11 @@
       <c r="H332" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I332" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>803</v>
       </c>
@@ -14546,8 +15575,11 @@
       <c r="H333" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I333" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>809</v>
       </c>
@@ -14573,8 +15605,11 @@
       <c r="H334" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I334" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>817</v>
       </c>
@@ -14600,8 +15635,11 @@
       <c r="H335" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I335" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>825</v>
       </c>
@@ -14627,8 +15665,11 @@
       <c r="H336" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I336" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>831</v>
       </c>
@@ -14654,8 +15695,11 @@
       <c r="H337" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I337" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>839</v>
       </c>
@@ -14681,8 +15725,11 @@
       <c r="H338" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I338" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>847</v>
       </c>
@@ -14708,8 +15755,11 @@
       <c r="H339" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I339" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>851</v>
       </c>
@@ -14735,8 +15785,11 @@
       <c r="H340" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I340" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>855</v>
       </c>
@@ -14762,8 +15815,11 @@
       <c r="H341" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I341" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>777</v>
       </c>
@@ -14789,8 +15845,11 @@
       <c r="H342" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I342" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>787</v>
       </c>
@@ -14816,8 +15875,11 @@
       <c r="H343" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I343" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>797</v>
       </c>
@@ -14843,8 +15905,11 @@
       <c r="H344" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I344" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>805</v>
       </c>
@@ -14870,8 +15935,11 @@
       <c r="H345" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I345" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>811</v>
       </c>
@@ -14897,8 +15965,11 @@
       <c r="H346" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I346" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>819</v>
       </c>
@@ -14924,8 +15995,11 @@
       <c r="H347" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I347" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>827</v>
       </c>
@@ -14951,8 +16025,11 @@
       <c r="H348" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I348" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>833</v>
       </c>
@@ -14978,8 +16055,11 @@
       <c r="H349" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I349" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>60</v>
       </c>
@@ -15004,8 +16084,11 @@
       <c r="H350" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>61</v>
       </c>
@@ -15030,8 +16113,11 @@
       <c r="H351" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>62</v>
       </c>
@@ -15056,8 +16142,11 @@
       <c r="H352" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I352" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>63</v>
       </c>
@@ -15082,8 +16171,11 @@
       <c r="H353" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I353" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>64</v>
       </c>
@@ -15108,8 +16200,11 @@
       <c r="H354" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I354" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>65</v>
       </c>
@@ -15135,8 +16230,11 @@
       <c r="H355" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I355" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>66</v>
       </c>
@@ -15162,8 +16260,11 @@
       <c r="H356" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I356" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>67</v>
       </c>
@@ -15189,8 +16290,11 @@
       <c r="H357" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I357" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>68</v>
       </c>
@@ -15216,8 +16320,11 @@
       <c r="H358" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I358" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>69</v>
       </c>
@@ -15243,8 +16350,11 @@
       <c r="H359" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I359" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>339</v>
       </c>
@@ -15269,8 +16379,11 @@
       <c r="H360" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I360" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>340</v>
       </c>
@@ -15295,8 +16408,11 @@
       <c r="H361" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I361" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>412</v>
       </c>
@@ -15321,8 +16437,11 @@
       <c r="H362" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I362" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>411</v>
       </c>
@@ -15347,8 +16466,11 @@
       <c r="H363" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I363" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>413</v>
       </c>
@@ -15373,8 +16495,11 @@
       <c r="H364" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I364" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>410</v>
       </c>
@@ -15399,8 +16524,11 @@
       <c r="H365" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I365" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>399</v>
       </c>
@@ -15425,8 +16553,11 @@
       <c r="H366" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I366" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>398</v>
       </c>
@@ -15451,8 +16582,11 @@
       <c r="H367" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I367" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>406</v>
       </c>
@@ -15477,8 +16611,11 @@
       <c r="H368" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I368" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>401</v>
       </c>
@@ -15503,8 +16640,11 @@
       <c r="H369" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I369" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -15529,8 +16669,11 @@
       <c r="H370" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I370" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>395</v>
       </c>
@@ -15555,8 +16698,11 @@
       <c r="H371" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I371" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -15581,8 +16727,11 @@
       <c r="H372" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I372" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -15607,8 +16756,11 @@
       <c r="H373" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I373" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>400</v>
       </c>
@@ -15633,8 +16785,11 @@
       <c r="H374" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I374" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>403</v>
       </c>
@@ -15659,8 +16814,11 @@
       <c r="H375" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I375" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>394</v>
       </c>
@@ -15685,8 +16843,11 @@
       <c r="H376" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I376" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>392</v>
       </c>
@@ -15711,8 +16872,11 @@
       <c r="H377" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I377" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>405</v>
       </c>
@@ -15737,8 +16901,11 @@
       <c r="H378" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I378" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>408</v>
       </c>
@@ -15763,8 +16930,11 @@
       <c r="H379" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I379" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>404</v>
       </c>
@@ -15789,8 +16959,11 @@
       <c r="H380" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I380" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>397</v>
       </c>
@@ -15815,8 +16988,11 @@
       <c r="H381" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I381" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>378</v>
       </c>
@@ -15841,8 +17017,11 @@
       <c r="H382" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I382" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>341</v>
       </c>
@@ -15867,8 +17046,11 @@
       <c r="H383" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I383" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>363</v>
       </c>
@@ -15893,8 +17075,11 @@
       <c r="H384" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I384" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>360</v>
       </c>
@@ -15919,8 +17104,11 @@
       <c r="H385" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I385" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>338</v>
       </c>
@@ -15945,8 +17133,11 @@
       <c r="H386" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I386" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>337</v>
       </c>
@@ -15971,8 +17162,11 @@
       <c r="H387" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I387" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>342</v>
       </c>
@@ -15997,8 +17191,11 @@
       <c r="H388" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I388" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>351</v>
       </c>
@@ -16023,8 +17220,11 @@
       <c r="H389" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I389" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>352</v>
       </c>
@@ -16049,8 +17249,11 @@
       <c r="H390" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I390" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>348</v>
       </c>
@@ -16075,8 +17278,11 @@
       <c r="H391" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I391" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>355</v>
       </c>
@@ -16101,8 +17307,11 @@
       <c r="H392" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I392" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>350</v>
       </c>
@@ -16127,8 +17336,11 @@
       <c r="H393" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I393" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>345</v>
       </c>
@@ -16153,8 +17365,11 @@
       <c r="H394" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I394" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>384</v>
       </c>
@@ -16179,8 +17394,11 @@
       <c r="H395" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I395" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>385</v>
       </c>
@@ -16205,8 +17423,11 @@
       <c r="H396" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I396" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>382</v>
       </c>
@@ -16231,8 +17452,11 @@
       <c r="H397" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I397" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>391</v>
       </c>
@@ -16257,8 +17481,11 @@
       <c r="H398" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I398" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>383</v>
       </c>
@@ -16283,8 +17510,11 @@
       <c r="H399" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I399" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>387</v>
       </c>
@@ -16309,8 +17539,11 @@
       <c r="H400" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I400" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>386</v>
       </c>
@@ -16335,8 +17568,11 @@
       <c r="H401" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I401" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>358</v>
       </c>
@@ -16361,8 +17597,11 @@
       <c r="H402" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I402" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>357</v>
       </c>
@@ -16387,8 +17626,11 @@
       <c r="H403" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I403" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>364</v>
       </c>
@@ -16413,8 +17655,11 @@
       <c r="H404" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I404" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>356</v>
       </c>
@@ -16439,8 +17684,11 @@
       <c r="H405" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I405" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>353</v>
       </c>
@@ -16465,8 +17713,11 @@
       <c r="H406" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I406" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>361</v>
       </c>
@@ -16491,8 +17742,11 @@
       <c r="H407" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I407" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>359</v>
       </c>
@@ -16517,8 +17771,11 @@
       <c r="H408" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I408" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>368</v>
       </c>
@@ -16543,8 +17800,11 @@
       <c r="H409" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I409" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>373</v>
       </c>
@@ -16569,8 +17829,11 @@
       <c r="H410" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I410" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>372</v>
       </c>
@@ -16595,8 +17858,11 @@
       <c r="H411" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I411" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>371</v>
       </c>
@@ -16621,8 +17887,11 @@
       <c r="H412" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I412" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>388</v>
       </c>
@@ -16647,8 +17916,11 @@
       <c r="H413" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I413" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>369</v>
       </c>
@@ -16673,8 +17945,11 @@
       <c r="H414" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I414" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>379</v>
       </c>
@@ -16699,8 +17974,11 @@
       <c r="H415" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I415" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>367</v>
       </c>
@@ -16725,8 +18003,11 @@
       <c r="H416" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I416" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>366</v>
       </c>
@@ -16751,8 +18032,11 @@
       <c r="H417" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I417" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>381</v>
       </c>
@@ -16777,8 +18061,11 @@
       <c r="H418" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I418" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>380</v>
       </c>
@@ -16803,8 +18090,11 @@
       <c r="H419" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I419" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>349</v>
       </c>
@@ -16829,8 +18119,11 @@
       <c r="H420" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I420" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>343</v>
       </c>
@@ -16855,8 +18148,11 @@
       <c r="H421" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I421" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>354</v>
       </c>
@@ -16881,8 +18177,11 @@
       <c r="H422" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I422" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>344</v>
       </c>
@@ -16907,8 +18206,11 @@
       <c r="H423" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I423" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>377</v>
       </c>
@@ -16933,8 +18235,11 @@
       <c r="H424" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I424" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>365</v>
       </c>
@@ -16959,8 +18264,11 @@
       <c r="H425" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I425" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>346</v>
       </c>
@@ -16985,8 +18293,11 @@
       <c r="H426" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I426" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>347</v>
       </c>
@@ -17011,8 +18322,11 @@
       <c r="H427" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I427" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>370</v>
       </c>
@@ -17037,8 +18351,11 @@
       <c r="H428" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I428" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>362</v>
       </c>
@@ -17063,8 +18380,11 @@
       <c r="H429" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I429" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>375</v>
       </c>
@@ -17089,8 +18409,11 @@
       <c r="H430" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I430" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>374</v>
       </c>
@@ -17115,8 +18438,11 @@
       <c r="H431" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I431" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>389</v>
       </c>
@@ -17141,8 +18467,11 @@
       <c r="H432" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I432" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>376</v>
       </c>
@@ -17167,8 +18496,11 @@
       <c r="H433" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I433" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>390</v>
       </c>
@@ -17193,8 +18525,11 @@
       <c r="H434" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I434" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>396</v>
       </c>
@@ -17219,8 +18554,11 @@
       <c r="H435" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I435" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>407</v>
       </c>
@@ -17245,8 +18583,11 @@
       <c r="H436" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I436" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1051</v>
       </c>
@@ -17271,8 +18612,11 @@
       <c r="H437" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I437" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1053</v>
       </c>
@@ -17297,8 +18641,11 @@
       <c r="H438" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I438" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1055</v>
       </c>
@@ -17323,8 +18670,11 @@
       <c r="H439" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I439" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1057</v>
       </c>
@@ -17349,8 +18699,11 @@
       <c r="H440" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I440" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1059</v>
       </c>
@@ -17375,8 +18728,11 @@
       <c r="H441" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I441" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1061</v>
       </c>
@@ -17401,8 +18757,11 @@
       <c r="H442" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I442" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1063</v>
       </c>
@@ -17427,8 +18786,11 @@
       <c r="H443" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I443" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1065</v>
       </c>
@@ -17453,8 +18815,11 @@
       <c r="H444" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I444" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1067</v>
       </c>
@@ -17479,8 +18844,11 @@
       <c r="H445" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I445" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1069</v>
       </c>
@@ -17505,8 +18873,11 @@
       <c r="H446" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I446" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1071</v>
       </c>
@@ -17531,8 +18902,11 @@
       <c r="H447" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I447" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1073</v>
       </c>
@@ -17557,8 +18931,11 @@
       <c r="H448" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I448" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1075</v>
       </c>
@@ -17583,8 +18960,11 @@
       <c r="H449" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I449" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1077</v>
       </c>
@@ -17609,8 +18989,11 @@
       <c r="H450" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I450" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1079</v>
       </c>
@@ -17635,8 +19018,11 @@
       <c r="H451" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I451" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1081</v>
       </c>
@@ -17661,8 +19047,11 @@
       <c r="H452" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I452" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1083</v>
       </c>
@@ -17687,8 +19076,11 @@
       <c r="H453" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I453" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1085</v>
       </c>
@@ -17713,8 +19105,11 @@
       <c r="H454" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I454" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1087</v>
       </c>
@@ -17739,8 +19134,11 @@
       <c r="H455" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I455" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1089</v>
       </c>
@@ -17765,8 +19163,11 @@
       <c r="H456" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I456" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1091</v>
       </c>
@@ -17791,8 +19192,11 @@
       <c r="H457" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I457" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1093</v>
       </c>
@@ -17817,8 +19221,11 @@
       <c r="H458" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I458" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1095</v>
       </c>
@@ -17843,8 +19250,11 @@
       <c r="H459" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I459" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1097</v>
       </c>
@@ -17869,8 +19279,11 @@
       <c r="H460" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I460" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1099</v>
       </c>
@@ -17895,8 +19308,11 @@
       <c r="H461" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I461" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1101</v>
       </c>
@@ -17921,8 +19337,11 @@
       <c r="H462" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I462" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1103</v>
       </c>
@@ -17947,8 +19366,11 @@
       <c r="H463" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I463" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1105</v>
       </c>
@@ -17973,8 +19395,11 @@
       <c r="H464" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I464" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1107</v>
       </c>
@@ -17999,8 +19424,11 @@
       <c r="H465" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I465" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1109</v>
       </c>
@@ -18025,8 +19453,11 @@
       <c r="H466" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I466" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1111</v>
       </c>
@@ -18051,8 +19482,11 @@
       <c r="H467" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I467" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1113</v>
       </c>
@@ -18077,8 +19511,11 @@
       <c r="H468" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I468" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1115</v>
       </c>
@@ -18103,8 +19540,11 @@
       <c r="H469" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I469" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1117</v>
       </c>
@@ -18129,8 +19569,11 @@
       <c r="H470" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I470" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1119</v>
       </c>
@@ -18155,8 +19598,11 @@
       <c r="H471" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I471" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1121</v>
       </c>
@@ -18181,8 +19627,11 @@
       <c r="H472" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I472" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1123</v>
       </c>
@@ -18207,8 +19656,11 @@
       <c r="H473" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I473" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1125</v>
       </c>
@@ -18233,8 +19685,11 @@
       <c r="H474" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I474" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1127</v>
       </c>
@@ -18259,8 +19714,11 @@
       <c r="H475" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I475" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1129</v>
       </c>
@@ -18285,8 +19743,11 @@
       <c r="H476" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I476" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1131</v>
       </c>
@@ -18311,8 +19772,11 @@
       <c r="H477" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I477" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1133</v>
       </c>
@@ -18337,8 +19801,11 @@
       <c r="H478" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I478" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1135</v>
       </c>
@@ -18363,8 +19830,11 @@
       <c r="H479" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I479" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1137</v>
       </c>
@@ -18389,8 +19859,11 @@
       <c r="H480" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I480" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1139</v>
       </c>
@@ -18415,8 +19888,11 @@
       <c r="H481" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I481" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1141</v>
       </c>
@@ -18441,8 +19917,11 @@
       <c r="H482" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I482" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1143</v>
       </c>
@@ -18467,8 +19946,11 @@
       <c r="H483" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I483" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1145</v>
       </c>
@@ -18493,8 +19975,11 @@
       <c r="H484" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I484" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1147</v>
       </c>
@@ -18519,8 +20004,11 @@
       <c r="H485" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I485" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1149</v>
       </c>
@@ -18545,8 +20033,11 @@
       <c r="H486" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I486" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1151</v>
       </c>
@@ -18571,8 +20062,11 @@
       <c r="H487" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I487" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1153</v>
       </c>
@@ -18597,8 +20091,11 @@
       <c r="H488" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I488" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1155</v>
       </c>
@@ -18623,8 +20120,11 @@
       <c r="H489" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I489" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1157</v>
       </c>
@@ -18649,8 +20149,11 @@
       <c r="H490" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I490" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1159</v>
       </c>
@@ -18675,8 +20178,11 @@
       <c r="H491" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I491" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1161</v>
       </c>
@@ -18701,8 +20207,11 @@
       <c r="H492" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I492" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1163</v>
       </c>
@@ -18727,8 +20236,11 @@
       <c r="H493" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I493" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1165</v>
       </c>
@@ -18753,8 +20265,11 @@
       <c r="H494" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I494" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1167</v>
       </c>
@@ -18779,8 +20294,11 @@
       <c r="H495" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I495" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1169</v>
       </c>
@@ -18805,8 +20323,11 @@
       <c r="H496" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I496" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1171</v>
       </c>
@@ -18831,8 +20352,11 @@
       <c r="H497" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I497" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1173</v>
       </c>
@@ -18857,8 +20381,11 @@
       <c r="H498" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I498" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1175</v>
       </c>
@@ -18883,8 +20410,11 @@
       <c r="H499" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I499" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>546</v>
       </c>
@@ -18910,8 +20440,11 @@
       <c r="H500" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I500" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>516</v>
       </c>
@@ -18937,8 +20470,11 @@
       <c r="H501" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I501" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>606</v>
       </c>
@@ -18964,8 +20500,11 @@
       <c r="H502" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I502" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>646</v>
       </c>
@@ -18991,8 +20530,11 @@
       <c r="H503" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I503" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>634</v>
       </c>
@@ -19018,8 +20560,11 @@
       <c r="H504" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I504" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>650</v>
       </c>
@@ -19045,8 +20590,11 @@
       <c r="H505" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I505" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>534</v>
       </c>
@@ -19072,8 +20620,11 @@
       <c r="H506" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I506" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>536</v>
       </c>
@@ -19099,8 +20650,11 @@
       <c r="H507" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I507" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>538</v>
       </c>
@@ -19126,8 +20680,11 @@
       <c r="H508" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I508" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>550</v>
       </c>
@@ -19153,8 +20710,11 @@
       <c r="H509" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I509" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>632</v>
       </c>
@@ -19180,8 +20740,11 @@
       <c r="H510" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I510" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>636</v>
       </c>
@@ -19207,8 +20770,11 @@
       <c r="H511" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I511" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>540</v>
       </c>
@@ -19234,8 +20800,11 @@
       <c r="H512" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I512" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>542</v>
       </c>
@@ -19261,8 +20830,11 @@
       <c r="H513" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I513" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>600</v>
       </c>
@@ -19288,8 +20860,11 @@
       <c r="H514" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I514" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>608</v>
       </c>
@@ -19315,8 +20890,11 @@
       <c r="H515" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I515" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>648</v>
       </c>
@@ -19342,8 +20920,11 @@
       <c r="H516" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I516" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>610</v>
       </c>
@@ -19369,8 +20950,11 @@
       <c r="H517" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I517" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>544</v>
       </c>
@@ -19396,8 +20980,11 @@
       <c r="H518" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I518" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>602</v>
       </c>
@@ -19423,8 +21010,11 @@
       <c r="H519" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I519" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>654</v>
       </c>
@@ -19450,8 +21040,11 @@
       <c r="H520" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I520" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>726</v>
       </c>
@@ -19477,8 +21070,11 @@
       <c r="H521" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I521" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>658</v>
       </c>
@@ -19504,8 +21100,11 @@
       <c r="H522" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I522" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>660</v>
       </c>
@@ -19531,8 +21130,11 @@
       <c r="H523" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I523" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>730</v>
       </c>
@@ -19558,8 +21160,11 @@
       <c r="H524" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I524" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>732</v>
       </c>
@@ -19585,8 +21190,11 @@
       <c r="H525" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I525" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>732</v>
       </c>
@@ -19612,8 +21220,11 @@
       <c r="H526" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I526" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>733</v>
       </c>
@@ -19639,8 +21250,11 @@
       <c r="H527" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I527" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>735</v>
       </c>
@@ -19666,8 +21280,11 @@
       <c r="H528" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I528" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>737</v>
       </c>
@@ -19693,8 +21310,11 @@
       <c r="H529" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I529" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>739</v>
       </c>
@@ -19720,8 +21340,11 @@
       <c r="H530" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I530" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>741</v>
       </c>
@@ -19747,8 +21370,11 @@
       <c r="H531" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I531" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>743</v>
       </c>
@@ -19774,8 +21400,11 @@
       <c r="H532" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I532" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>745</v>
       </c>
@@ -19801,8 +21430,11 @@
       <c r="H533" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I533" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>747</v>
       </c>
@@ -19828,8 +21460,11 @@
       <c r="H534" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I534" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>749</v>
       </c>
@@ -19855,8 +21490,11 @@
       <c r="H535" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I535" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>751</v>
       </c>
@@ -19882,8 +21520,11 @@
       <c r="H536" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I536" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>753</v>
       </c>
@@ -19909,8 +21550,11 @@
       <c r="H537" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I537" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>755</v>
       </c>
@@ -19936,8 +21580,11 @@
       <c r="H538" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I538" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>757</v>
       </c>
@@ -19963,8 +21610,11 @@
       <c r="H539" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I539" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>759</v>
       </c>
@@ -19990,8 +21640,11 @@
       <c r="H540" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I540" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>70</v>
       </c>
@@ -20017,8 +21670,11 @@
       <c r="H541" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I541" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>72</v>
       </c>
@@ -20044,8 +21700,11 @@
       <c r="H542" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I542" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>552</v>
       </c>
@@ -20071,8 +21730,11 @@
       <c r="H543" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I543" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>714</v>
       </c>
@@ -20098,8 +21760,11 @@
       <c r="H544" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I544" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>720</v>
       </c>
@@ -20125,8 +21790,11 @@
       <c r="H545" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I545" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>724</v>
       </c>
@@ -20152,8 +21820,11 @@
       <c r="H546" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I546" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>857</v>
       </c>
@@ -20179,8 +21850,11 @@
       <c r="H547" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I547" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>73</v>
       </c>
@@ -20206,8 +21880,11 @@
       <c r="H548" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I548" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>624</v>
       </c>
@@ -20233,8 +21910,11 @@
       <c r="H549" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I549" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>626</v>
       </c>
@@ -20260,8 +21940,11 @@
       <c r="H550" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I550" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>528</v>
       </c>
@@ -20287,8 +21970,11 @@
       <c r="H551" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I551" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>640</v>
       </c>
@@ -20314,8 +22000,11 @@
       <c r="H552" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I552" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>622</v>
       </c>
@@ -20341,8 +22030,11 @@
       <c r="H553" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I553" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>644</v>
       </c>
@@ -20368,8 +22060,11 @@
       <c r="H554" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I554" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>518</v>
       </c>
@@ -20395,8 +22090,11 @@
       <c r="H555" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I555" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>863</v>
       </c>
@@ -20422,8 +22120,11 @@
       <c r="H556" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I556" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>859</v>
       </c>
@@ -20449,8 +22150,11 @@
       <c r="H557" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I557" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>865</v>
       </c>
@@ -20476,8 +22180,11 @@
       <c r="H558" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I558" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>861</v>
       </c>
@@ -20503,8 +22210,11 @@
       <c r="H559" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I559" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>512</v>
       </c>
@@ -20530,8 +22240,11 @@
       <c r="H560" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I560" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>604</v>
       </c>
@@ -20557,8 +22270,11 @@
       <c r="H561" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I561" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>514</v>
       </c>
@@ -20584,8 +22300,11 @@
       <c r="H562" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I562" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>548</v>
       </c>
@@ -20611,8 +22330,11 @@
       <c r="H563" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I563" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>532</v>
       </c>
@@ -20638,8 +22360,11 @@
       <c r="H564" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I564" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>530</v>
       </c>
@@ -20665,8 +22390,11 @@
       <c r="H565" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I565" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>628</v>
       </c>
@@ -20692,8 +22420,11 @@
       <c r="H566" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I566" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>522</v>
       </c>
@@ -20719,8 +22450,11 @@
       <c r="H567" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I567" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>526</v>
       </c>
@@ -20746,8 +22480,11 @@
       <c r="H568" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I568" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>520</v>
       </c>
@@ -20773,8 +22510,11 @@
       <c r="H569" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I569" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>524</v>
       </c>
@@ -20800,8 +22540,11 @@
       <c r="H570" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I570" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>630</v>
       </c>
@@ -20827,8 +22570,11 @@
       <c r="H571" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I571" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>642</v>
       </c>
@@ -20854,8 +22600,11 @@
       <c r="H572" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I572" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>638</v>
       </c>
@@ -20881,8 +22630,11 @@
       <c r="H573" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I573" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>728</v>
       </c>
@@ -20908,8 +22660,11 @@
       <c r="H574" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I574" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>618</v>
       </c>
@@ -20935,8 +22690,11 @@
       <c r="H575" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I575" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>620</v>
       </c>
@@ -20962,8 +22720,11 @@
       <c r="H576" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I576" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>652</v>
       </c>
@@ -20989,8 +22750,11 @@
       <c r="H577" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I577" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>554</v>
       </c>
@@ -21016,8 +22780,11 @@
       <c r="H578" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I578" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>556</v>
       </c>
@@ -21043,8 +22810,11 @@
       <c r="H579" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I579" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>558</v>
       </c>
@@ -21070,8 +22840,11 @@
       <c r="H580" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I580" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>612</v>
       </c>
@@ -21097,8 +22870,11 @@
       <c r="H581" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I581" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>614</v>
       </c>
@@ -21124,8 +22900,11 @@
       <c r="H582" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I582" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>779</v>
       </c>
@@ -21151,8 +22930,11 @@
       <c r="H583" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I583" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>789</v>
       </c>
@@ -21178,8 +22960,11 @@
       <c r="H584" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I584" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>5</v>
       </c>
@@ -21204,8 +22989,11 @@
       <c r="H585" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I585" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>8</v>
       </c>
@@ -21230,8 +23018,11 @@
       <c r="H586" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I586" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>9</v>
       </c>
@@ -21256,8 +23047,11 @@
       <c r="H587" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I587" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>10</v>
       </c>
@@ -21282,8 +23076,11 @@
       <c r="H588" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I588" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>11</v>
       </c>
@@ -21308,8 +23105,11 @@
       <c r="H589" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I589" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>12</v>
       </c>
@@ -21334,8 +23134,11 @@
       <c r="H590" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I590" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -21360,8 +23163,11 @@
       <c r="H591" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I591" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>14</v>
       </c>
@@ -21386,8 +23192,11 @@
       <c r="H592" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I592" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>15</v>
       </c>
@@ -21412,8 +23221,11 @@
       <c r="H593" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I593" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>16</v>
       </c>
@@ -21438,8 +23250,11 @@
       <c r="H594" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I594" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>17</v>
       </c>
@@ -21464,8 +23279,11 @@
       <c r="H595" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I595" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>18</v>
       </c>
@@ -21490,8 +23308,11 @@
       <c r="H596" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I596" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>19</v>
       </c>
@@ -21516,8 +23337,11 @@
       <c r="H597" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I597" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>20</v>
       </c>
@@ -21542,8 +23366,11 @@
       <c r="H598" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I598" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>21</v>
       </c>
@@ -21568,8 +23395,11 @@
       <c r="H599" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I599" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>22</v>
       </c>
@@ -21594,8 +23424,11 @@
       <c r="H600" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I600" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>23</v>
       </c>
@@ -21620,8 +23453,11 @@
       <c r="H601" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I601" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>24</v>
       </c>
@@ -21646,8 +23482,11 @@
       <c r="H602" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I602" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>25</v>
       </c>
@@ -21672,8 +23511,11 @@
       <c r="H603" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I603" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>26</v>
       </c>
@@ -21698,8 +23540,11 @@
       <c r="H604" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I604" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>27</v>
       </c>
@@ -21724,8 +23569,11 @@
       <c r="H605" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I605" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>28</v>
       </c>
@@ -21750,8 +23598,11 @@
       <c r="H606" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I606" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>29</v>
       </c>
@@ -21776,8 +23627,11 @@
       <c r="H607" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I607" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>30</v>
       </c>
@@ -21802,8 +23656,11 @@
       <c r="H608" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I608" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>31</v>
       </c>
@@ -21828,8 +23685,11 @@
       <c r="H609" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I609" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>32</v>
       </c>
@@ -21854,8 +23714,11 @@
       <c r="H610" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I610" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>33</v>
       </c>
@@ -21880,8 +23743,11 @@
       <c r="H611" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I611" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>34</v>
       </c>
@@ -21906,8 +23772,11 @@
       <c r="H612" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I612" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>35</v>
       </c>
@@ -21932,8 +23801,11 @@
       <c r="H613" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I613" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>36</v>
       </c>
@@ -21958,8 +23830,11 @@
       <c r="H614" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I614" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>37</v>
       </c>
@@ -21984,8 +23859,11 @@
       <c r="H615" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I615" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>38</v>
       </c>
@@ -22010,8 +23888,11 @@
       <c r="H616" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I616" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>39</v>
       </c>
@@ -22036,8 +23917,11 @@
       <c r="H617" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I617" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>40</v>
       </c>
@@ -22062,8 +23946,11 @@
       <c r="H618" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I618" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>41</v>
       </c>
@@ -22088,8 +23975,11 @@
       <c r="H619" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I619" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>42</v>
       </c>
@@ -22114,8 +24004,11 @@
       <c r="H620" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I620" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>43</v>
       </c>
@@ -22140,8 +24033,11 @@
       <c r="H621" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I621" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>44</v>
       </c>
@@ -22166,8 +24062,11 @@
       <c r="H622" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I622" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>45</v>
       </c>
@@ -22192,8 +24091,11 @@
       <c r="H623" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I623" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>46</v>
       </c>
@@ -22218,8 +24120,11 @@
       <c r="H624" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I624" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>47</v>
       </c>
@@ -22244,8 +24149,11 @@
       <c r="H625" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I625" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>48</v>
       </c>
@@ -22270,8 +24178,11 @@
       <c r="H626" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I626" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>49</v>
       </c>
@@ -22296,8 +24207,11 @@
       <c r="H627" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I627" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>50</v>
       </c>
@@ -22322,8 +24236,11 @@
       <c r="H628" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I628" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>51</v>
       </c>
@@ -22348,8 +24265,11 @@
       <c r="H629" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I629" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>52</v>
       </c>
@@ -22374,8 +24294,11 @@
       <c r="H630" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I630" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>769</v>
       </c>
@@ -22401,8 +24324,11 @@
       <c r="H631" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I631" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>656</v>
       </c>
@@ -22428,8 +24354,11 @@
       <c r="H632" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I632" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>761</v>
       </c>
@@ -22455,8 +24384,11 @@
       <c r="H633" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I633" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>771</v>
       </c>
@@ -22482,8 +24414,11 @@
       <c r="H634" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I634" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>841</v>
       </c>
@@ -22509,8 +24444,11 @@
       <c r="H635" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I635" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>1177</v>
       </c>
@@ -22536,8 +24474,11 @@
       <c r="H636" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I636" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1179</v>
       </c>
@@ -22563,8 +24504,11 @@
       <c r="H637" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I637" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>1181</v>
       </c>
@@ -22590,8 +24534,11 @@
       <c r="H638" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I638" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>1183</v>
       </c>
@@ -22617,8 +24564,11 @@
       <c r="H639" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I639" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>1185</v>
       </c>
@@ -22644,8 +24594,11 @@
       <c r="H640" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I640" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1187</v>
       </c>
@@ -22671,8 +24624,11 @@
       <c r="H641" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I641" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1189</v>
       </c>
@@ -22698,8 +24654,11 @@
       <c r="H642" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I642" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>1191</v>
       </c>
@@ -22725,8 +24684,11 @@
       <c r="H643" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I643" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>1193</v>
       </c>
@@ -22752,8 +24714,11 @@
       <c r="H644" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I644" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>1195</v>
       </c>
@@ -22779,8 +24744,11 @@
       <c r="H645" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I645" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>1197</v>
       </c>
@@ -22806,8 +24774,11 @@
       <c r="H646" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I646" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1199</v>
       </c>
@@ -22833,8 +24804,11 @@
       <c r="H647" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I647" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1201</v>
       </c>
@@ -22860,8 +24834,11 @@
       <c r="H648" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I648" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>1203</v>
       </c>
@@ -22887,8 +24864,11 @@
       <c r="H649" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I649" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1205</v>
       </c>
@@ -22914,8 +24894,11 @@
       <c r="H650" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I650" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1207</v>
       </c>
@@ -22941,8 +24924,11 @@
       <c r="H651" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I651" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1209</v>
       </c>
@@ -22968,8 +24954,11 @@
       <c r="H652" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I652" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1211</v>
       </c>
@@ -22995,8 +24984,11 @@
       <c r="H653" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I653" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1213</v>
       </c>
@@ -23022,8 +25014,11 @@
       <c r="H654" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I654" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>1215</v>
       </c>
@@ -23049,8 +25044,11 @@
       <c r="H655" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I655" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1414</v>
       </c>
@@ -23076,8 +25074,11 @@
       <c r="H656" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I656" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>1420</v>
       </c>
@@ -23105,8 +25106,11 @@
       <c r="H657" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I657" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1423</v>
       </c>
@@ -23134,8 +25138,11 @@
       <c r="H658" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I658" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1422</v>
       </c>
@@ -23163,8 +25170,11 @@
       <c r="H659" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I659" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>1429</v>
       </c>
@@ -23192,8 +25202,11 @@
       <c r="H660" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I660" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1430</v>
       </c>
@@ -23221,8 +25234,11 @@
       <c r="H661" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I661" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>1431</v>
       </c>
@@ -23250,8 +25266,11 @@
       <c r="H662" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I662" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>1443</v>
       </c>
@@ -23278,8 +25297,11 @@
       <c r="H663" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I663" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>1442</v>
       </c>
@@ -23306,8 +25328,11 @@
       <c r="H664" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I664" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>1441</v>
       </c>
@@ -23334,8 +25359,11 @@
       <c r="H665" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I665" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>1444</v>
       </c>
@@ -23362,8 +25390,11 @@
       <c r="H666" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I666" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>1446</v>
       </c>
@@ -23390,8 +25421,11 @@
       <c r="H667" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I667" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1449</v>
       </c>
@@ -23418,8 +25452,11 @@
       <c r="H668" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I668" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1452</v>
       </c>
@@ -23446,8 +25483,11 @@
       <c r="H669" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I669" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>1455</v>
       </c>
@@ -23474,8 +25514,11 @@
       <c r="H670" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I670" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1458</v>
       </c>
@@ -23502,8 +25545,11 @@
       <c r="H671" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I671" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>1460</v>
       </c>
@@ -23530,8 +25576,11 @@
       <c r="H672" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I672" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1461</v>
       </c>
@@ -23558,8 +25607,11 @@
       <c r="H673" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I673" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>1491</v>
       </c>
@@ -23584,8 +25636,11 @@
       <c r="H674" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I674" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>1492</v>
       </c>
@@ -23610,8 +25665,11 @@
       <c r="H675" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I675" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>1493</v>
       </c>
@@ -23636,8 +25694,11 @@
       <c r="H676" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I676" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>1494</v>
       </c>
@@ -23662,8 +25723,11 @@
       <c r="H677" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I677" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>1495</v>
       </c>
@@ -23688,8 +25752,11 @@
       <c r="H678" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I678" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>1496</v>
       </c>
@@ -23714,8 +25781,11 @@
       <c r="H679" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I679" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>1497</v>
       </c>
@@ -23740,8 +25810,11 @@
       <c r="H680" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I680" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>1498</v>
       </c>
@@ -23766,8 +25839,11 @@
       <c r="H681" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I681" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>1499</v>
       </c>
@@ -23792,8 +25868,11 @@
       <c r="H682" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I682" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>1500</v>
       </c>
@@ -23818,8 +25897,11 @@
       <c r="H683" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I683" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>1501</v>
       </c>
@@ -23844,8 +25926,11 @@
       <c r="H684" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I684" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>1502</v>
       </c>
@@ -23870,8 +25955,11 @@
       <c r="H685" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I685" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>1503</v>
       </c>
@@ -23896,8 +25984,11 @@
       <c r="H686" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I686" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>1504</v>
       </c>
@@ -23922,8 +26013,11 @@
       <c r="H687" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I687" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>1505</v>
       </c>
@@ -23948,8 +26042,11 @@
       <c r="H688" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I688" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>1506</v>
       </c>
@@ -23974,8 +26071,11 @@
       <c r="H689" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I689" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>1507</v>
       </c>
@@ -24000,8 +26100,11 @@
       <c r="H690" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I690" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>1508</v>
       </c>
@@ -24026,8 +26129,11 @@
       <c r="H691" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I691" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>1509</v>
       </c>
@@ -24052,8 +26158,11 @@
       <c r="H692" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I692" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>1510</v>
       </c>
@@ -24078,8 +26187,11 @@
       <c r="H693" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I693" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>1511</v>
       </c>
@@ -24104,8 +26216,11 @@
       <c r="H694" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I694" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>1512</v>
       </c>
@@ -24130,8 +26245,11 @@
       <c r="H695" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I695" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>1513</v>
       </c>
@@ -24156,8 +26274,11 @@
       <c r="H696" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I696" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>1514</v>
       </c>
@@ -24181,6 +26302,9 @@
       </c>
       <c r="H697" t="s">
         <v>507</v>
+      </c>
+      <c r="I697" t="s">
+        <v>1528</v>
       </c>
     </row>
   </sheetData>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7367DB04-29FE-894A-B24C-F3CAB52D52DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58DFB56-7343-9945-97ED-FB4378A39C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="23660" windowHeight="11440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="1529">
   <si>
     <t>Kudat</t>
   </si>
@@ -4304,18 +4304,6 @@
     <t>malagasy19</t>
   </si>
   <si>
-    <t>PMC3435245</t>
-  </si>
-  <si>
-    <t>PMC3435246</t>
-  </si>
-  <si>
-    <t>PMC3435247</t>
-  </si>
-  <si>
-    <t>PMC3435248</t>
-  </si>
-  <si>
     <t>PMC3435249</t>
   </si>
   <si>
@@ -4626,6 +4614,9 @@
   </si>
   <si>
     <t>vividregion</t>
+  </si>
+  <si>
+    <t>PMC3836732</t>
   </si>
 </sst>
 </file>
@@ -5831,8 +5822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
+      <selection activeCell="G657" sqref="G657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5873,7 +5864,7 @@
         <v>509</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5902,7 +5893,7 @@
         <v>507</v>
       </c>
       <c r="I2" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5931,7 +5922,7 @@
         <v>507</v>
       </c>
       <c r="I3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5960,7 +5951,7 @@
         <v>507</v>
       </c>
       <c r="I4" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5989,7 +5980,7 @@
         <v>507</v>
       </c>
       <c r="I5" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6018,7 +6009,7 @@
         <v>507</v>
       </c>
       <c r="I6" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6047,7 +6038,7 @@
         <v>507</v>
       </c>
       <c r="I7" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6076,7 +6067,7 @@
         <v>507</v>
       </c>
       <c r="I8" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6105,7 +6096,7 @@
         <v>507</v>
       </c>
       <c r="I9" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6134,7 +6125,7 @@
         <v>507</v>
       </c>
       <c r="I10" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6163,7 +6154,7 @@
         <v>507</v>
       </c>
       <c r="I11" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6192,7 +6183,7 @@
         <v>507</v>
       </c>
       <c r="I12" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6221,7 +6212,7 @@
         <v>507</v>
       </c>
       <c r="I13" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6250,7 +6241,7 @@
         <v>507</v>
       </c>
       <c r="I14" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6279,7 +6270,7 @@
         <v>507</v>
       </c>
       <c r="I15" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6308,7 +6299,7 @@
         <v>507</v>
       </c>
       <c r="I16" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6337,7 +6328,7 @@
         <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6366,7 +6357,7 @@
         <v>507</v>
       </c>
       <c r="I18" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6395,7 +6386,7 @@
         <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6424,7 +6415,7 @@
         <v>507</v>
       </c>
       <c r="I20" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6453,7 +6444,7 @@
         <v>507</v>
       </c>
       <c r="I21" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6482,7 +6473,7 @@
         <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6511,7 +6502,7 @@
         <v>507</v>
       </c>
       <c r="I23" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6540,7 +6531,7 @@
         <v>507</v>
       </c>
       <c r="I24" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6569,7 +6560,7 @@
         <v>507</v>
       </c>
       <c r="I25" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6598,7 +6589,7 @@
         <v>507</v>
       </c>
       <c r="I26" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6627,7 +6618,7 @@
         <v>507</v>
       </c>
       <c r="I27" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6656,7 +6647,7 @@
         <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6685,7 +6676,7 @@
         <v>507</v>
       </c>
       <c r="I29" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6714,7 +6705,7 @@
         <v>507</v>
       </c>
       <c r="I30" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6740,7 +6731,7 @@
         <v>508</v>
       </c>
       <c r="I31" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6769,7 +6760,7 @@
         <v>508</v>
       </c>
       <c r="I32" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6798,7 +6789,7 @@
         <v>508</v>
       </c>
       <c r="I33" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -6827,7 +6818,7 @@
         <v>508</v>
       </c>
       <c r="I34" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -6856,7 +6847,7 @@
         <v>508</v>
       </c>
       <c r="I35" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -6885,7 +6876,7 @@
         <v>510</v>
       </c>
       <c r="I36" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -6914,7 +6905,7 @@
         <v>507</v>
       </c>
       <c r="I37" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -6937,13 +6928,13 @@
         <v>2015</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H38" t="s">
         <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6966,13 +6957,13 @@
         <v>2015</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H39" t="s">
         <v>507</v>
       </c>
       <c r="I39" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -6995,13 +6986,13 @@
         <v>2015</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H40" t="s">
         <v>507</v>
       </c>
       <c r="I40" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7024,13 +7015,13 @@
         <v>2015</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H41" t="s">
         <v>507</v>
       </c>
       <c r="I41" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7053,13 +7044,13 @@
         <v>2015</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H42" t="s">
         <v>507</v>
       </c>
       <c r="I42" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7088,7 +7079,7 @@
         <v>507</v>
       </c>
       <c r="I43" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7117,7 +7108,7 @@
         <v>507</v>
       </c>
       <c r="I44" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7146,7 +7137,7 @@
         <v>507</v>
       </c>
       <c r="I45" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7175,7 +7166,7 @@
         <v>507</v>
       </c>
       <c r="I46" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7204,7 +7195,7 @@
         <v>507</v>
       </c>
       <c r="I47" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7233,7 +7224,7 @@
         <v>507</v>
       </c>
       <c r="I48" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7262,7 +7253,7 @@
         <v>507</v>
       </c>
       <c r="I49" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7291,7 +7282,7 @@
         <v>507</v>
       </c>
       <c r="I50" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7320,7 +7311,7 @@
         <v>507</v>
       </c>
       <c r="I51" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7349,7 +7340,7 @@
         <v>507</v>
       </c>
       <c r="I52" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7378,7 +7369,7 @@
         <v>507</v>
       </c>
       <c r="I53" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7407,7 +7398,7 @@
         <v>507</v>
       </c>
       <c r="I54" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7436,7 +7427,7 @@
         <v>507</v>
       </c>
       <c r="I55" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7465,7 +7456,7 @@
         <v>507</v>
       </c>
       <c r="I56" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7494,7 +7485,7 @@
         <v>507</v>
       </c>
       <c r="I57" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -7523,7 +7514,7 @@
         <v>507</v>
       </c>
       <c r="I58" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -7552,7 +7543,7 @@
         <v>507</v>
       </c>
       <c r="I59" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -7581,7 +7572,7 @@
         <v>507</v>
       </c>
       <c r="I60" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -7610,7 +7601,7 @@
         <v>507</v>
       </c>
       <c r="I61" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -7639,7 +7630,7 @@
         <v>507</v>
       </c>
       <c r="I62" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -7668,7 +7659,7 @@
         <v>507</v>
       </c>
       <c r="I63" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -7697,7 +7688,7 @@
         <v>507</v>
       </c>
       <c r="I64" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -7726,7 +7717,7 @@
         <v>507</v>
       </c>
       <c r="I65" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -7755,7 +7746,7 @@
         <v>507</v>
       </c>
       <c r="I66" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -7784,7 +7775,7 @@
         <v>507</v>
       </c>
       <c r="I67" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -7813,7 +7804,7 @@
         <v>507</v>
       </c>
       <c r="I68" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -7842,7 +7833,7 @@
         <v>507</v>
       </c>
       <c r="I69" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -7871,7 +7862,7 @@
         <v>507</v>
       </c>
       <c r="I70" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -7900,7 +7891,7 @@
         <v>507</v>
       </c>
       <c r="I71" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -7929,7 +7920,7 @@
         <v>507</v>
       </c>
       <c r="I72" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -7958,7 +7949,7 @@
         <v>508</v>
       </c>
       <c r="I73" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -7987,7 +7978,7 @@
         <v>508</v>
       </c>
       <c r="I74" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -8016,7 +8007,7 @@
         <v>508</v>
       </c>
       <c r="I75" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -8045,7 +8036,7 @@
         <v>508</v>
       </c>
       <c r="I76" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -8074,7 +8065,7 @@
         <v>508</v>
       </c>
       <c r="I77" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -8103,7 +8094,7 @@
         <v>508</v>
       </c>
       <c r="I78" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -8132,7 +8123,7 @@
         <v>508</v>
       </c>
       <c r="I79" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -8161,7 +8152,7 @@
         <v>508</v>
       </c>
       <c r="I80" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -8190,7 +8181,7 @@
         <v>511</v>
       </c>
       <c r="I81" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -8219,7 +8210,7 @@
         <v>508</v>
       </c>
       <c r="I82" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -8248,7 +8239,7 @@
         <v>508</v>
       </c>
       <c r="I83" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -8279,7 +8270,7 @@
         <v>507</v>
       </c>
       <c r="I84" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -8308,7 +8299,7 @@
         <v>507</v>
       </c>
       <c r="I85" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -8337,7 +8328,7 @@
         <v>507</v>
       </c>
       <c r="I86" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -8366,7 +8357,7 @@
         <v>507</v>
       </c>
       <c r="I87" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -8395,7 +8386,7 @@
         <v>507</v>
       </c>
       <c r="I88" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -8424,7 +8415,7 @@
         <v>507</v>
       </c>
       <c r="I89" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -8453,7 +8444,7 @@
         <v>507</v>
       </c>
       <c r="I90" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -8482,7 +8473,7 @@
         <v>507</v>
       </c>
       <c r="I91" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -8511,7 +8502,7 @@
         <v>507</v>
       </c>
       <c r="I92" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -8540,7 +8531,7 @@
         <v>507</v>
       </c>
       <c r="I93" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -8569,7 +8560,7 @@
         <v>507</v>
       </c>
       <c r="I94" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -8598,7 +8589,7 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -8627,7 +8618,7 @@
         <v>507</v>
       </c>
       <c r="I96" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -8656,7 +8647,7 @@
         <v>507</v>
       </c>
       <c r="I97" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -8685,7 +8676,7 @@
         <v>507</v>
       </c>
       <c r="I98" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -8714,7 +8705,7 @@
         <v>507</v>
       </c>
       <c r="I99" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -8743,7 +8734,7 @@
         <v>507</v>
       </c>
       <c r="I100" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -8772,7 +8763,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -8801,7 +8792,7 @@
         <v>507</v>
       </c>
       <c r="I102" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -8830,7 +8821,7 @@
         <v>507</v>
       </c>
       <c r="I103" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -8859,7 +8850,7 @@
         <v>507</v>
       </c>
       <c r="I104" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -8888,7 +8879,7 @@
         <v>507</v>
       </c>
       <c r="I105" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -8917,7 +8908,7 @@
         <v>507</v>
       </c>
       <c r="I106" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -8946,7 +8937,7 @@
         <v>507</v>
       </c>
       <c r="I107" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -8975,7 +8966,7 @@
         <v>507</v>
       </c>
       <c r="I108" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -9004,7 +8995,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -9033,7 +9024,7 @@
         <v>507</v>
       </c>
       <c r="I110" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -9062,7 +9053,7 @@
         <v>507</v>
       </c>
       <c r="I111" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -9091,7 +9082,7 @@
         <v>507</v>
       </c>
       <c r="I112" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -9120,7 +9111,7 @@
         <v>507</v>
       </c>
       <c r="I113" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -9149,7 +9140,7 @@
         <v>507</v>
       </c>
       <c r="I114" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -9178,7 +9169,7 @@
         <v>507</v>
       </c>
       <c r="I115" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -9207,7 +9198,7 @@
         <v>507</v>
       </c>
       <c r="I116" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -9236,7 +9227,7 @@
         <v>507</v>
       </c>
       <c r="I117" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -9265,7 +9256,7 @@
         <v>507</v>
       </c>
       <c r="I118" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -9294,7 +9285,7 @@
         <v>507</v>
       </c>
       <c r="I119" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -9323,7 +9314,7 @@
         <v>507</v>
       </c>
       <c r="I120" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -9352,7 +9343,7 @@
         <v>507</v>
       </c>
       <c r="I121" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -9381,7 +9372,7 @@
         <v>507</v>
       </c>
       <c r="I122" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -9410,7 +9401,7 @@
         <v>507</v>
       </c>
       <c r="I123" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -9439,7 +9430,7 @@
         <v>507</v>
       </c>
       <c r="I124" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -9468,7 +9459,7 @@
         <v>507</v>
       </c>
       <c r="I125" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -9497,7 +9488,7 @@
         <v>507</v>
       </c>
       <c r="I126" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -9526,7 +9517,7 @@
         <v>507</v>
       </c>
       <c r="I127" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -9555,7 +9546,7 @@
         <v>507</v>
       </c>
       <c r="I128" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -9584,7 +9575,7 @@
         <v>507</v>
       </c>
       <c r="I129" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -9613,7 +9604,7 @@
         <v>507</v>
       </c>
       <c r="I130" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -9642,7 +9633,7 @@
         <v>507</v>
       </c>
       <c r="I131" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -9671,7 +9662,7 @@
         <v>507</v>
       </c>
       <c r="I132" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -9700,7 +9691,7 @@
         <v>507</v>
       </c>
       <c r="I133" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -9729,7 +9720,7 @@
         <v>507</v>
       </c>
       <c r="I134" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -9758,7 +9749,7 @@
         <v>507</v>
       </c>
       <c r="I135" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -9787,7 +9778,7 @@
         <v>507</v>
       </c>
       <c r="I136" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -9816,7 +9807,7 @@
         <v>507</v>
       </c>
       <c r="I137" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -9845,7 +9836,7 @@
         <v>507</v>
       </c>
       <c r="I138" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -9874,7 +9865,7 @@
         <v>507</v>
       </c>
       <c r="I139" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -9903,7 +9894,7 @@
         <v>507</v>
       </c>
       <c r="I140" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -9932,7 +9923,7 @@
         <v>507</v>
       </c>
       <c r="I141" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -9961,7 +9952,7 @@
         <v>507</v>
       </c>
       <c r="I142" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -9990,7 +9981,7 @@
         <v>507</v>
       </c>
       <c r="I143" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -10019,7 +10010,7 @@
         <v>507</v>
       </c>
       <c r="I144" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -10048,7 +10039,7 @@
         <v>507</v>
       </c>
       <c r="I145" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -10077,7 +10068,7 @@
         <v>507</v>
       </c>
       <c r="I146" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -10106,7 +10097,7 @@
         <v>507</v>
       </c>
       <c r="I147" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -10135,7 +10126,7 @@
         <v>507</v>
       </c>
       <c r="I148" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -10164,7 +10155,7 @@
         <v>507</v>
       </c>
       <c r="I149" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -10193,7 +10184,7 @@
         <v>507</v>
       </c>
       <c r="I150" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -10222,7 +10213,7 @@
         <v>507</v>
       </c>
       <c r="I151" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -10251,7 +10242,7 @@
         <v>507</v>
       </c>
       <c r="I152" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -10280,7 +10271,7 @@
         <v>507</v>
       </c>
       <c r="I153" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -10309,7 +10300,7 @@
         <v>507</v>
       </c>
       <c r="I154" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -10338,7 +10329,7 @@
         <v>507</v>
       </c>
       <c r="I155" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -10367,7 +10358,7 @@
         <v>507</v>
       </c>
       <c r="I156" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -10396,7 +10387,7 @@
         <v>507</v>
       </c>
       <c r="I157" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -10425,7 +10416,7 @@
         <v>507</v>
       </c>
       <c r="I158" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -10454,7 +10445,7 @@
         <v>507</v>
       </c>
       <c r="I159" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -10483,7 +10474,7 @@
         <v>507</v>
       </c>
       <c r="I160" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -10512,7 +10503,7 @@
         <v>507</v>
       </c>
       <c r="I161" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -10541,7 +10532,7 @@
         <v>507</v>
       </c>
       <c r="I162" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -10570,7 +10561,7 @@
         <v>507</v>
       </c>
       <c r="I163" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -10599,7 +10590,7 @@
         <v>507</v>
       </c>
       <c r="I164" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -10628,7 +10619,7 @@
         <v>507</v>
       </c>
       <c r="I165" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -10657,7 +10648,7 @@
         <v>507</v>
       </c>
       <c r="I166" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -10686,7 +10677,7 @@
         <v>507</v>
       </c>
       <c r="I167" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -10715,7 +10706,7 @@
         <v>507</v>
       </c>
       <c r="I168" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -10744,7 +10735,7 @@
         <v>507</v>
       </c>
       <c r="I169" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -10773,7 +10764,7 @@
         <v>507</v>
       </c>
       <c r="I170" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -10802,7 +10793,7 @@
         <v>507</v>
       </c>
       <c r="I171" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -10831,7 +10822,7 @@
         <v>507</v>
       </c>
       <c r="I172" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -10860,7 +10851,7 @@
         <v>507</v>
       </c>
       <c r="I173" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -10889,7 +10880,7 @@
         <v>507</v>
       </c>
       <c r="I174" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -10918,7 +10909,7 @@
         <v>507</v>
       </c>
       <c r="I175" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -10947,7 +10938,7 @@
         <v>507</v>
       </c>
       <c r="I176" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -10976,7 +10967,7 @@
         <v>507</v>
       </c>
       <c r="I177" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -11005,7 +10996,7 @@
         <v>507</v>
       </c>
       <c r="I178" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -11034,7 +11025,7 @@
         <v>507</v>
       </c>
       <c r="I179" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -11063,7 +11054,7 @@
         <v>507</v>
       </c>
       <c r="I180" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -11092,7 +11083,7 @@
         <v>507</v>
       </c>
       <c r="I181" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -11121,7 +11112,7 @@
         <v>507</v>
       </c>
       <c r="I182" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -11150,7 +11141,7 @@
         <v>507</v>
       </c>
       <c r="I183" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -11179,7 +11170,7 @@
         <v>507</v>
       </c>
       <c r="I184" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -11208,7 +11199,7 @@
         <v>507</v>
       </c>
       <c r="I185" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -11237,7 +11228,7 @@
         <v>507</v>
       </c>
       <c r="I186" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -11266,7 +11257,7 @@
         <v>507</v>
       </c>
       <c r="I187" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -11295,7 +11286,7 @@
         <v>507</v>
       </c>
       <c r="I188" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -11324,7 +11315,7 @@
         <v>507</v>
       </c>
       <c r="I189" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -11353,7 +11344,7 @@
         <v>507</v>
       </c>
       <c r="I190" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -11382,7 +11373,7 @@
         <v>507</v>
       </c>
       <c r="I191" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -11411,7 +11402,7 @@
         <v>507</v>
       </c>
       <c r="I192" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -11440,7 +11431,7 @@
         <v>507</v>
       </c>
       <c r="I193" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -11469,7 +11460,7 @@
         <v>507</v>
       </c>
       <c r="I194" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -11498,7 +11489,7 @@
         <v>507</v>
       </c>
       <c r="I195" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -11527,7 +11518,7 @@
         <v>507</v>
       </c>
       <c r="I196" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -11556,7 +11547,7 @@
         <v>507</v>
       </c>
       <c r="I197" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -11585,7 +11576,7 @@
         <v>507</v>
       </c>
       <c r="I198" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -11614,7 +11605,7 @@
         <v>507</v>
       </c>
       <c r="I199" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -11643,7 +11634,7 @@
         <v>507</v>
       </c>
       <c r="I200" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -11672,7 +11663,7 @@
         <v>507</v>
       </c>
       <c r="I201" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -11701,7 +11692,7 @@
         <v>507</v>
       </c>
       <c r="I202" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -11730,7 +11721,7 @@
         <v>507</v>
       </c>
       <c r="I203" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -11759,7 +11750,7 @@
         <v>507</v>
       </c>
       <c r="I204" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -11788,7 +11779,7 @@
         <v>507</v>
       </c>
       <c r="I205" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -11817,7 +11808,7 @@
         <v>507</v>
       </c>
       <c r="I206" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -11846,7 +11837,7 @@
         <v>507</v>
       </c>
       <c r="I207" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -11875,7 +11866,7 @@
         <v>507</v>
       </c>
       <c r="I208" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -11904,7 +11895,7 @@
         <v>507</v>
       </c>
       <c r="I209" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -11933,7 +11924,7 @@
         <v>507</v>
       </c>
       <c r="I210" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -11962,7 +11953,7 @@
         <v>507</v>
       </c>
       <c r="I211" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -11991,7 +11982,7 @@
         <v>507</v>
       </c>
       <c r="I212" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -12020,7 +12011,7 @@
         <v>507</v>
       </c>
       <c r="I213" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -12049,7 +12040,7 @@
         <v>507</v>
       </c>
       <c r="I214" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -12078,7 +12069,7 @@
         <v>507</v>
       </c>
       <c r="I215" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -12107,7 +12098,7 @@
         <v>507</v>
       </c>
       <c r="I216" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -12136,7 +12127,7 @@
         <v>507</v>
       </c>
       <c r="I217" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -12165,7 +12156,7 @@
         <v>507</v>
       </c>
       <c r="I218" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -12194,7 +12185,7 @@
         <v>507</v>
       </c>
       <c r="I219" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -12223,7 +12214,7 @@
         <v>507</v>
       </c>
       <c r="I220" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -12252,7 +12243,7 @@
         <v>507</v>
       </c>
       <c r="I221" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -12281,7 +12272,7 @@
         <v>507</v>
       </c>
       <c r="I222" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -12310,7 +12301,7 @@
         <v>507</v>
       </c>
       <c r="I223" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -12339,7 +12330,7 @@
         <v>507</v>
       </c>
       <c r="I224" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -12368,7 +12359,7 @@
         <v>507</v>
       </c>
       <c r="I225" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -12397,7 +12388,7 @@
         <v>507</v>
       </c>
       <c r="I226" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -12426,7 +12417,7 @@
         <v>507</v>
       </c>
       <c r="I227" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -12455,7 +12446,7 @@
         <v>507</v>
       </c>
       <c r="I228" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -12484,7 +12475,7 @@
         <v>507</v>
       </c>
       <c r="I229" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -12513,7 +12504,7 @@
         <v>507</v>
       </c>
       <c r="I230" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -12542,7 +12533,7 @@
         <v>507</v>
       </c>
       <c r="I231" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -12571,7 +12562,7 @@
         <v>507</v>
       </c>
       <c r="I232" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -12600,7 +12591,7 @@
         <v>507</v>
       </c>
       <c r="I233" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -12629,7 +12620,7 @@
         <v>507</v>
       </c>
       <c r="I234" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -12658,7 +12649,7 @@
         <v>507</v>
       </c>
       <c r="I235" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -12687,7 +12678,7 @@
         <v>507</v>
       </c>
       <c r="I236" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -12716,7 +12707,7 @@
         <v>507</v>
       </c>
       <c r="I237" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -12745,7 +12736,7 @@
         <v>507</v>
       </c>
       <c r="I238" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -12774,7 +12765,7 @@
         <v>507</v>
       </c>
       <c r="I239" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -12803,7 +12794,7 @@
         <v>507</v>
       </c>
       <c r="I240" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -12832,7 +12823,7 @@
         <v>507</v>
       </c>
       <c r="I241" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -12861,7 +12852,7 @@
         <v>507</v>
       </c>
       <c r="I242" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -12890,7 +12881,7 @@
         <v>507</v>
       </c>
       <c r="I243" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -12919,7 +12910,7 @@
         <v>507</v>
       </c>
       <c r="I244" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -12948,7 +12939,7 @@
         <v>507</v>
       </c>
       <c r="I245" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -12977,7 +12968,7 @@
         <v>507</v>
       </c>
       <c r="I246" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -13006,7 +12997,7 @@
         <v>507</v>
       </c>
       <c r="I247" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -13035,7 +13026,7 @@
         <v>507</v>
       </c>
       <c r="I248" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -13064,7 +13055,7 @@
         <v>507</v>
       </c>
       <c r="I249" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -13093,7 +13084,7 @@
         <v>507</v>
       </c>
       <c r="I250" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -13122,7 +13113,7 @@
         <v>507</v>
       </c>
       <c r="I251" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -13152,7 +13143,7 @@
         <v>507</v>
       </c>
       <c r="I252" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -13182,7 +13173,7 @@
         <v>507</v>
       </c>
       <c r="I253" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -13212,7 +13203,7 @@
         <v>507</v>
       </c>
       <c r="I254" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -13242,7 +13233,7 @@
         <v>507</v>
       </c>
       <c r="I255" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -13272,7 +13263,7 @@
         <v>507</v>
       </c>
       <c r="I256" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -13302,7 +13293,7 @@
         <v>507</v>
       </c>
       <c r="I257" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -13332,7 +13323,7 @@
         <v>507</v>
       </c>
       <c r="I258" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -13362,7 +13353,7 @@
         <v>507</v>
       </c>
       <c r="I259" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -13392,7 +13383,7 @@
         <v>507</v>
       </c>
       <c r="I260" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -13422,7 +13413,7 @@
         <v>507</v>
       </c>
       <c r="I261" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -13452,7 +13443,7 @@
         <v>507</v>
       </c>
       <c r="I262" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -13482,7 +13473,7 @@
         <v>507</v>
       </c>
       <c r="I263" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -13512,7 +13503,7 @@
         <v>507</v>
       </c>
       <c r="I264" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -13542,7 +13533,7 @@
         <v>507</v>
       </c>
       <c r="I265" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -13572,7 +13563,7 @@
         <v>507</v>
       </c>
       <c r="I266" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -13602,7 +13593,7 @@
         <v>507</v>
       </c>
       <c r="I267" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -13632,7 +13623,7 @@
         <v>507</v>
       </c>
       <c r="I268" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -13662,7 +13653,7 @@
         <v>507</v>
       </c>
       <c r="I269" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -13692,7 +13683,7 @@
         <v>507</v>
       </c>
       <c r="I270" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -13722,7 +13713,7 @@
         <v>507</v>
       </c>
       <c r="I271" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -13752,7 +13743,7 @@
         <v>507</v>
       </c>
       <c r="I272" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -13782,7 +13773,7 @@
         <v>507</v>
       </c>
       <c r="I273" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -13812,7 +13803,7 @@
         <v>507</v>
       </c>
       <c r="I274" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -13842,7 +13833,7 @@
         <v>507</v>
       </c>
       <c r="I275" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -13872,7 +13863,7 @@
         <v>507</v>
       </c>
       <c r="I276" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -13902,7 +13893,7 @@
         <v>507</v>
       </c>
       <c r="I277" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -13932,7 +13923,7 @@
         <v>507</v>
       </c>
       <c r="I278" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -13962,7 +13953,7 @@
         <v>507</v>
       </c>
       <c r="I279" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -13992,7 +13983,7 @@
         <v>507</v>
       </c>
       <c r="I280" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -14022,7 +14013,7 @@
         <v>507</v>
       </c>
       <c r="I281" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -14052,7 +14043,7 @@
         <v>507</v>
       </c>
       <c r="I282" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -14082,7 +14073,7 @@
         <v>507</v>
       </c>
       <c r="I283" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -14112,7 +14103,7 @@
         <v>507</v>
       </c>
       <c r="I284" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -14142,7 +14133,7 @@
         <v>507</v>
       </c>
       <c r="I285" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -14172,7 +14163,7 @@
         <v>507</v>
       </c>
       <c r="I286" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -14202,7 +14193,7 @@
         <v>507</v>
       </c>
       <c r="I287" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -14232,7 +14223,7 @@
         <v>507</v>
       </c>
       <c r="I288" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -14262,7 +14253,7 @@
         <v>507</v>
       </c>
       <c r="I289" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -14292,7 +14283,7 @@
         <v>507</v>
       </c>
       <c r="I290" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -14322,7 +14313,7 @@
         <v>507</v>
       </c>
       <c r="I291" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -14352,7 +14343,7 @@
         <v>507</v>
       </c>
       <c r="I292" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -14382,7 +14373,7 @@
         <v>507</v>
       </c>
       <c r="I293" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -14412,7 +14403,7 @@
         <v>507</v>
       </c>
       <c r="I294" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -14442,7 +14433,7 @@
         <v>507</v>
       </c>
       <c r="I295" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -14471,7 +14462,7 @@
         <v>507</v>
       </c>
       <c r="I296" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -14501,7 +14492,7 @@
         <v>507</v>
       </c>
       <c r="I297" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -14531,7 +14522,7 @@
         <v>507</v>
       </c>
       <c r="I298" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -14561,7 +14552,7 @@
         <v>507</v>
       </c>
       <c r="I299" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -14591,7 +14582,7 @@
         <v>507</v>
       </c>
       <c r="I300" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -14620,7 +14611,7 @@
         <v>507</v>
       </c>
       <c r="I301" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -14649,7 +14640,7 @@
         <v>507</v>
       </c>
       <c r="I302" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -14679,7 +14670,7 @@
         <v>507</v>
       </c>
       <c r="I303" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -14709,7 +14700,7 @@
         <v>507</v>
       </c>
       <c r="I304" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -14739,7 +14730,7 @@
         <v>507</v>
       </c>
       <c r="I305" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -14769,7 +14760,7 @@
         <v>507</v>
       </c>
       <c r="I306" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -14799,7 +14790,7 @@
         <v>507</v>
       </c>
       <c r="I307" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -14829,7 +14820,7 @@
         <v>507</v>
       </c>
       <c r="I308" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -14859,7 +14850,7 @@
         <v>507</v>
       </c>
       <c r="I309" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -14889,7 +14880,7 @@
         <v>507</v>
       </c>
       <c r="I310" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -14918,7 +14909,7 @@
         <v>507</v>
       </c>
       <c r="I311" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -14948,7 +14939,7 @@
         <v>507</v>
       </c>
       <c r="I312" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -14978,7 +14969,7 @@
         <v>507</v>
       </c>
       <c r="I313" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -15008,7 +14999,7 @@
         <v>507</v>
       </c>
       <c r="I314" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -15038,7 +15029,7 @@
         <v>507</v>
       </c>
       <c r="I315" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -15067,7 +15058,7 @@
         <v>507</v>
       </c>
       <c r="I316" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -15096,7 +15087,7 @@
         <v>507</v>
       </c>
       <c r="I317" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -15126,7 +15117,7 @@
         <v>507</v>
       </c>
       <c r="I318" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -15156,7 +15147,7 @@
         <v>507</v>
       </c>
       <c r="I319" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -15186,7 +15177,7 @@
         <v>507</v>
       </c>
       <c r="I320" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
@@ -15216,7 +15207,7 @@
         <v>507</v>
       </c>
       <c r="I321" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
@@ -15246,7 +15237,7 @@
         <v>507</v>
       </c>
       <c r="I322" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -15276,7 +15267,7 @@
         <v>507</v>
       </c>
       <c r="I323" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -15306,7 +15297,7 @@
         <v>507</v>
       </c>
       <c r="I324" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
@@ -15336,7 +15327,7 @@
         <v>507</v>
       </c>
       <c r="I325" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -15366,7 +15357,7 @@
         <v>507</v>
       </c>
       <c r="I326" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
@@ -15396,7 +15387,7 @@
         <v>507</v>
       </c>
       <c r="I327" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
@@ -15426,7 +15417,7 @@
         <v>507</v>
       </c>
       <c r="I328" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
@@ -15456,7 +15447,7 @@
         <v>507</v>
       </c>
       <c r="I329" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
@@ -15486,7 +15477,7 @@
         <v>507</v>
       </c>
       <c r="I330" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
@@ -15516,7 +15507,7 @@
         <v>507</v>
       </c>
       <c r="I331" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -15546,7 +15537,7 @@
         <v>507</v>
       </c>
       <c r="I332" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -15576,7 +15567,7 @@
         <v>507</v>
       </c>
       <c r="I333" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
@@ -15606,7 +15597,7 @@
         <v>507</v>
       </c>
       <c r="I334" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
@@ -15636,7 +15627,7 @@
         <v>507</v>
       </c>
       <c r="I335" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -15666,7 +15657,7 @@
         <v>507</v>
       </c>
       <c r="I336" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
@@ -15696,7 +15687,7 @@
         <v>507</v>
       </c>
       <c r="I337" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
@@ -15726,7 +15717,7 @@
         <v>507</v>
       </c>
       <c r="I338" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
@@ -15756,7 +15747,7 @@
         <v>507</v>
       </c>
       <c r="I339" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
@@ -15786,7 +15777,7 @@
         <v>507</v>
       </c>
       <c r="I340" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
@@ -15816,7 +15807,7 @@
         <v>507</v>
       </c>
       <c r="I341" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
@@ -15846,7 +15837,7 @@
         <v>507</v>
       </c>
       <c r="I342" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -15876,7 +15867,7 @@
         <v>507</v>
       </c>
       <c r="I343" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -15906,7 +15897,7 @@
         <v>507</v>
       </c>
       <c r="I344" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
@@ -15936,7 +15927,7 @@
         <v>507</v>
       </c>
       <c r="I345" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
@@ -15966,7 +15957,7 @@
         <v>507</v>
       </c>
       <c r="I346" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
@@ -15996,7 +15987,7 @@
         <v>507</v>
       </c>
       <c r="I347" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
@@ -16026,7 +16017,7 @@
         <v>507</v>
       </c>
       <c r="I348" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
@@ -16056,7 +16047,7 @@
         <v>507</v>
       </c>
       <c r="I349" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
@@ -16085,7 +16076,7 @@
         <v>507</v>
       </c>
       <c r="I350" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
@@ -16114,7 +16105,7 @@
         <v>507</v>
       </c>
       <c r="I351" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
@@ -16143,7 +16134,7 @@
         <v>507</v>
       </c>
       <c r="I352" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
@@ -16172,7 +16163,7 @@
         <v>507</v>
       </c>
       <c r="I353" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
@@ -16201,7 +16192,7 @@
         <v>507</v>
       </c>
       <c r="I354" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
@@ -16231,7 +16222,7 @@
         <v>507</v>
       </c>
       <c r="I355" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
@@ -16261,7 +16252,7 @@
         <v>507</v>
       </c>
       <c r="I356" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
@@ -16291,7 +16282,7 @@
         <v>507</v>
       </c>
       <c r="I357" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
@@ -16321,7 +16312,7 @@
         <v>507</v>
       </c>
       <c r="I358" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
@@ -16351,7 +16342,7 @@
         <v>507</v>
       </c>
       <c r="I359" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
@@ -16380,7 +16371,7 @@
         <v>507</v>
       </c>
       <c r="I360" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -16409,7 +16400,7 @@
         <v>507</v>
       </c>
       <c r="I361" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -16438,7 +16429,7 @@
         <v>507</v>
       </c>
       <c r="I362" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
@@ -16467,7 +16458,7 @@
         <v>507</v>
       </c>
       <c r="I363" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -16496,7 +16487,7 @@
         <v>507</v>
       </c>
       <c r="I364" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
@@ -16525,7 +16516,7 @@
         <v>507</v>
       </c>
       <c r="I365" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
@@ -16554,7 +16545,7 @@
         <v>507</v>
       </c>
       <c r="I366" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
@@ -16583,7 +16574,7 @@
         <v>507</v>
       </c>
       <c r="I367" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
@@ -16612,7 +16603,7 @@
         <v>507</v>
       </c>
       <c r="I368" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -16641,7 +16632,7 @@
         <v>507</v>
       </c>
       <c r="I369" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -16670,7 +16661,7 @@
         <v>507</v>
       </c>
       <c r="I370" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -16699,7 +16690,7 @@
         <v>507</v>
       </c>
       <c r="I371" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -16728,7 +16719,7 @@
         <v>507</v>
       </c>
       <c r="I372" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
@@ -16757,7 +16748,7 @@
         <v>507</v>
       </c>
       <c r="I373" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
@@ -16786,7 +16777,7 @@
         <v>507</v>
       </c>
       <c r="I374" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
@@ -16815,7 +16806,7 @@
         <v>507</v>
       </c>
       <c r="I375" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -16844,7 +16835,7 @@
         <v>507</v>
       </c>
       <c r="I376" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -16873,7 +16864,7 @@
         <v>507</v>
       </c>
       <c r="I377" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
@@ -16902,7 +16893,7 @@
         <v>507</v>
       </c>
       <c r="I378" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -16931,7 +16922,7 @@
         <v>507</v>
       </c>
       <c r="I379" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
@@ -16960,7 +16951,7 @@
         <v>507</v>
       </c>
       <c r="I380" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -16989,7 +16980,7 @@
         <v>507</v>
       </c>
       <c r="I381" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
@@ -17018,7 +17009,7 @@
         <v>507</v>
       </c>
       <c r="I382" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
@@ -17047,7 +17038,7 @@
         <v>507</v>
       </c>
       <c r="I383" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
@@ -17076,7 +17067,7 @@
         <v>507</v>
       </c>
       <c r="I384" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -17105,7 +17096,7 @@
         <v>507</v>
       </c>
       <c r="I385" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -17134,7 +17125,7 @@
         <v>507</v>
       </c>
       <c r="I386" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
@@ -17163,7 +17154,7 @@
         <v>507</v>
       </c>
       <c r="I387" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -17192,7 +17183,7 @@
         <v>507</v>
       </c>
       <c r="I388" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
@@ -17221,7 +17212,7 @@
         <v>507</v>
       </c>
       <c r="I389" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
@@ -17250,7 +17241,7 @@
         <v>507</v>
       </c>
       <c r="I390" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
@@ -17279,7 +17270,7 @@
         <v>507</v>
       </c>
       <c r="I391" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
@@ -17308,7 +17299,7 @@
         <v>507</v>
       </c>
       <c r="I392" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -17337,7 +17328,7 @@
         <v>507</v>
       </c>
       <c r="I393" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
@@ -17366,7 +17357,7 @@
         <v>507</v>
       </c>
       <c r="I394" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
@@ -17395,7 +17386,7 @@
         <v>507</v>
       </c>
       <c r="I395" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -17424,7 +17415,7 @@
         <v>507</v>
       </c>
       <c r="I396" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -17453,7 +17444,7 @@
         <v>507</v>
       </c>
       <c r="I397" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
@@ -17482,7 +17473,7 @@
         <v>507</v>
       </c>
       <c r="I398" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -17511,7 +17502,7 @@
         <v>507</v>
       </c>
       <c r="I399" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
@@ -17540,7 +17531,7 @@
         <v>507</v>
       </c>
       <c r="I400" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
@@ -17569,7 +17560,7 @@
         <v>507</v>
       </c>
       <c r="I401" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
@@ -17598,7 +17589,7 @@
         <v>507</v>
       </c>
       <c r="I402" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
@@ -17627,7 +17618,7 @@
         <v>507</v>
       </c>
       <c r="I403" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
@@ -17656,7 +17647,7 @@
         <v>507</v>
       </c>
       <c r="I404" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -17685,7 +17676,7 @@
         <v>507</v>
       </c>
       <c r="I405" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -17714,7 +17705,7 @@
         <v>507</v>
       </c>
       <c r="I406" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -17743,7 +17734,7 @@
         <v>507</v>
       </c>
       <c r="I407" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -17772,7 +17763,7 @@
         <v>507</v>
       </c>
       <c r="I408" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -17801,7 +17792,7 @@
         <v>507</v>
       </c>
       <c r="I409" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -17830,7 +17821,7 @@
         <v>507</v>
       </c>
       <c r="I410" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -17859,7 +17850,7 @@
         <v>507</v>
       </c>
       <c r="I411" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -17888,7 +17879,7 @@
         <v>507</v>
       </c>
       <c r="I412" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -17917,7 +17908,7 @@
         <v>507</v>
       </c>
       <c r="I413" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -17946,7 +17937,7 @@
         <v>507</v>
       </c>
       <c r="I414" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
@@ -17975,7 +17966,7 @@
         <v>507</v>
       </c>
       <c r="I415" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
@@ -18004,7 +17995,7 @@
         <v>507</v>
       </c>
       <c r="I416" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
@@ -18033,7 +18024,7 @@
         <v>507</v>
       </c>
       <c r="I417" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
@@ -18062,7 +18053,7 @@
         <v>507</v>
       </c>
       <c r="I418" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
@@ -18091,7 +18082,7 @@
         <v>507</v>
       </c>
       <c r="I419" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
@@ -18120,7 +18111,7 @@
         <v>507</v>
       </c>
       <c r="I420" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
@@ -18149,7 +18140,7 @@
         <v>507</v>
       </c>
       <c r="I421" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
@@ -18178,7 +18169,7 @@
         <v>507</v>
       </c>
       <c r="I422" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
@@ -18207,7 +18198,7 @@
         <v>507</v>
       </c>
       <c r="I423" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
@@ -18236,7 +18227,7 @@
         <v>507</v>
       </c>
       <c r="I424" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
@@ -18265,7 +18256,7 @@
         <v>507</v>
       </c>
       <c r="I425" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
@@ -18294,7 +18285,7 @@
         <v>507</v>
       </c>
       <c r="I426" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
@@ -18323,7 +18314,7 @@
         <v>507</v>
       </c>
       <c r="I427" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -18352,7 +18343,7 @@
         <v>507</v>
       </c>
       <c r="I428" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
@@ -18381,7 +18372,7 @@
         <v>507</v>
       </c>
       <c r="I429" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -18410,7 +18401,7 @@
         <v>507</v>
       </c>
       <c r="I430" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
@@ -18439,7 +18430,7 @@
         <v>507</v>
       </c>
       <c r="I431" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -18468,7 +18459,7 @@
         <v>507</v>
       </c>
       <c r="I432" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -18497,7 +18488,7 @@
         <v>507</v>
       </c>
       <c r="I433" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -18526,7 +18517,7 @@
         <v>507</v>
       </c>
       <c r="I434" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
@@ -18555,7 +18546,7 @@
         <v>507</v>
       </c>
       <c r="I435" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
@@ -18584,7 +18575,7 @@
         <v>507</v>
       </c>
       <c r="I436" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -18613,7 +18604,7 @@
         <v>507</v>
       </c>
       <c r="I437" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
@@ -18642,7 +18633,7 @@
         <v>507</v>
       </c>
       <c r="I438" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
@@ -18671,7 +18662,7 @@
         <v>507</v>
       </c>
       <c r="I439" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
@@ -18700,7 +18691,7 @@
         <v>507</v>
       </c>
       <c r="I440" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -18729,7 +18720,7 @@
         <v>507</v>
       </c>
       <c r="I441" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -18758,7 +18749,7 @@
         <v>507</v>
       </c>
       <c r="I442" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
@@ -18787,7 +18778,7 @@
         <v>507</v>
       </c>
       <c r="I443" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -18816,7 +18807,7 @@
         <v>507</v>
       </c>
       <c r="I444" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
@@ -18845,7 +18836,7 @@
         <v>507</v>
       </c>
       <c r="I445" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -18874,7 +18865,7 @@
         <v>507</v>
       </c>
       <c r="I446" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
@@ -18903,7 +18894,7 @@
         <v>507</v>
       </c>
       <c r="I447" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
@@ -18932,7 +18923,7 @@
         <v>507</v>
       </c>
       <c r="I448" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
@@ -18961,7 +18952,7 @@
         <v>507</v>
       </c>
       <c r="I449" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
@@ -18990,7 +18981,7 @@
         <v>507</v>
       </c>
       <c r="I450" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
@@ -19019,7 +19010,7 @@
         <v>507</v>
       </c>
       <c r="I451" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
@@ -19048,7 +19039,7 @@
         <v>507</v>
       </c>
       <c r="I452" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -19077,7 +19068,7 @@
         <v>507</v>
       </c>
       <c r="I453" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
@@ -19106,7 +19097,7 @@
         <v>507</v>
       </c>
       <c r="I454" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
@@ -19135,7 +19126,7 @@
         <v>507</v>
       </c>
       <c r="I455" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -19164,7 +19155,7 @@
         <v>507</v>
       </c>
       <c r="I456" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
@@ -19193,7 +19184,7 @@
         <v>507</v>
       </c>
       <c r="I457" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -19222,7 +19213,7 @@
         <v>507</v>
       </c>
       <c r="I458" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
@@ -19251,7 +19242,7 @@
         <v>507</v>
       </c>
       <c r="I459" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
@@ -19280,7 +19271,7 @@
         <v>507</v>
       </c>
       <c r="I460" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
@@ -19309,7 +19300,7 @@
         <v>507</v>
       </c>
       <c r="I461" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
@@ -19338,7 +19329,7 @@
         <v>507</v>
       </c>
       <c r="I462" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
@@ -19367,7 +19358,7 @@
         <v>507</v>
       </c>
       <c r="I463" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
@@ -19396,7 +19387,7 @@
         <v>507</v>
       </c>
       <c r="I464" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -19425,7 +19416,7 @@
         <v>507</v>
       </c>
       <c r="I465" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
@@ -19454,7 +19445,7 @@
         <v>507</v>
       </c>
       <c r="I466" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -19483,7 +19474,7 @@
         <v>507</v>
       </c>
       <c r="I467" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
@@ -19512,7 +19503,7 @@
         <v>507</v>
       </c>
       <c r="I468" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
@@ -19541,7 +19532,7 @@
         <v>507</v>
       </c>
       <c r="I469" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
@@ -19570,7 +19561,7 @@
         <v>507</v>
       </c>
       <c r="I470" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.2">
@@ -19599,7 +19590,7 @@
         <v>507</v>
       </c>
       <c r="I471" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
@@ -19628,7 +19619,7 @@
         <v>507</v>
       </c>
       <c r="I472" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
@@ -19657,7 +19648,7 @@
         <v>507</v>
       </c>
       <c r="I473" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -19686,7 +19677,7 @@
         <v>507</v>
       </c>
       <c r="I474" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -19715,7 +19706,7 @@
         <v>507</v>
       </c>
       <c r="I475" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -19744,7 +19735,7 @@
         <v>507</v>
       </c>
       <c r="I476" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -19773,7 +19764,7 @@
         <v>507</v>
       </c>
       <c r="I477" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
@@ -19802,7 +19793,7 @@
         <v>507</v>
       </c>
       <c r="I478" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
@@ -19831,7 +19822,7 @@
         <v>507</v>
       </c>
       <c r="I479" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
@@ -19860,7 +19851,7 @@
         <v>507</v>
       </c>
       <c r="I480" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
@@ -19889,7 +19880,7 @@
         <v>507</v>
       </c>
       <c r="I481" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
@@ -19918,7 +19909,7 @@
         <v>507</v>
       </c>
       <c r="I482" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
@@ -19947,7 +19938,7 @@
         <v>507</v>
       </c>
       <c r="I483" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
@@ -19976,7 +19967,7 @@
         <v>507</v>
       </c>
       <c r="I484" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
@@ -20005,7 +19996,7 @@
         <v>507</v>
       </c>
       <c r="I485" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
@@ -20034,7 +20025,7 @@
         <v>507</v>
       </c>
       <c r="I486" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
@@ -20063,7 +20054,7 @@
         <v>507</v>
       </c>
       <c r="I487" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
@@ -20092,7 +20083,7 @@
         <v>507</v>
       </c>
       <c r="I488" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
@@ -20121,7 +20112,7 @@
         <v>507</v>
       </c>
       <c r="I489" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
@@ -20150,7 +20141,7 @@
         <v>507</v>
       </c>
       <c r="I490" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
@@ -20179,7 +20170,7 @@
         <v>507</v>
       </c>
       <c r="I491" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
@@ -20208,7 +20199,7 @@
         <v>507</v>
       </c>
       <c r="I492" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
@@ -20237,7 +20228,7 @@
         <v>507</v>
       </c>
       <c r="I493" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
@@ -20266,7 +20257,7 @@
         <v>507</v>
       </c>
       <c r="I494" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
@@ -20295,7 +20286,7 @@
         <v>507</v>
       </c>
       <c r="I495" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
@@ -20324,7 +20315,7 @@
         <v>507</v>
       </c>
       <c r="I496" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
@@ -20353,7 +20344,7 @@
         <v>507</v>
       </c>
       <c r="I497" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
@@ -20382,7 +20373,7 @@
         <v>507</v>
       </c>
       <c r="I498" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
@@ -20411,7 +20402,7 @@
         <v>507</v>
       </c>
       <c r="I499" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
@@ -20441,7 +20432,7 @@
         <v>507</v>
       </c>
       <c r="I500" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
@@ -20471,7 +20462,7 @@
         <v>507</v>
       </c>
       <c r="I501" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
@@ -20501,7 +20492,7 @@
         <v>507</v>
       </c>
       <c r="I502" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
@@ -20531,7 +20522,7 @@
         <v>507</v>
       </c>
       <c r="I503" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
@@ -20561,7 +20552,7 @@
         <v>507</v>
       </c>
       <c r="I504" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
@@ -20591,7 +20582,7 @@
         <v>507</v>
       </c>
       <c r="I505" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
@@ -20621,7 +20612,7 @@
         <v>507</v>
       </c>
       <c r="I506" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
@@ -20651,7 +20642,7 @@
         <v>507</v>
       </c>
       <c r="I507" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
@@ -20681,7 +20672,7 @@
         <v>507</v>
       </c>
       <c r="I508" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
@@ -20711,7 +20702,7 @@
         <v>507</v>
       </c>
       <c r="I509" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
@@ -20741,7 +20732,7 @@
         <v>507</v>
       </c>
       <c r="I510" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
@@ -20771,7 +20762,7 @@
         <v>507</v>
       </c>
       <c r="I511" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
@@ -20801,7 +20792,7 @@
         <v>507</v>
       </c>
       <c r="I512" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
@@ -20831,7 +20822,7 @@
         <v>507</v>
       </c>
       <c r="I513" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
@@ -20861,7 +20852,7 @@
         <v>507</v>
       </c>
       <c r="I514" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
@@ -20891,7 +20882,7 @@
         <v>507</v>
       </c>
       <c r="I515" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
@@ -20921,7 +20912,7 @@
         <v>507</v>
       </c>
       <c r="I516" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
@@ -20951,7 +20942,7 @@
         <v>507</v>
       </c>
       <c r="I517" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
@@ -20981,7 +20972,7 @@
         <v>507</v>
       </c>
       <c r="I518" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.2">
@@ -21011,7 +21002,7 @@
         <v>507</v>
       </c>
       <c r="I519" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
@@ -21041,7 +21032,7 @@
         <v>507</v>
       </c>
       <c r="I520" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
@@ -21071,7 +21062,7 @@
         <v>507</v>
       </c>
       <c r="I521" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
@@ -21101,7 +21092,7 @@
         <v>507</v>
       </c>
       <c r="I522" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
@@ -21131,7 +21122,7 @@
         <v>507</v>
       </c>
       <c r="I523" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
@@ -21161,7 +21152,7 @@
         <v>507</v>
       </c>
       <c r="I524" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
@@ -21191,7 +21182,7 @@
         <v>507</v>
       </c>
       <c r="I525" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
@@ -21221,7 +21212,7 @@
         <v>507</v>
       </c>
       <c r="I526" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
@@ -21251,7 +21242,7 @@
         <v>507</v>
       </c>
       <c r="I527" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
@@ -21281,7 +21272,7 @@
         <v>507</v>
       </c>
       <c r="I528" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
@@ -21311,7 +21302,7 @@
         <v>507</v>
       </c>
       <c r="I529" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.2">
@@ -21341,7 +21332,7 @@
         <v>507</v>
       </c>
       <c r="I530" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.2">
@@ -21371,7 +21362,7 @@
         <v>507</v>
       </c>
       <c r="I531" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
@@ -21401,7 +21392,7 @@
         <v>507</v>
       </c>
       <c r="I532" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
@@ -21431,7 +21422,7 @@
         <v>507</v>
       </c>
       <c r="I533" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.2">
@@ -21461,7 +21452,7 @@
         <v>507</v>
       </c>
       <c r="I534" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
@@ -21491,7 +21482,7 @@
         <v>507</v>
       </c>
       <c r="I535" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
@@ -21521,7 +21512,7 @@
         <v>507</v>
       </c>
       <c r="I536" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
@@ -21551,7 +21542,7 @@
         <v>507</v>
       </c>
       <c r="I537" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
@@ -21581,7 +21572,7 @@
         <v>507</v>
       </c>
       <c r="I538" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
@@ -21611,7 +21602,7 @@
         <v>507</v>
       </c>
       <c r="I539" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
@@ -21641,7 +21632,7 @@
         <v>507</v>
       </c>
       <c r="I540" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
@@ -21671,7 +21662,7 @@
         <v>507</v>
       </c>
       <c r="I541" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.2">
@@ -21701,7 +21692,7 @@
         <v>507</v>
       </c>
       <c r="I542" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
@@ -21731,7 +21722,7 @@
         <v>507</v>
       </c>
       <c r="I543" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.2">
@@ -21761,7 +21752,7 @@
         <v>507</v>
       </c>
       <c r="I544" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
@@ -21791,7 +21782,7 @@
         <v>507</v>
       </c>
       <c r="I545" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.2">
@@ -21821,7 +21812,7 @@
         <v>507</v>
       </c>
       <c r="I546" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.2">
@@ -21851,7 +21842,7 @@
         <v>507</v>
       </c>
       <c r="I547" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
@@ -21881,7 +21872,7 @@
         <v>507</v>
       </c>
       <c r="I548" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
@@ -21911,7 +21902,7 @@
         <v>507</v>
       </c>
       <c r="I549" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
@@ -21941,7 +21932,7 @@
         <v>507</v>
       </c>
       <c r="I550" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
@@ -21971,7 +21962,7 @@
         <v>507</v>
       </c>
       <c r="I551" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
@@ -22001,7 +21992,7 @@
         <v>507</v>
       </c>
       <c r="I552" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.2">
@@ -22031,7 +22022,7 @@
         <v>507</v>
       </c>
       <c r="I553" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
@@ -22061,7 +22052,7 @@
         <v>507</v>
       </c>
       <c r="I554" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
@@ -22091,7 +22082,7 @@
         <v>507</v>
       </c>
       <c r="I555" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
@@ -22121,7 +22112,7 @@
         <v>507</v>
       </c>
       <c r="I556" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.2">
@@ -22151,7 +22142,7 @@
         <v>507</v>
       </c>
       <c r="I557" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.2">
@@ -22181,7 +22172,7 @@
         <v>507</v>
       </c>
       <c r="I558" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
@@ -22211,7 +22202,7 @@
         <v>507</v>
       </c>
       <c r="I559" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
@@ -22241,7 +22232,7 @@
         <v>507</v>
       </c>
       <c r="I560" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
@@ -22271,7 +22262,7 @@
         <v>507</v>
       </c>
       <c r="I561" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
@@ -22301,7 +22292,7 @@
         <v>507</v>
       </c>
       <c r="I562" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
@@ -22331,7 +22322,7 @@
         <v>507</v>
       </c>
       <c r="I563" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.2">
@@ -22361,7 +22352,7 @@
         <v>507</v>
       </c>
       <c r="I564" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.2">
@@ -22391,7 +22382,7 @@
         <v>507</v>
       </c>
       <c r="I565" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.2">
@@ -22421,7 +22412,7 @@
         <v>507</v>
       </c>
       <c r="I566" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
@@ -22451,7 +22442,7 @@
         <v>507</v>
       </c>
       <c r="I567" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.2">
@@ -22481,7 +22472,7 @@
         <v>507</v>
       </c>
       <c r="I568" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.2">
@@ -22511,7 +22502,7 @@
         <v>507</v>
       </c>
       <c r="I569" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.2">
@@ -22541,7 +22532,7 @@
         <v>507</v>
       </c>
       <c r="I570" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.2">
@@ -22571,7 +22562,7 @@
         <v>507</v>
       </c>
       <c r="I571" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.2">
@@ -22601,7 +22592,7 @@
         <v>507</v>
       </c>
       <c r="I572" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
@@ -22631,7 +22622,7 @@
         <v>507</v>
       </c>
       <c r="I573" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
@@ -22661,7 +22652,7 @@
         <v>507</v>
       </c>
       <c r="I574" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
@@ -22691,7 +22682,7 @@
         <v>507</v>
       </c>
       <c r="I575" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
@@ -22721,7 +22712,7 @@
         <v>507</v>
       </c>
       <c r="I576" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
@@ -22751,7 +22742,7 @@
         <v>507</v>
       </c>
       <c r="I577" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
@@ -22781,7 +22772,7 @@
         <v>507</v>
       </c>
       <c r="I578" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
@@ -22811,7 +22802,7 @@
         <v>507</v>
       </c>
       <c r="I579" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
@@ -22841,7 +22832,7 @@
         <v>507</v>
       </c>
       <c r="I580" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
@@ -22871,7 +22862,7 @@
         <v>507</v>
       </c>
       <c r="I581" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
@@ -22901,7 +22892,7 @@
         <v>507</v>
       </c>
       <c r="I582" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
@@ -22931,7 +22922,7 @@
         <v>507</v>
       </c>
       <c r="I583" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
@@ -22961,7 +22952,7 @@
         <v>507</v>
       </c>
       <c r="I584" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
@@ -22990,7 +22981,7 @@
         <v>507</v>
       </c>
       <c r="I585" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
@@ -23019,7 +23010,7 @@
         <v>507</v>
       </c>
       <c r="I586" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
@@ -23048,7 +23039,7 @@
         <v>507</v>
       </c>
       <c r="I587" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
@@ -23077,7 +23068,7 @@
         <v>507</v>
       </c>
       <c r="I588" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
@@ -23106,7 +23097,7 @@
         <v>507</v>
       </c>
       <c r="I589" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
@@ -23135,7 +23126,7 @@
         <v>507</v>
       </c>
       <c r="I590" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
@@ -23164,7 +23155,7 @@
         <v>507</v>
       </c>
       <c r="I591" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
@@ -23193,7 +23184,7 @@
         <v>507</v>
       </c>
       <c r="I592" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
@@ -23222,7 +23213,7 @@
         <v>507</v>
       </c>
       <c r="I593" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
@@ -23251,7 +23242,7 @@
         <v>507</v>
       </c>
       <c r="I594" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
@@ -23280,7 +23271,7 @@
         <v>507</v>
       </c>
       <c r="I595" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
@@ -23309,7 +23300,7 @@
         <v>507</v>
       </c>
       <c r="I596" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
@@ -23338,7 +23329,7 @@
         <v>507</v>
       </c>
       <c r="I597" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
@@ -23367,7 +23358,7 @@
         <v>507</v>
       </c>
       <c r="I598" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.2">
@@ -23396,7 +23387,7 @@
         <v>507</v>
       </c>
       <c r="I599" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.2">
@@ -23425,7 +23416,7 @@
         <v>507</v>
       </c>
       <c r="I600" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
@@ -23454,7 +23445,7 @@
         <v>507</v>
       </c>
       <c r="I601" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
@@ -23483,7 +23474,7 @@
         <v>507</v>
       </c>
       <c r="I602" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
@@ -23512,7 +23503,7 @@
         <v>507</v>
       </c>
       <c r="I603" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
@@ -23541,7 +23532,7 @@
         <v>507</v>
       </c>
       <c r="I604" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
@@ -23570,7 +23561,7 @@
         <v>507</v>
       </c>
       <c r="I605" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.2">
@@ -23599,7 +23590,7 @@
         <v>507</v>
       </c>
       <c r="I606" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
@@ -23628,7 +23619,7 @@
         <v>507</v>
       </c>
       <c r="I607" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.2">
@@ -23657,7 +23648,7 @@
         <v>507</v>
       </c>
       <c r="I608" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.2">
@@ -23686,7 +23677,7 @@
         <v>507</v>
       </c>
       <c r="I609" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.2">
@@ -23715,7 +23706,7 @@
         <v>507</v>
       </c>
       <c r="I610" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
@@ -23744,7 +23735,7 @@
         <v>507</v>
       </c>
       <c r="I611" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.2">
@@ -23773,7 +23764,7 @@
         <v>507</v>
       </c>
       <c r="I612" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.2">
@@ -23802,7 +23793,7 @@
         <v>507</v>
       </c>
       <c r="I613" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.2">
@@ -23831,7 +23822,7 @@
         <v>507</v>
       </c>
       <c r="I614" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.2">
@@ -23860,7 +23851,7 @@
         <v>507</v>
       </c>
       <c r="I615" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.2">
@@ -23889,7 +23880,7 @@
         <v>507</v>
       </c>
       <c r="I616" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.2">
@@ -23918,7 +23909,7 @@
         <v>507</v>
       </c>
       <c r="I617" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.2">
@@ -23947,7 +23938,7 @@
         <v>507</v>
       </c>
       <c r="I618" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.2">
@@ -23976,7 +23967,7 @@
         <v>507</v>
       </c>
       <c r="I619" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.2">
@@ -24005,7 +23996,7 @@
         <v>507</v>
       </c>
       <c r="I620" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.2">
@@ -24034,7 +24025,7 @@
         <v>507</v>
       </c>
       <c r="I621" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.2">
@@ -24063,7 +24054,7 @@
         <v>507</v>
       </c>
       <c r="I622" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
@@ -24092,7 +24083,7 @@
         <v>507</v>
       </c>
       <c r="I623" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
@@ -24121,7 +24112,7 @@
         <v>507</v>
       </c>
       <c r="I624" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.2">
@@ -24150,7 +24141,7 @@
         <v>507</v>
       </c>
       <c r="I625" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.2">
@@ -24179,7 +24170,7 @@
         <v>507</v>
       </c>
       <c r="I626" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.2">
@@ -24208,7 +24199,7 @@
         <v>507</v>
       </c>
       <c r="I627" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.2">
@@ -24237,7 +24228,7 @@
         <v>507</v>
       </c>
       <c r="I628" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.2">
@@ -24266,7 +24257,7 @@
         <v>507</v>
       </c>
       <c r="I629" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.2">
@@ -24295,7 +24286,7 @@
         <v>507</v>
       </c>
       <c r="I630" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
@@ -24325,7 +24316,7 @@
         <v>507</v>
       </c>
       <c r="I631" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
@@ -24355,7 +24346,7 @@
         <v>507</v>
       </c>
       <c r="I632" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.2">
@@ -24385,7 +24376,7 @@
         <v>507</v>
       </c>
       <c r="I633" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.2">
@@ -24415,7 +24406,7 @@
         <v>507</v>
       </c>
       <c r="I634" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
@@ -24445,7 +24436,7 @@
         <v>507</v>
       </c>
       <c r="I635" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
@@ -24475,7 +24466,7 @@
         <v>507</v>
       </c>
       <c r="I636" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
@@ -24505,7 +24496,7 @@
         <v>507</v>
       </c>
       <c r="I637" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
@@ -24535,7 +24526,7 @@
         <v>507</v>
       </c>
       <c r="I638" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
@@ -24565,7 +24556,7 @@
         <v>507</v>
       </c>
       <c r="I639" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
@@ -24595,7 +24586,7 @@
         <v>507</v>
       </c>
       <c r="I640" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
@@ -24625,7 +24616,7 @@
         <v>507</v>
       </c>
       <c r="I641" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
@@ -24655,7 +24646,7 @@
         <v>507</v>
       </c>
       <c r="I642" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
@@ -24685,7 +24676,7 @@
         <v>507</v>
       </c>
       <c r="I643" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.2">
@@ -24715,7 +24706,7 @@
         <v>507</v>
       </c>
       <c r="I644" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
@@ -24745,7 +24736,7 @@
         <v>507</v>
       </c>
       <c r="I645" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
@@ -24775,7 +24766,7 @@
         <v>507</v>
       </c>
       <c r="I646" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
@@ -24805,7 +24796,7 @@
         <v>507</v>
       </c>
       <c r="I647" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
@@ -24835,7 +24826,7 @@
         <v>507</v>
       </c>
       <c r="I648" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
@@ -24865,7 +24856,7 @@
         <v>507</v>
       </c>
       <c r="I649" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.2">
@@ -24895,7 +24886,7 @@
         <v>507</v>
       </c>
       <c r="I650" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
@@ -24925,7 +24916,7 @@
         <v>507</v>
       </c>
       <c r="I651" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
@@ -24955,7 +24946,7 @@
         <v>507</v>
       </c>
       <c r="I652" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.2">
@@ -24985,7 +24976,7 @@
         <v>507</v>
       </c>
       <c r="I653" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.2">
@@ -25015,7 +25006,7 @@
         <v>507</v>
       </c>
       <c r="I654" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.2">
@@ -25045,7 +25036,7 @@
         <v>507</v>
       </c>
       <c r="I655" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.2">
@@ -25075,7 +25066,7 @@
         <v>507</v>
       </c>
       <c r="I656" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
@@ -25101,13 +25092,13 @@
         <v>#N/A</v>
       </c>
       <c r="G657" t="s">
-        <v>1421</v>
+        <v>1528</v>
       </c>
       <c r="H657" t="s">
         <v>507</v>
       </c>
       <c r="I657" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
@@ -25115,7 +25106,7 @@
         <v>1423</v>
       </c>
       <c r="B658" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C658" t="s">
         <v>880</v>
@@ -25133,13 +25124,13 @@
         <v>#N/A</v>
       </c>
       <c r="G658" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H658" t="s">
         <v>507</v>
       </c>
       <c r="I658" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
@@ -25147,7 +25138,7 @@
         <v>1422</v>
       </c>
       <c r="B659" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C659" t="s">
         <v>880</v>
@@ -25165,21 +25156,21 @@
         <v>#N/A</v>
       </c>
       <c r="G659" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="H659" t="s">
         <v>507</v>
       </c>
       <c r="I659" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B660" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C660" t="s">
         <v>79</v>
@@ -25197,21 +25188,21 @@
         <v>#N/A</v>
       </c>
       <c r="G660" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="H660" t="s">
         <v>507</v>
       </c>
       <c r="I660" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B661" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C661" t="s">
         <v>79</v>
@@ -25229,21 +25220,21 @@
         <v>#N/A</v>
       </c>
       <c r="G661" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="H661" t="s">
         <v>507</v>
       </c>
       <c r="I661" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B662" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C662" t="s">
         <v>79</v>
@@ -25261,21 +25252,21 @@
         <v>#N/A</v>
       </c>
       <c r="G662" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="H662" t="s">
         <v>507</v>
       </c>
       <c r="I662" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B663" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C663" t="s">
         <v>869</v>
@@ -25292,21 +25283,21 @@
         <v>1944</v>
       </c>
       <c r="G663" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="H663" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I663" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B664" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C664" t="s">
         <v>867</v>
@@ -25323,21 +25314,21 @@
         <v>1972</v>
       </c>
       <c r="G664" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="H664" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I664" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B665" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C665" t="s">
         <v>867</v>
@@ -25354,21 +25345,21 @@
         <v>1980</v>
       </c>
       <c r="G665" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="H665" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I665" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B666" t="s">
         <v>1444</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1448</v>
       </c>
       <c r="C666" t="s">
         <v>867</v>
@@ -25385,21 +25376,21 @@
         <v>1994</v>
       </c>
       <c r="G666" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H666" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I666" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="B667" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="C667" t="s">
         <v>874</v>
@@ -25416,24 +25407,24 @@
         <v>2001</v>
       </c>
       <c r="G667" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H667" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I667" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B668" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C668" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="D668" t="e">
         <f>NA()</f>
@@ -25447,24 +25438,24 @@
         <v>1996</v>
       </c>
       <c r="G668" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H668" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I668" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B669" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C669" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D669" t="e">
         <f>NA()</f>
@@ -25478,24 +25469,24 @@
         <v>1972</v>
       </c>
       <c r="G669" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H669" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I669" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="B670" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C670" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D670" t="e">
         <f>NA()</f>
@@ -25509,21 +25500,21 @@
         <v>1972</v>
       </c>
       <c r="G670" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H670" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I670" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B671" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C671" t="s">
         <v>54</v>
@@ -25537,24 +25528,24 @@
         <v>#N/A</v>
       </c>
       <c r="F671" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="G671" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H671" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I671" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B672" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C672" t="s">
         <v>870</v>
@@ -25571,24 +25562,24 @@
         <v>1980</v>
       </c>
       <c r="G672" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H672" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I672" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B673" t="s">
         <v>1461</v>
       </c>
-      <c r="B673" t="s">
-        <v>1465</v>
-      </c>
       <c r="C673" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D673" t="e">
         <f>NA()</f>
@@ -25602,709 +25593,709 @@
         <v>1953</v>
       </c>
       <c r="G673" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H673" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="I673" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="B674" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C674" t="s">
         <v>86</v>
       </c>
       <c r="D674" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E674" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F674">
         <v>2013</v>
       </c>
       <c r="G674" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H674" t="s">
         <v>507</v>
       </c>
       <c r="I674" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B675" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C675" t="s">
         <v>86</v>
       </c>
       <c r="D675" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E675" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F675">
         <v>2013</v>
       </c>
       <c r="G675" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H675" t="s">
         <v>507</v>
       </c>
       <c r="I675" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B676" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C676" t="s">
         <v>86</v>
       </c>
       <c r="D676" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E676" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F676">
         <v>2013</v>
       </c>
       <c r="G676" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H676" t="s">
         <v>507</v>
       </c>
       <c r="I676" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B677" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C677" t="s">
         <v>86</v>
       </c>
       <c r="D677" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E677" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F677">
         <v>2013</v>
       </c>
       <c r="G677" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H677" t="s">
         <v>507</v>
       </c>
       <c r="I677" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B678" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C678" t="s">
         <v>86</v>
       </c>
       <c r="D678" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E678" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F678">
         <v>2013</v>
       </c>
       <c r="G678" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H678" t="s">
         <v>507</v>
       </c>
       <c r="I678" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="B679" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C679" t="s">
         <v>86</v>
       </c>
       <c r="D679" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E679" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F679">
         <v>2013</v>
       </c>
       <c r="G679" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H679" t="s">
         <v>507</v>
       </c>
       <c r="I679" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B680" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C680" t="s">
         <v>86</v>
       </c>
       <c r="D680" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E680" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F680">
         <v>2013</v>
       </c>
       <c r="G680" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H680" t="s">
         <v>507</v>
       </c>
       <c r="I680" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B681" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C681" t="s">
         <v>86</v>
       </c>
       <c r="D681" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E681" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F681">
         <v>2013</v>
       </c>
       <c r="G681" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H681" t="s">
         <v>507</v>
       </c>
       <c r="I681" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B682" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C682" t="s">
         <v>86</v>
       </c>
       <c r="D682" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E682" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F682">
         <v>2013</v>
       </c>
       <c r="G682" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H682" t="s">
         <v>507</v>
       </c>
       <c r="I682" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B683" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C683" t="s">
         <v>86</v>
       </c>
       <c r="D683" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E683" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F683">
         <v>2013</v>
       </c>
       <c r="G683" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H683" t="s">
         <v>507</v>
       </c>
       <c r="I683" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="B684" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="C684" t="s">
         <v>86</v>
       </c>
       <c r="D684" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E684" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F684">
         <v>2013</v>
       </c>
       <c r="G684" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H684" t="s">
         <v>507</v>
       </c>
       <c r="I684" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B685" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C685" t="s">
         <v>86</v>
       </c>
       <c r="D685" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E685" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F685">
         <v>2013</v>
       </c>
       <c r="G685" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H685" t="s">
         <v>507</v>
       </c>
       <c r="I685" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B686" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C686" t="s">
         <v>86</v>
       </c>
       <c r="D686" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E686" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F686">
         <v>2013</v>
       </c>
       <c r="G686" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H686" t="s">
         <v>507</v>
       </c>
       <c r="I686" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B687" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C687" t="s">
         <v>86</v>
       </c>
       <c r="D687" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E687" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F687">
         <v>2013</v>
       </c>
       <c r="G687" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H687" t="s">
         <v>507</v>
       </c>
       <c r="I687" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B688" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C688" t="s">
         <v>86</v>
       </c>
       <c r="D688" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E688" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F688">
         <v>2013</v>
       </c>
       <c r="G688" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H688" t="s">
         <v>507</v>
       </c>
       <c r="I688" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="B689" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C689" t="s">
         <v>86</v>
       </c>
       <c r="D689" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E689" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F689">
         <v>2013</v>
       </c>
       <c r="G689" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H689" t="s">
         <v>507</v>
       </c>
       <c r="I689" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B690" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C690" t="s">
         <v>86</v>
       </c>
       <c r="D690" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E690" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F690">
         <v>2013</v>
       </c>
       <c r="G690" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H690" t="s">
         <v>507</v>
       </c>
       <c r="I690" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="B691" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C691" t="s">
         <v>86</v>
       </c>
       <c r="D691" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E691" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F691">
         <v>2013</v>
       </c>
       <c r="G691" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H691" t="s">
         <v>507</v>
       </c>
       <c r="I691" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B692" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C692" t="s">
         <v>86</v>
       </c>
       <c r="D692" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E692" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F692">
         <v>2013</v>
       </c>
       <c r="G692" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H692" t="s">
         <v>507</v>
       </c>
       <c r="I692" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B693" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C693" t="s">
         <v>86</v>
       </c>
       <c r="D693" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E693" t="s">
         <v>1515</v>
-      </c>
-      <c r="E693" t="s">
-        <v>1519</v>
       </c>
       <c r="F693">
         <v>2013</v>
       </c>
       <c r="G693" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H693" t="s">
         <v>507</v>
       </c>
       <c r="I693" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B694" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="C694" t="s">
         <v>86</v>
       </c>
       <c r="D694" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E694" t="s">
         <v>1515</v>
-      </c>
-      <c r="E694" t="s">
-        <v>1519</v>
       </c>
       <c r="F694">
         <v>2013</v>
       </c>
       <c r="G694" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H694" t="s">
         <v>507</v>
       </c>
       <c r="I694" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="B695" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C695" t="s">
         <v>86</v>
       </c>
       <c r="D695" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E695" t="s">
         <v>1515</v>
-      </c>
-      <c r="E695" t="s">
-        <v>1519</v>
       </c>
       <c r="F695">
         <v>2013</v>
       </c>
       <c r="G695" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H695" t="s">
         <v>507</v>
       </c>
       <c r="I695" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B696" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C696" t="s">
         <v>86</v>
       </c>
       <c r="D696" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E696" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F696">
         <v>2013</v>
       </c>
       <c r="G696" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H696" t="s">
         <v>507</v>
       </c>
       <c r="I696" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B697" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C697" t="s">
         <v>86</v>
       </c>
       <c r="D697" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E697" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F697">
         <v>2013</v>
       </c>
       <c r="G697" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H697" t="s">
         <v>507</v>
       </c>
       <c r="I697" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
   </sheetData>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58DFB56-7343-9945-97ED-FB4378A39C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40185FB-5F12-D24B-B49A-47396792CCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="23660" windowHeight="11440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="20940" windowHeight="15180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL samples" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -5822,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
-      <selection activeCell="G657" sqref="G657"/>
+    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
+      <selection activeCell="I663" sqref="A663:I673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25262,343 +25263,343 @@
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A663" t="s">
+      <c r="A663" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B663" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="C663" t="s">
+      <c r="C663" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="D663" t="e">
+      <c r="D663" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E663" t="e">
+      <c r="E663" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F663">
+      <c r="F663" s="4">
         <v>1944</v>
       </c>
-      <c r="G663" t="s">
+      <c r="G663" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="H663" t="s">
+      <c r="H663" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I663" t="s">
+      <c r="I663" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A664" t="s">
+      <c r="A664" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B664" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="C664" t="s">
+      <c r="C664" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="D664" t="e">
+      <c r="D664" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E664" t="e">
+      <c r="E664" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F664">
+      <c r="F664" s="4">
         <v>1972</v>
       </c>
-      <c r="G664" t="s">
+      <c r="G664" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="H664" t="s">
+      <c r="H664" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I664" t="s">
+      <c r="I664" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A665" t="s">
+      <c r="A665" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B665" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="C665" t="s">
+      <c r="C665" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="D665" t="e">
+      <c r="D665" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E665" t="e">
+      <c r="E665" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F665">
+      <c r="F665" s="4">
         <v>1980</v>
       </c>
-      <c r="G665" t="s">
+      <c r="G665" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="H665" t="s">
+      <c r="H665" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I665" t="s">
+      <c r="I665" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A666" t="s">
+      <c r="A666" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B666" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="C666" t="s">
+      <c r="C666" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="D666" t="e">
+      <c r="D666" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E666" t="e">
+      <c r="E666" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F666">
+      <c r="F666" s="4">
         <v>1994</v>
       </c>
-      <c r="G666" t="s">
+      <c r="G666" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H666" t="s">
+      <c r="H666" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I666" t="s">
+      <c r="I666" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A667" t="s">
+      <c r="A667" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B667" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="C667" t="s">
+      <c r="C667" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="D667" t="e">
+      <c r="D667" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E667" t="e">
+      <c r="E667" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F667">
+      <c r="F667" s="4">
         <v>2001</v>
       </c>
-      <c r="G667" t="s">
+      <c r="G667" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H667" t="s">
+      <c r="H667" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I667" t="s">
+      <c r="I667" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A668" t="s">
+      <c r="A668" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B668" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="C668" t="s">
+      <c r="C668" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="D668" t="e">
+      <c r="D668" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E668" t="e">
+      <c r="E668" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F668">
+      <c r="F668" s="4">
         <v>1996</v>
       </c>
-      <c r="G668" t="s">
+      <c r="G668" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H668" t="s">
+      <c r="H668" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I668" t="s">
+      <c r="I668" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A669" t="s">
+      <c r="A669" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B669" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="C669" t="s">
+      <c r="C669" s="4" t="s">
         <v>1449</v>
       </c>
-      <c r="D669" t="e">
+      <c r="D669" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E669" t="e">
+      <c r="E669" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F669">
+      <c r="F669" s="4">
         <v>1972</v>
       </c>
-      <c r="G669" t="s">
+      <c r="G669" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H669" t="s">
+      <c r="H669" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I669" t="s">
+      <c r="I669" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A670" t="s">
+      <c r="A670" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B670" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C670" t="s">
+      <c r="C670" s="4" t="s">
         <v>1453</v>
       </c>
-      <c r="D670" t="e">
+      <c r="D670" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E670" t="e">
+      <c r="E670" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F670">
+      <c r="F670" s="4">
         <v>1972</v>
       </c>
-      <c r="G670" t="s">
+      <c r="G670" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H670" t="s">
+      <c r="H670" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I670" t="s">
+      <c r="I670" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A671" t="s">
+      <c r="A671" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B671" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="C671" t="s">
+      <c r="C671" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D671" t="e">
+      <c r="D671" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E671" t="e">
+      <c r="E671" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F671" t="s">
+      <c r="F671" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="G671" t="s">
+      <c r="G671" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H671" t="s">
+      <c r="H671" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I671" t="s">
+      <c r="I671" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A672" t="s">
+      <c r="A672" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B672" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="C672" t="s">
+      <c r="C672" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="D672" t="e">
+      <c r="D672" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E672" t="e">
+      <c r="E672" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F672">
+      <c r="F672" s="4">
         <v>1980</v>
       </c>
-      <c r="G672" t="s">
+      <c r="G672" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H672" t="s">
+      <c r="H672" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I672" t="s">
+      <c r="I672" s="4" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A673" t="s">
+      <c r="A673" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B673" s="4" t="s">
         <v>1461</v>
       </c>
-      <c r="C673" t="s">
+      <c r="C673" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="D673" t="e">
+      <c r="D673" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E673" t="e">
+      <c r="E673" s="4" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F673">
+      <c r="F673" s="4">
         <v>1953</v>
       </c>
-      <c r="G673" t="s">
+      <c r="G673" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="H673" t="s">
+      <c r="H673" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="I673" t="s">
+      <c r="I673" s="4" t="s">
         <v>1526</v>
       </c>
     </row>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40185FB-5F12-D24B-B49A-47396792CCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAF9D7F-4AC2-4046-ADDE-E2F24472312C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="20940" windowHeight="15180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="16800" windowHeight="20480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL samples" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5402" uniqueCount="1576">
   <si>
     <t>Kudat</t>
   </si>
@@ -4278,9 +4272,6 @@
     <t>vivax-definitiu-310316</t>
   </si>
   <si>
-    <t>SRS1607662</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
@@ -4618,13 +4609,157 @@
   </si>
   <si>
     <t>PMC3836732</t>
+  </si>
+  <si>
+    <t>from_authors</t>
+  </si>
+  <si>
+    <t>BBH(1)-125</t>
+  </si>
+  <si>
+    <t>BBH(1)-132</t>
+  </si>
+  <si>
+    <t>BBH(1)-137</t>
+  </si>
+  <si>
+    <t>BBH(1)-153</t>
+  </si>
+  <si>
+    <t>BBH(1)-162</t>
+  </si>
+  <si>
+    <t>HT(1)-144</t>
+  </si>
+  <si>
+    <t>HT(1)-112</t>
+  </si>
+  <si>
+    <t>HT(1)-147</t>
+  </si>
+  <si>
+    <t>JHC(1)-208</t>
+  </si>
+  <si>
+    <t>JHC(2)-100</t>
+  </si>
+  <si>
+    <t>MHK(1)-72</t>
+  </si>
+  <si>
+    <t>MKH(2)-71</t>
+  </si>
+  <si>
+    <t>SGH(1)-355</t>
+  </si>
+  <si>
+    <t>SGH(1)-357</t>
+  </si>
+  <si>
+    <t>SGH(1)-331</t>
+  </si>
+  <si>
+    <t>SGH(1)-337</t>
+  </si>
+  <si>
+    <t>SGH(1)-358</t>
+  </si>
+  <si>
+    <t>SGH(1)-359</t>
+  </si>
+  <si>
+    <t>SGH(2)-103</t>
+  </si>
+  <si>
+    <t>SGH(2)-108</t>
+  </si>
+  <si>
+    <t>Jimma</t>
+  </si>
+  <si>
+    <t>PMC7581005</t>
+  </si>
+  <si>
+    <t>ERS849384</t>
+  </si>
+  <si>
+    <t>ERS2593850</t>
+  </si>
+  <si>
+    <t>ERS2593862</t>
+  </si>
+  <si>
+    <t>ERS2593851</t>
+  </si>
+  <si>
+    <t>ERS2593852</t>
+  </si>
+  <si>
+    <t>ERS2593853</t>
+  </si>
+  <si>
+    <t>ERS2593863</t>
+  </si>
+  <si>
+    <t>ERS2593864</t>
+  </si>
+  <si>
+    <t>ERS2593865</t>
+  </si>
+  <si>
+    <t>ERS2593855</t>
+  </si>
+  <si>
+    <t>ERS2593857</t>
+  </si>
+  <si>
+    <t>ERS2593866</t>
+  </si>
+  <si>
+    <t>ERS2593858</t>
+  </si>
+  <si>
+    <t>ERS2593859</t>
+  </si>
+  <si>
+    <t>ERS849385</t>
+  </si>
+  <si>
+    <t>ERS2593867</t>
+  </si>
+  <si>
+    <t>ERS2593868</t>
+  </si>
+  <si>
+    <t>ERS2593869</t>
+  </si>
+  <si>
+    <t>ERS2593861</t>
+  </si>
+  <si>
+    <t>ERS2593871</t>
+  </si>
+  <si>
+    <t>ERS001838</t>
+  </si>
+  <si>
+    <t>PcyM</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>PMC5500898</t>
+  </si>
+  <si>
+    <t>IN_Macaque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4679,6 +4814,27 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5090,12 +5246,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="387">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5821,10 +5980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I697"/>
+  <dimension ref="A1:I718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
-      <selection activeCell="I663" sqref="A663:I673"/>
+    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
+      <selection activeCell="E738" sqref="E738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5865,7 +6024,7 @@
         <v>509</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5894,7 +6053,7 @@
         <v>507</v>
       </c>
       <c r="I2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5923,7 +6082,7 @@
         <v>507</v>
       </c>
       <c r="I3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5952,7 +6111,7 @@
         <v>507</v>
       </c>
       <c r="I4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5981,7 +6140,7 @@
         <v>507</v>
       </c>
       <c r="I5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6010,7 +6169,7 @@
         <v>507</v>
       </c>
       <c r="I6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6039,7 +6198,7 @@
         <v>507</v>
       </c>
       <c r="I7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6068,7 +6227,7 @@
         <v>507</v>
       </c>
       <c r="I8" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6097,7 +6256,7 @@
         <v>507</v>
       </c>
       <c r="I9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6126,7 +6285,7 @@
         <v>507</v>
       </c>
       <c r="I10" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6155,7 +6314,7 @@
         <v>507</v>
       </c>
       <c r="I11" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6184,7 +6343,7 @@
         <v>507</v>
       </c>
       <c r="I12" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6213,7 +6372,7 @@
         <v>507</v>
       </c>
       <c r="I13" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6242,7 +6401,7 @@
         <v>507</v>
       </c>
       <c r="I14" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6271,7 +6430,7 @@
         <v>507</v>
       </c>
       <c r="I15" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6300,7 +6459,7 @@
         <v>507</v>
       </c>
       <c r="I16" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6329,7 +6488,7 @@
         <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6358,7 +6517,7 @@
         <v>507</v>
       </c>
       <c r="I18" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6387,7 +6546,7 @@
         <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6416,7 +6575,7 @@
         <v>507</v>
       </c>
       <c r="I20" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6445,7 +6604,7 @@
         <v>507</v>
       </c>
       <c r="I21" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6474,7 +6633,7 @@
         <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6503,7 +6662,7 @@
         <v>507</v>
       </c>
       <c r="I23" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6532,7 +6691,7 @@
         <v>507</v>
       </c>
       <c r="I24" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6561,7 +6720,7 @@
         <v>507</v>
       </c>
       <c r="I25" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6590,7 +6749,7 @@
         <v>507</v>
       </c>
       <c r="I26" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6619,7 +6778,7 @@
         <v>507</v>
       </c>
       <c r="I27" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6648,7 +6807,7 @@
         <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6677,7 +6836,7 @@
         <v>507</v>
       </c>
       <c r="I29" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6706,7 +6865,7 @@
         <v>507</v>
       </c>
       <c r="I30" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6732,7 +6891,7 @@
         <v>508</v>
       </c>
       <c r="I31" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6761,7 +6920,7 @@
         <v>508</v>
       </c>
       <c r="I32" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6790,7 +6949,7 @@
         <v>508</v>
       </c>
       <c r="I33" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -6819,7 +6978,7 @@
         <v>508</v>
       </c>
       <c r="I34" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -6848,7 +7007,7 @@
         <v>508</v>
       </c>
       <c r="I35" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -6877,7 +7036,7 @@
         <v>510</v>
       </c>
       <c r="I36" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -6906,7 +7065,7 @@
         <v>507</v>
       </c>
       <c r="I37" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -6929,13 +7088,13 @@
         <v>2015</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H38" t="s">
         <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6958,13 +7117,13 @@
         <v>2015</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H39" t="s">
         <v>507</v>
       </c>
       <c r="I39" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -6987,13 +7146,13 @@
         <v>2015</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H40" t="s">
         <v>507</v>
       </c>
       <c r="I40" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7016,13 +7175,13 @@
         <v>2015</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H41" t="s">
         <v>507</v>
       </c>
       <c r="I41" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7045,13 +7204,13 @@
         <v>2015</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H42" t="s">
         <v>507</v>
       </c>
       <c r="I42" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7080,7 +7239,7 @@
         <v>507</v>
       </c>
       <c r="I43" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7109,7 +7268,7 @@
         <v>507</v>
       </c>
       <c r="I44" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7138,7 +7297,7 @@
         <v>507</v>
       </c>
       <c r="I45" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7167,7 +7326,7 @@
         <v>507</v>
       </c>
       <c r="I46" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7196,7 +7355,7 @@
         <v>507</v>
       </c>
       <c r="I47" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7225,7 +7384,7 @@
         <v>507</v>
       </c>
       <c r="I48" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7254,7 +7413,7 @@
         <v>507</v>
       </c>
       <c r="I49" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7283,7 +7442,7 @@
         <v>507</v>
       </c>
       <c r="I50" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7312,7 +7471,7 @@
         <v>507</v>
       </c>
       <c r="I51" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7341,7 +7500,7 @@
         <v>507</v>
       </c>
       <c r="I52" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7370,7 +7529,7 @@
         <v>507</v>
       </c>
       <c r="I53" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7399,7 +7558,7 @@
         <v>507</v>
       </c>
       <c r="I54" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7428,7 +7587,7 @@
         <v>507</v>
       </c>
       <c r="I55" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7457,7 +7616,7 @@
         <v>507</v>
       </c>
       <c r="I56" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7486,7 +7645,7 @@
         <v>507</v>
       </c>
       <c r="I57" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -7515,7 +7674,7 @@
         <v>507</v>
       </c>
       <c r="I58" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -7544,7 +7703,7 @@
         <v>507</v>
       </c>
       <c r="I59" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -7573,7 +7732,7 @@
         <v>507</v>
       </c>
       <c r="I60" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -7602,7 +7761,7 @@
         <v>507</v>
       </c>
       <c r="I61" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -7631,7 +7790,7 @@
         <v>507</v>
       </c>
       <c r="I62" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -7660,7 +7819,7 @@
         <v>507</v>
       </c>
       <c r="I63" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -7689,7 +7848,7 @@
         <v>507</v>
       </c>
       <c r="I64" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -7718,7 +7877,7 @@
         <v>507</v>
       </c>
       <c r="I65" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -7747,7 +7906,7 @@
         <v>507</v>
       </c>
       <c r="I66" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -7776,7 +7935,7 @@
         <v>507</v>
       </c>
       <c r="I67" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -7805,7 +7964,7 @@
         <v>507</v>
       </c>
       <c r="I68" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -7834,7 +7993,7 @@
         <v>507</v>
       </c>
       <c r="I69" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -7863,7 +8022,7 @@
         <v>507</v>
       </c>
       <c r="I70" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -7892,7 +8051,7 @@
         <v>507</v>
       </c>
       <c r="I71" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -7921,7 +8080,7 @@
         <v>507</v>
       </c>
       <c r="I72" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -7950,7 +8109,7 @@
         <v>508</v>
       </c>
       <c r="I73" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -7979,7 +8138,7 @@
         <v>508</v>
       </c>
       <c r="I74" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -8008,7 +8167,7 @@
         <v>508</v>
       </c>
       <c r="I75" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -8037,7 +8196,7 @@
         <v>508</v>
       </c>
       <c r="I76" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -8066,7 +8225,7 @@
         <v>508</v>
       </c>
       <c r="I77" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -8095,7 +8254,7 @@
         <v>508</v>
       </c>
       <c r="I78" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -8124,7 +8283,7 @@
         <v>508</v>
       </c>
       <c r="I79" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -8153,7 +8312,7 @@
         <v>508</v>
       </c>
       <c r="I80" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -8182,7 +8341,7 @@
         <v>511</v>
       </c>
       <c r="I81" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -8211,7 +8370,7 @@
         <v>508</v>
       </c>
       <c r="I82" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -8240,7 +8399,7 @@
         <v>508</v>
       </c>
       <c r="I83" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -8271,7 +8430,7 @@
         <v>507</v>
       </c>
       <c r="I84" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -8300,7 +8459,7 @@
         <v>507</v>
       </c>
       <c r="I85" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -8329,7 +8488,7 @@
         <v>507</v>
       </c>
       <c r="I86" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -8358,7 +8517,7 @@
         <v>507</v>
       </c>
       <c r="I87" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -8387,7 +8546,7 @@
         <v>507</v>
       </c>
       <c r="I88" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -8416,7 +8575,7 @@
         <v>507</v>
       </c>
       <c r="I89" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -8445,7 +8604,7 @@
         <v>507</v>
       </c>
       <c r="I90" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -8474,7 +8633,7 @@
         <v>507</v>
       </c>
       <c r="I91" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -8503,7 +8662,7 @@
         <v>507</v>
       </c>
       <c r="I92" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -8532,7 +8691,7 @@
         <v>507</v>
       </c>
       <c r="I93" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -8561,7 +8720,7 @@
         <v>507</v>
       </c>
       <c r="I94" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -8590,7 +8749,7 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -8619,7 +8778,7 @@
         <v>507</v>
       </c>
       <c r="I96" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -8648,7 +8807,7 @@
         <v>507</v>
       </c>
       <c r="I97" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -8677,7 +8836,7 @@
         <v>507</v>
       </c>
       <c r="I98" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -8706,7 +8865,7 @@
         <v>507</v>
       </c>
       <c r="I99" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -8735,7 +8894,7 @@
         <v>507</v>
       </c>
       <c r="I100" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -8764,7 +8923,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -8793,7 +8952,7 @@
         <v>507</v>
       </c>
       <c r="I102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -8822,7 +8981,7 @@
         <v>507</v>
       </c>
       <c r="I103" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -8851,7 +9010,7 @@
         <v>507</v>
       </c>
       <c r="I104" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -8880,7 +9039,7 @@
         <v>507</v>
       </c>
       <c r="I105" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -8909,7 +9068,7 @@
         <v>507</v>
       </c>
       <c r="I106" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -8938,7 +9097,7 @@
         <v>507</v>
       </c>
       <c r="I107" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -8967,7 +9126,7 @@
         <v>507</v>
       </c>
       <c r="I108" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -8996,7 +9155,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -9025,7 +9184,7 @@
         <v>507</v>
       </c>
       <c r="I110" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -9054,7 +9213,7 @@
         <v>507</v>
       </c>
       <c r="I111" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -9083,7 +9242,7 @@
         <v>507</v>
       </c>
       <c r="I112" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -9112,7 +9271,7 @@
         <v>507</v>
       </c>
       <c r="I113" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -9141,7 +9300,7 @@
         <v>507</v>
       </c>
       <c r="I114" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -9170,7 +9329,7 @@
         <v>507</v>
       </c>
       <c r="I115" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -9199,7 +9358,7 @@
         <v>507</v>
       </c>
       <c r="I116" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -9228,7 +9387,7 @@
         <v>507</v>
       </c>
       <c r="I117" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -9257,7 +9416,7 @@
         <v>507</v>
       </c>
       <c r="I118" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -9286,7 +9445,7 @@
         <v>507</v>
       </c>
       <c r="I119" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -9315,7 +9474,7 @@
         <v>507</v>
       </c>
       <c r="I120" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -9344,7 +9503,7 @@
         <v>507</v>
       </c>
       <c r="I121" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -9373,7 +9532,7 @@
         <v>507</v>
       </c>
       <c r="I122" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -9402,7 +9561,7 @@
         <v>507</v>
       </c>
       <c r="I123" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -9431,7 +9590,7 @@
         <v>507</v>
       </c>
       <c r="I124" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -9460,7 +9619,7 @@
         <v>507</v>
       </c>
       <c r="I125" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -9489,7 +9648,7 @@
         <v>507</v>
       </c>
       <c r="I126" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -9518,7 +9677,7 @@
         <v>507</v>
       </c>
       <c r="I127" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -9547,7 +9706,7 @@
         <v>507</v>
       </c>
       <c r="I128" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -9576,7 +9735,7 @@
         <v>507</v>
       </c>
       <c r="I129" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -9605,7 +9764,7 @@
         <v>507</v>
       </c>
       <c r="I130" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -9634,7 +9793,7 @@
         <v>507</v>
       </c>
       <c r="I131" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -9663,7 +9822,7 @@
         <v>507</v>
       </c>
       <c r="I132" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -9692,7 +9851,7 @@
         <v>507</v>
       </c>
       <c r="I133" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -9721,7 +9880,7 @@
         <v>507</v>
       </c>
       <c r="I134" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -9750,7 +9909,7 @@
         <v>507</v>
       </c>
       <c r="I135" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -9779,7 +9938,7 @@
         <v>507</v>
       </c>
       <c r="I136" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -9808,7 +9967,7 @@
         <v>507</v>
       </c>
       <c r="I137" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -9837,7 +9996,7 @@
         <v>507</v>
       </c>
       <c r="I138" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -9866,7 +10025,7 @@
         <v>507</v>
       </c>
       <c r="I139" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -9895,7 +10054,7 @@
         <v>507</v>
       </c>
       <c r="I140" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -9924,7 +10083,7 @@
         <v>507</v>
       </c>
       <c r="I141" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -9953,7 +10112,7 @@
         <v>507</v>
       </c>
       <c r="I142" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -9982,7 +10141,7 @@
         <v>507</v>
       </c>
       <c r="I143" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -10011,7 +10170,7 @@
         <v>507</v>
       </c>
       <c r="I144" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -10040,7 +10199,7 @@
         <v>507</v>
       </c>
       <c r="I145" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -10069,7 +10228,7 @@
         <v>507</v>
       </c>
       <c r="I146" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -10098,7 +10257,7 @@
         <v>507</v>
       </c>
       <c r="I147" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -10127,7 +10286,7 @@
         <v>507</v>
       </c>
       <c r="I148" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -10156,7 +10315,7 @@
         <v>507</v>
       </c>
       <c r="I149" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -10185,7 +10344,7 @@
         <v>507</v>
       </c>
       <c r="I150" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -10214,7 +10373,7 @@
         <v>507</v>
       </c>
       <c r="I151" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -10243,7 +10402,7 @@
         <v>507</v>
       </c>
       <c r="I152" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -10272,7 +10431,7 @@
         <v>507</v>
       </c>
       <c r="I153" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -10301,7 +10460,7 @@
         <v>507</v>
       </c>
       <c r="I154" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -10330,7 +10489,7 @@
         <v>507</v>
       </c>
       <c r="I155" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -10359,7 +10518,7 @@
         <v>507</v>
       </c>
       <c r="I156" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -10388,7 +10547,7 @@
         <v>507</v>
       </c>
       <c r="I157" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -10417,7 +10576,7 @@
         <v>507</v>
       </c>
       <c r="I158" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -10446,7 +10605,7 @@
         <v>507</v>
       </c>
       <c r="I159" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -10475,7 +10634,7 @@
         <v>507</v>
       </c>
       <c r="I160" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -10504,7 +10663,7 @@
         <v>507</v>
       </c>
       <c r="I161" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -10533,7 +10692,7 @@
         <v>507</v>
       </c>
       <c r="I162" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -10562,7 +10721,7 @@
         <v>507</v>
       </c>
       <c r="I163" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -10591,7 +10750,7 @@
         <v>507</v>
       </c>
       <c r="I164" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -10620,7 +10779,7 @@
         <v>507</v>
       </c>
       <c r="I165" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -10649,7 +10808,7 @@
         <v>507</v>
       </c>
       <c r="I166" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -10678,7 +10837,7 @@
         <v>507</v>
       </c>
       <c r="I167" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -10707,7 +10866,7 @@
         <v>507</v>
       </c>
       <c r="I168" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -10736,7 +10895,7 @@
         <v>507</v>
       </c>
       <c r="I169" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -10765,7 +10924,7 @@
         <v>507</v>
       </c>
       <c r="I170" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -10794,7 +10953,7 @@
         <v>507</v>
       </c>
       <c r="I171" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -10823,7 +10982,7 @@
         <v>507</v>
       </c>
       <c r="I172" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -10852,7 +11011,7 @@
         <v>507</v>
       </c>
       <c r="I173" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -10881,7 +11040,7 @@
         <v>507</v>
       </c>
       <c r="I174" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -10910,7 +11069,7 @@
         <v>507</v>
       </c>
       <c r="I175" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -10939,7 +11098,7 @@
         <v>507</v>
       </c>
       <c r="I176" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -10968,7 +11127,7 @@
         <v>507</v>
       </c>
       <c r="I177" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -10997,7 +11156,7 @@
         <v>507</v>
       </c>
       <c r="I178" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -11026,7 +11185,7 @@
         <v>507</v>
       </c>
       <c r="I179" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -11055,7 +11214,7 @@
         <v>507</v>
       </c>
       <c r="I180" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -11084,7 +11243,7 @@
         <v>507</v>
       </c>
       <c r="I181" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -11113,7 +11272,7 @@
         <v>507</v>
       </c>
       <c r="I182" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -11142,7 +11301,7 @@
         <v>507</v>
       </c>
       <c r="I183" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -11171,7 +11330,7 @@
         <v>507</v>
       </c>
       <c r="I184" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -11200,7 +11359,7 @@
         <v>507</v>
       </c>
       <c r="I185" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -11229,7 +11388,7 @@
         <v>507</v>
       </c>
       <c r="I186" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -11258,7 +11417,7 @@
         <v>507</v>
       </c>
       <c r="I187" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -11287,7 +11446,7 @@
         <v>507</v>
       </c>
       <c r="I188" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -11316,7 +11475,7 @@
         <v>507</v>
       </c>
       <c r="I189" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -11345,7 +11504,7 @@
         <v>507</v>
       </c>
       <c r="I190" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -11374,7 +11533,7 @@
         <v>507</v>
       </c>
       <c r="I191" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -11403,7 +11562,7 @@
         <v>507</v>
       </c>
       <c r="I192" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -11432,7 +11591,7 @@
         <v>507</v>
       </c>
       <c r="I193" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -11461,7 +11620,7 @@
         <v>507</v>
       </c>
       <c r="I194" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -11490,7 +11649,7 @@
         <v>507</v>
       </c>
       <c r="I195" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -11519,7 +11678,7 @@
         <v>507</v>
       </c>
       <c r="I196" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -11548,7 +11707,7 @@
         <v>507</v>
       </c>
       <c r="I197" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -11577,7 +11736,7 @@
         <v>507</v>
       </c>
       <c r="I198" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -11606,7 +11765,7 @@
         <v>507</v>
       </c>
       <c r="I199" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -11635,7 +11794,7 @@
         <v>507</v>
       </c>
       <c r="I200" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -11664,7 +11823,7 @@
         <v>507</v>
       </c>
       <c r="I201" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -11693,7 +11852,7 @@
         <v>507</v>
       </c>
       <c r="I202" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -11722,7 +11881,7 @@
         <v>507</v>
       </c>
       <c r="I203" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -11751,7 +11910,7 @@
         <v>507</v>
       </c>
       <c r="I204" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -11780,7 +11939,7 @@
         <v>507</v>
       </c>
       <c r="I205" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -11809,7 +11968,7 @@
         <v>507</v>
       </c>
       <c r="I206" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -11838,7 +11997,7 @@
         <v>507</v>
       </c>
       <c r="I207" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -11867,7 +12026,7 @@
         <v>507</v>
       </c>
       <c r="I208" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -11896,7 +12055,7 @@
         <v>507</v>
       </c>
       <c r="I209" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -11925,7 +12084,7 @@
         <v>507</v>
       </c>
       <c r="I210" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -11954,7 +12113,7 @@
         <v>507</v>
       </c>
       <c r="I211" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -11983,7 +12142,7 @@
         <v>507</v>
       </c>
       <c r="I212" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -12012,7 +12171,7 @@
         <v>507</v>
       </c>
       <c r="I213" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -12041,7 +12200,7 @@
         <v>507</v>
       </c>
       <c r="I214" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -12070,7 +12229,7 @@
         <v>507</v>
       </c>
       <c r="I215" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -12099,7 +12258,7 @@
         <v>507</v>
       </c>
       <c r="I216" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -12128,7 +12287,7 @@
         <v>507</v>
       </c>
       <c r="I217" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -12157,7 +12316,7 @@
         <v>507</v>
       </c>
       <c r="I218" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -12186,7 +12345,7 @@
         <v>507</v>
       </c>
       <c r="I219" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -12215,7 +12374,7 @@
         <v>507</v>
       </c>
       <c r="I220" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -12244,7 +12403,7 @@
         <v>507</v>
       </c>
       <c r="I221" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -12273,7 +12432,7 @@
         <v>507</v>
       </c>
       <c r="I222" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -12302,7 +12461,7 @@
         <v>507</v>
       </c>
       <c r="I223" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -12331,7 +12490,7 @@
         <v>507</v>
       </c>
       <c r="I224" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -12360,7 +12519,7 @@
         <v>507</v>
       </c>
       <c r="I225" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -12389,7 +12548,7 @@
         <v>507</v>
       </c>
       <c r="I226" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -12418,7 +12577,7 @@
         <v>507</v>
       </c>
       <c r="I227" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -12447,7 +12606,7 @@
         <v>507</v>
       </c>
       <c r="I228" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -12476,7 +12635,7 @@
         <v>507</v>
       </c>
       <c r="I229" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -12505,7 +12664,7 @@
         <v>507</v>
       </c>
       <c r="I230" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -12534,7 +12693,7 @@
         <v>507</v>
       </c>
       <c r="I231" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -12563,7 +12722,7 @@
         <v>507</v>
       </c>
       <c r="I232" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -12592,7 +12751,7 @@
         <v>507</v>
       </c>
       <c r="I233" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -12621,7 +12780,7 @@
         <v>507</v>
       </c>
       <c r="I234" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -12650,7 +12809,7 @@
         <v>507</v>
       </c>
       <c r="I235" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -12679,7 +12838,7 @@
         <v>507</v>
       </c>
       <c r="I236" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -12708,7 +12867,7 @@
         <v>507</v>
       </c>
       <c r="I237" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -12737,7 +12896,7 @@
         <v>507</v>
       </c>
       <c r="I238" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -12766,7 +12925,7 @@
         <v>507</v>
       </c>
       <c r="I239" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -12795,7 +12954,7 @@
         <v>507</v>
       </c>
       <c r="I240" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -12824,7 +12983,7 @@
         <v>507</v>
       </c>
       <c r="I241" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -12853,7 +13012,7 @@
         <v>507</v>
       </c>
       <c r="I242" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -12882,7 +13041,7 @@
         <v>507</v>
       </c>
       <c r="I243" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -12911,7 +13070,7 @@
         <v>507</v>
       </c>
       <c r="I244" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -12940,7 +13099,7 @@
         <v>507</v>
       </c>
       <c r="I245" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -12969,7 +13128,7 @@
         <v>507</v>
       </c>
       <c r="I246" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -12998,7 +13157,7 @@
         <v>507</v>
       </c>
       <c r="I247" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -13027,7 +13186,7 @@
         <v>507</v>
       </c>
       <c r="I248" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -13056,7 +13215,7 @@
         <v>507</v>
       </c>
       <c r="I249" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -13085,7 +13244,7 @@
         <v>507</v>
       </c>
       <c r="I250" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -13114,7 +13273,7 @@
         <v>507</v>
       </c>
       <c r="I251" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -13144,7 +13303,7 @@
         <v>507</v>
       </c>
       <c r="I252" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -13174,7 +13333,7 @@
         <v>507</v>
       </c>
       <c r="I253" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -13204,7 +13363,7 @@
         <v>507</v>
       </c>
       <c r="I254" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -13234,7 +13393,7 @@
         <v>507</v>
       </c>
       <c r="I255" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -13264,7 +13423,7 @@
         <v>507</v>
       </c>
       <c r="I256" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -13294,7 +13453,7 @@
         <v>507</v>
       </c>
       <c r="I257" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -13324,7 +13483,7 @@
         <v>507</v>
       </c>
       <c r="I258" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -13354,7 +13513,7 @@
         <v>507</v>
       </c>
       <c r="I259" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -13384,7 +13543,7 @@
         <v>507</v>
       </c>
       <c r="I260" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -13414,7 +13573,7 @@
         <v>507</v>
       </c>
       <c r="I261" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -13444,7 +13603,7 @@
         <v>507</v>
       </c>
       <c r="I262" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -13474,7 +13633,7 @@
         <v>507</v>
       </c>
       <c r="I263" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -13504,7 +13663,7 @@
         <v>507</v>
       </c>
       <c r="I264" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -13534,7 +13693,7 @@
         <v>507</v>
       </c>
       <c r="I265" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -13564,7 +13723,7 @@
         <v>507</v>
       </c>
       <c r="I266" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -13594,7 +13753,7 @@
         <v>507</v>
       </c>
       <c r="I267" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -13624,7 +13783,7 @@
         <v>507</v>
       </c>
       <c r="I268" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -13654,7 +13813,7 @@
         <v>507</v>
       </c>
       <c r="I269" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -13684,7 +13843,7 @@
         <v>507</v>
       </c>
       <c r="I270" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -13714,7 +13873,7 @@
         <v>507</v>
       </c>
       <c r="I271" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -13744,7 +13903,7 @@
         <v>507</v>
       </c>
       <c r="I272" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -13774,7 +13933,7 @@
         <v>507</v>
       </c>
       <c r="I273" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -13804,7 +13963,7 @@
         <v>507</v>
       </c>
       <c r="I274" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -13834,7 +13993,7 @@
         <v>507</v>
       </c>
       <c r="I275" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -13864,7 +14023,7 @@
         <v>507</v>
       </c>
       <c r="I276" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -13894,7 +14053,7 @@
         <v>507</v>
       </c>
       <c r="I277" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -13924,7 +14083,7 @@
         <v>507</v>
       </c>
       <c r="I278" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -13954,7 +14113,7 @@
         <v>507</v>
       </c>
       <c r="I279" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -13984,7 +14143,7 @@
         <v>507</v>
       </c>
       <c r="I280" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -14014,7 +14173,7 @@
         <v>507</v>
       </c>
       <c r="I281" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -14044,7 +14203,7 @@
         <v>507</v>
       </c>
       <c r="I282" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -14074,7 +14233,7 @@
         <v>507</v>
       </c>
       <c r="I283" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -14104,7 +14263,7 @@
         <v>507</v>
       </c>
       <c r="I284" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -14134,7 +14293,7 @@
         <v>507</v>
       </c>
       <c r="I285" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -14164,7 +14323,7 @@
         <v>507</v>
       </c>
       <c r="I286" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -14194,7 +14353,7 @@
         <v>507</v>
       </c>
       <c r="I287" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -14224,7 +14383,7 @@
         <v>507</v>
       </c>
       <c r="I288" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -14254,7 +14413,7 @@
         <v>507</v>
       </c>
       <c r="I289" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -14284,7 +14443,7 @@
         <v>507</v>
       </c>
       <c r="I290" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -14314,7 +14473,7 @@
         <v>507</v>
       </c>
       <c r="I291" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -14344,7 +14503,7 @@
         <v>507</v>
       </c>
       <c r="I292" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -14374,7 +14533,7 @@
         <v>507</v>
       </c>
       <c r="I293" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -14404,7 +14563,7 @@
         <v>507</v>
       </c>
       <c r="I294" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -14434,7 +14593,7 @@
         <v>507</v>
       </c>
       <c r="I295" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -14463,7 +14622,7 @@
         <v>507</v>
       </c>
       <c r="I296" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -14493,7 +14652,7 @@
         <v>507</v>
       </c>
       <c r="I297" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -14523,7 +14682,7 @@
         <v>507</v>
       </c>
       <c r="I298" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -14553,7 +14712,7 @@
         <v>507</v>
       </c>
       <c r="I299" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -14583,7 +14742,7 @@
         <v>507</v>
       </c>
       <c r="I300" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -14612,7 +14771,7 @@
         <v>507</v>
       </c>
       <c r="I301" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -14641,7 +14800,7 @@
         <v>507</v>
       </c>
       <c r="I302" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -14671,7 +14830,7 @@
         <v>507</v>
       </c>
       <c r="I303" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -14701,7 +14860,7 @@
         <v>507</v>
       </c>
       <c r="I304" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -14731,7 +14890,7 @@
         <v>507</v>
       </c>
       <c r="I305" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -14761,7 +14920,7 @@
         <v>507</v>
       </c>
       <c r="I306" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -14791,7 +14950,7 @@
         <v>507</v>
       </c>
       <c r="I307" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -14821,7 +14980,7 @@
         <v>507</v>
       </c>
       <c r="I308" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -14851,7 +15010,7 @@
         <v>507</v>
       </c>
       <c r="I309" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -14881,7 +15040,7 @@
         <v>507</v>
       </c>
       <c r="I310" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -14910,7 +15069,7 @@
         <v>507</v>
       </c>
       <c r="I311" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -14940,7 +15099,7 @@
         <v>507</v>
       </c>
       <c r="I312" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -14970,7 +15129,7 @@
         <v>507</v>
       </c>
       <c r="I313" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -15000,7 +15159,7 @@
         <v>507</v>
       </c>
       <c r="I314" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -15030,7 +15189,7 @@
         <v>507</v>
       </c>
       <c r="I315" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -15059,7 +15218,7 @@
         <v>507</v>
       </c>
       <c r="I316" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -15088,7 +15247,7 @@
         <v>507</v>
       </c>
       <c r="I317" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -15118,7 +15277,7 @@
         <v>507</v>
       </c>
       <c r="I318" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -15148,7 +15307,7 @@
         <v>507</v>
       </c>
       <c r="I319" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -15178,7 +15337,7 @@
         <v>507</v>
       </c>
       <c r="I320" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
@@ -15208,7 +15367,7 @@
         <v>507</v>
       </c>
       <c r="I321" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
@@ -15238,7 +15397,7 @@
         <v>507</v>
       </c>
       <c r="I322" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -15268,7 +15427,7 @@
         <v>507</v>
       </c>
       <c r="I323" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -15298,7 +15457,7 @@
         <v>507</v>
       </c>
       <c r="I324" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
@@ -15328,7 +15487,7 @@
         <v>507</v>
       </c>
       <c r="I325" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -15358,7 +15517,7 @@
         <v>507</v>
       </c>
       <c r="I326" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
@@ -15388,7 +15547,7 @@
         <v>507</v>
       </c>
       <c r="I327" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
@@ -15418,7 +15577,7 @@
         <v>507</v>
       </c>
       <c r="I328" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
@@ -15448,7 +15607,7 @@
         <v>507</v>
       </c>
       <c r="I329" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
@@ -15478,7 +15637,7 @@
         <v>507</v>
       </c>
       <c r="I330" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
@@ -15508,7 +15667,7 @@
         <v>507</v>
       </c>
       <c r="I331" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -15538,7 +15697,7 @@
         <v>507</v>
       </c>
       <c r="I332" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -15568,7 +15727,7 @@
         <v>507</v>
       </c>
       <c r="I333" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
@@ -15598,7 +15757,7 @@
         <v>507</v>
       </c>
       <c r="I334" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
@@ -15628,7 +15787,7 @@
         <v>507</v>
       </c>
       <c r="I335" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -15658,7 +15817,7 @@
         <v>507</v>
       </c>
       <c r="I336" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
@@ -15688,7 +15847,7 @@
         <v>507</v>
       </c>
       <c r="I337" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
@@ -15718,7 +15877,7 @@
         <v>507</v>
       </c>
       <c r="I338" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
@@ -15748,7 +15907,7 @@
         <v>507</v>
       </c>
       <c r="I339" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
@@ -15778,7 +15937,7 @@
         <v>507</v>
       </c>
       <c r="I340" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
@@ -15808,7 +15967,7 @@
         <v>507</v>
       </c>
       <c r="I341" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
@@ -15838,7 +15997,7 @@
         <v>507</v>
       </c>
       <c r="I342" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -15868,7 +16027,7 @@
         <v>507</v>
       </c>
       <c r="I343" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -15898,7 +16057,7 @@
         <v>507</v>
       </c>
       <c r="I344" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
@@ -15928,7 +16087,7 @@
         <v>507</v>
       </c>
       <c r="I345" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
@@ -15958,7 +16117,7 @@
         <v>507</v>
       </c>
       <c r="I346" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
@@ -15988,7 +16147,7 @@
         <v>507</v>
       </c>
       <c r="I347" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
@@ -16018,7 +16177,7 @@
         <v>507</v>
       </c>
       <c r="I348" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
@@ -16048,7 +16207,7 @@
         <v>507</v>
       </c>
       <c r="I349" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
@@ -16077,7 +16236,7 @@
         <v>507</v>
       </c>
       <c r="I350" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
@@ -16106,7 +16265,7 @@
         <v>507</v>
       </c>
       <c r="I351" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
@@ -16135,7 +16294,7 @@
         <v>507</v>
       </c>
       <c r="I352" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
@@ -16164,7 +16323,7 @@
         <v>507</v>
       </c>
       <c r="I353" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
@@ -16193,7 +16352,7 @@
         <v>507</v>
       </c>
       <c r="I354" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
@@ -16223,7 +16382,7 @@
         <v>507</v>
       </c>
       <c r="I355" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
@@ -16253,7 +16412,7 @@
         <v>507</v>
       </c>
       <c r="I356" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
@@ -16283,7 +16442,7 @@
         <v>507</v>
       </c>
       <c r="I357" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
@@ -16313,7 +16472,7 @@
         <v>507</v>
       </c>
       <c r="I358" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
@@ -16343,7 +16502,7 @@
         <v>507</v>
       </c>
       <c r="I359" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
@@ -16372,7 +16531,7 @@
         <v>507</v>
       </c>
       <c r="I360" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -16401,7 +16560,7 @@
         <v>507</v>
       </c>
       <c r="I361" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -16430,7 +16589,7 @@
         <v>507</v>
       </c>
       <c r="I362" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
@@ -16459,7 +16618,7 @@
         <v>507</v>
       </c>
       <c r="I363" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -16488,7 +16647,7 @@
         <v>507</v>
       </c>
       <c r="I364" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
@@ -16517,7 +16676,7 @@
         <v>507</v>
       </c>
       <c r="I365" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
@@ -16546,7 +16705,7 @@
         <v>507</v>
       </c>
       <c r="I366" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
@@ -16575,7 +16734,7 @@
         <v>507</v>
       </c>
       <c r="I367" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
@@ -16604,7 +16763,7 @@
         <v>507</v>
       </c>
       <c r="I368" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -16633,7 +16792,7 @@
         <v>507</v>
       </c>
       <c r="I369" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -16662,7 +16821,7 @@
         <v>507</v>
       </c>
       <c r="I370" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -16691,7 +16850,7 @@
         <v>507</v>
       </c>
       <c r="I371" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -16720,7 +16879,7 @@
         <v>507</v>
       </c>
       <c r="I372" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
@@ -16749,7 +16908,7 @@
         <v>507</v>
       </c>
       <c r="I373" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
@@ -16778,7 +16937,7 @@
         <v>507</v>
       </c>
       <c r="I374" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
@@ -16807,7 +16966,7 @@
         <v>507</v>
       </c>
       <c r="I375" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -16836,7 +16995,7 @@
         <v>507</v>
       </c>
       <c r="I376" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -16865,7 +17024,7 @@
         <v>507</v>
       </c>
       <c r="I377" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
@@ -16894,7 +17053,7 @@
         <v>507</v>
       </c>
       <c r="I378" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -16923,7 +17082,7 @@
         <v>507</v>
       </c>
       <c r="I379" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
@@ -16952,7 +17111,7 @@
         <v>507</v>
       </c>
       <c r="I380" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -16981,7 +17140,7 @@
         <v>507</v>
       </c>
       <c r="I381" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
@@ -17010,7 +17169,7 @@
         <v>507</v>
       </c>
       <c r="I382" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
@@ -17039,7 +17198,7 @@
         <v>507</v>
       </c>
       <c r="I383" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
@@ -17068,7 +17227,7 @@
         <v>507</v>
       </c>
       <c r="I384" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -17097,7 +17256,7 @@
         <v>507</v>
       </c>
       <c r="I385" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -17126,7 +17285,7 @@
         <v>507</v>
       </c>
       <c r="I386" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
@@ -17155,7 +17314,7 @@
         <v>507</v>
       </c>
       <c r="I387" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -17184,7 +17343,7 @@
         <v>507</v>
       </c>
       <c r="I388" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
@@ -17213,7 +17372,7 @@
         <v>507</v>
       </c>
       <c r="I389" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
@@ -17242,7 +17401,7 @@
         <v>507</v>
       </c>
       <c r="I390" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
@@ -17271,7 +17430,7 @@
         <v>507</v>
       </c>
       <c r="I391" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
@@ -17300,7 +17459,7 @@
         <v>507</v>
       </c>
       <c r="I392" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -17329,7 +17488,7 @@
         <v>507</v>
       </c>
       <c r="I393" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
@@ -17358,7 +17517,7 @@
         <v>507</v>
       </c>
       <c r="I394" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
@@ -17387,7 +17546,7 @@
         <v>507</v>
       </c>
       <c r="I395" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -17416,7 +17575,7 @@
         <v>507</v>
       </c>
       <c r="I396" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -17445,7 +17604,7 @@
         <v>507</v>
       </c>
       <c r="I397" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
@@ -17474,7 +17633,7 @@
         <v>507</v>
       </c>
       <c r="I398" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -17503,7 +17662,7 @@
         <v>507</v>
       </c>
       <c r="I399" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
@@ -17532,7 +17691,7 @@
         <v>507</v>
       </c>
       <c r="I400" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
@@ -17561,7 +17720,7 @@
         <v>507</v>
       </c>
       <c r="I401" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
@@ -17590,7 +17749,7 @@
         <v>507</v>
       </c>
       <c r="I402" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
@@ -17619,7 +17778,7 @@
         <v>507</v>
       </c>
       <c r="I403" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
@@ -17648,7 +17807,7 @@
         <v>507</v>
       </c>
       <c r="I404" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -17677,7 +17836,7 @@
         <v>507</v>
       </c>
       <c r="I405" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -17706,7 +17865,7 @@
         <v>507</v>
       </c>
       <c r="I406" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -17735,7 +17894,7 @@
         <v>507</v>
       </c>
       <c r="I407" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -17764,7 +17923,7 @@
         <v>507</v>
       </c>
       <c r="I408" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -17793,7 +17952,7 @@
         <v>507</v>
       </c>
       <c r="I409" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -17822,7 +17981,7 @@
         <v>507</v>
       </c>
       <c r="I410" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -17851,7 +18010,7 @@
         <v>507</v>
       </c>
       <c r="I411" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -17880,7 +18039,7 @@
         <v>507</v>
       </c>
       <c r="I412" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -17909,7 +18068,7 @@
         <v>507</v>
       </c>
       <c r="I413" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -17938,7 +18097,7 @@
         <v>507</v>
       </c>
       <c r="I414" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
@@ -17967,7 +18126,7 @@
         <v>507</v>
       </c>
       <c r="I415" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
@@ -17996,7 +18155,7 @@
         <v>507</v>
       </c>
       <c r="I416" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
@@ -18025,7 +18184,7 @@
         <v>507</v>
       </c>
       <c r="I417" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
@@ -18054,7 +18213,7 @@
         <v>507</v>
       </c>
       <c r="I418" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
@@ -18083,7 +18242,7 @@
         <v>507</v>
       </c>
       <c r="I419" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
@@ -18112,7 +18271,7 @@
         <v>507</v>
       </c>
       <c r="I420" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
@@ -18141,7 +18300,7 @@
         <v>507</v>
       </c>
       <c r="I421" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
@@ -18170,7 +18329,7 @@
         <v>507</v>
       </c>
       <c r="I422" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
@@ -18199,7 +18358,7 @@
         <v>507</v>
       </c>
       <c r="I423" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
@@ -18228,7 +18387,7 @@
         <v>507</v>
       </c>
       <c r="I424" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
@@ -18257,7 +18416,7 @@
         <v>507</v>
       </c>
       <c r="I425" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
@@ -18286,7 +18445,7 @@
         <v>507</v>
       </c>
       <c r="I426" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
@@ -18315,7 +18474,7 @@
         <v>507</v>
       </c>
       <c r="I427" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -18344,7 +18503,7 @@
         <v>507</v>
       </c>
       <c r="I428" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
@@ -18373,7 +18532,7 @@
         <v>507</v>
       </c>
       <c r="I429" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -18402,7 +18561,7 @@
         <v>507</v>
       </c>
       <c r="I430" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
@@ -18431,7 +18590,7 @@
         <v>507</v>
       </c>
       <c r="I431" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -18460,7 +18619,7 @@
         <v>507</v>
       </c>
       <c r="I432" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -18489,7 +18648,7 @@
         <v>507</v>
       </c>
       <c r="I433" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -18518,7 +18677,7 @@
         <v>507</v>
       </c>
       <c r="I434" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
@@ -18547,7 +18706,7 @@
         <v>507</v>
       </c>
       <c r="I435" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
@@ -18576,7 +18735,7 @@
         <v>507</v>
       </c>
       <c r="I436" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -18605,7 +18764,7 @@
         <v>507</v>
       </c>
       <c r="I437" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
@@ -18634,7 +18793,7 @@
         <v>507</v>
       </c>
       <c r="I438" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
@@ -18663,7 +18822,7 @@
         <v>507</v>
       </c>
       <c r="I439" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
@@ -18692,7 +18851,7 @@
         <v>507</v>
       </c>
       <c r="I440" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -18721,7 +18880,7 @@
         <v>507</v>
       </c>
       <c r="I441" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -18750,7 +18909,7 @@
         <v>507</v>
       </c>
       <c r="I442" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
@@ -18779,7 +18938,7 @@
         <v>507</v>
       </c>
       <c r="I443" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -18808,7 +18967,7 @@
         <v>507</v>
       </c>
       <c r="I444" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
@@ -18837,7 +18996,7 @@
         <v>507</v>
       </c>
       <c r="I445" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -18866,7 +19025,7 @@
         <v>507</v>
       </c>
       <c r="I446" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
@@ -18895,7 +19054,7 @@
         <v>507</v>
       </c>
       <c r="I447" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
@@ -18924,7 +19083,7 @@
         <v>507</v>
       </c>
       <c r="I448" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
@@ -18953,7 +19112,7 @@
         <v>507</v>
       </c>
       <c r="I449" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
@@ -18982,7 +19141,7 @@
         <v>507</v>
       </c>
       <c r="I450" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
@@ -19011,7 +19170,7 @@
         <v>507</v>
       </c>
       <c r="I451" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
@@ -19040,7 +19199,7 @@
         <v>507</v>
       </c>
       <c r="I452" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -19069,7 +19228,7 @@
         <v>507</v>
       </c>
       <c r="I453" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
@@ -19098,7 +19257,7 @@
         <v>507</v>
       </c>
       <c r="I454" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
@@ -19127,7 +19286,7 @@
         <v>507</v>
       </c>
       <c r="I455" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -19156,7 +19315,7 @@
         <v>507</v>
       </c>
       <c r="I456" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
@@ -19185,7 +19344,7 @@
         <v>507</v>
       </c>
       <c r="I457" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -19214,7 +19373,7 @@
         <v>507</v>
       </c>
       <c r="I458" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
@@ -19243,7 +19402,7 @@
         <v>507</v>
       </c>
       <c r="I459" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
@@ -19272,7 +19431,7 @@
         <v>507</v>
       </c>
       <c r="I460" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
@@ -19301,7 +19460,7 @@
         <v>507</v>
       </c>
       <c r="I461" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
@@ -19330,7 +19489,7 @@
         <v>507</v>
       </c>
       <c r="I462" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
@@ -19359,7 +19518,7 @@
         <v>507</v>
       </c>
       <c r="I463" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
@@ -19388,7 +19547,7 @@
         <v>507</v>
       </c>
       <c r="I464" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -19417,7 +19576,7 @@
         <v>507</v>
       </c>
       <c r="I465" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
@@ -19446,7 +19605,7 @@
         <v>507</v>
       </c>
       <c r="I466" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -19475,7 +19634,7 @@
         <v>507</v>
       </c>
       <c r="I467" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
@@ -19504,7 +19663,7 @@
         <v>507</v>
       </c>
       <c r="I468" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
@@ -19533,7 +19692,7 @@
         <v>507</v>
       </c>
       <c r="I469" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
@@ -19562,7 +19721,7 @@
         <v>507</v>
       </c>
       <c r="I470" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.2">
@@ -19591,7 +19750,7 @@
         <v>507</v>
       </c>
       <c r="I471" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
@@ -19620,7 +19779,7 @@
         <v>507</v>
       </c>
       <c r="I472" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
@@ -19649,7 +19808,7 @@
         <v>507</v>
       </c>
       <c r="I473" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -19678,7 +19837,7 @@
         <v>507</v>
       </c>
       <c r="I474" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -19707,7 +19866,7 @@
         <v>507</v>
       </c>
       <c r="I475" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -19736,7 +19895,7 @@
         <v>507</v>
       </c>
       <c r="I476" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -19765,7 +19924,7 @@
         <v>507</v>
       </c>
       <c r="I477" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
@@ -19794,7 +19953,7 @@
         <v>507</v>
       </c>
       <c r="I478" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
@@ -19823,7 +19982,7 @@
         <v>507</v>
       </c>
       <c r="I479" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
@@ -19852,7 +20011,7 @@
         <v>507</v>
       </c>
       <c r="I480" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
@@ -19881,7 +20040,7 @@
         <v>507</v>
       </c>
       <c r="I481" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
@@ -19910,7 +20069,7 @@
         <v>507</v>
       </c>
       <c r="I482" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
@@ -19939,7 +20098,7 @@
         <v>507</v>
       </c>
       <c r="I483" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
@@ -19968,7 +20127,7 @@
         <v>507</v>
       </c>
       <c r="I484" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
@@ -19997,7 +20156,7 @@
         <v>507</v>
       </c>
       <c r="I485" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
@@ -20026,7 +20185,7 @@
         <v>507</v>
       </c>
       <c r="I486" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
@@ -20055,7 +20214,7 @@
         <v>507</v>
       </c>
       <c r="I487" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
@@ -20084,7 +20243,7 @@
         <v>507</v>
       </c>
       <c r="I488" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
@@ -20113,7 +20272,7 @@
         <v>507</v>
       </c>
       <c r="I489" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
@@ -20142,7 +20301,7 @@
         <v>507</v>
       </c>
       <c r="I490" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
@@ -20171,7 +20330,7 @@
         <v>507</v>
       </c>
       <c r="I491" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
@@ -20200,7 +20359,7 @@
         <v>507</v>
       </c>
       <c r="I492" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
@@ -20229,7 +20388,7 @@
         <v>507</v>
       </c>
       <c r="I493" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
@@ -20258,7 +20417,7 @@
         <v>507</v>
       </c>
       <c r="I494" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
@@ -20287,7 +20446,7 @@
         <v>507</v>
       </c>
       <c r="I495" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
@@ -20316,7 +20475,7 @@
         <v>507</v>
       </c>
       <c r="I496" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
@@ -20345,7 +20504,7 @@
         <v>507</v>
       </c>
       <c r="I497" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
@@ -20374,7 +20533,7 @@
         <v>507</v>
       </c>
       <c r="I498" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
@@ -20403,7 +20562,7 @@
         <v>507</v>
       </c>
       <c r="I499" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
@@ -20433,7 +20592,7 @@
         <v>507</v>
       </c>
       <c r="I500" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
@@ -20463,7 +20622,7 @@
         <v>507</v>
       </c>
       <c r="I501" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
@@ -20493,7 +20652,7 @@
         <v>507</v>
       </c>
       <c r="I502" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
@@ -20523,7 +20682,7 @@
         <v>507</v>
       </c>
       <c r="I503" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
@@ -20553,7 +20712,7 @@
         <v>507</v>
       </c>
       <c r="I504" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
@@ -20583,7 +20742,7 @@
         <v>507</v>
       </c>
       <c r="I505" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
@@ -20613,7 +20772,7 @@
         <v>507</v>
       </c>
       <c r="I506" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
@@ -20643,7 +20802,7 @@
         <v>507</v>
       </c>
       <c r="I507" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
@@ -20673,7 +20832,7 @@
         <v>507</v>
       </c>
       <c r="I508" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
@@ -20703,7 +20862,7 @@
         <v>507</v>
       </c>
       <c r="I509" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
@@ -20733,7 +20892,7 @@
         <v>507</v>
       </c>
       <c r="I510" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
@@ -20763,7 +20922,7 @@
         <v>507</v>
       </c>
       <c r="I511" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
@@ -20793,7 +20952,7 @@
         <v>507</v>
       </c>
       <c r="I512" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
@@ -20823,7 +20982,7 @@
         <v>507</v>
       </c>
       <c r="I513" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
@@ -20853,7 +21012,7 @@
         <v>507</v>
       </c>
       <c r="I514" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
@@ -20883,7 +21042,7 @@
         <v>507</v>
       </c>
       <c r="I515" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
@@ -20913,7 +21072,7 @@
         <v>507</v>
       </c>
       <c r="I516" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
@@ -20943,7 +21102,7 @@
         <v>507</v>
       </c>
       <c r="I517" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
@@ -20973,7 +21132,7 @@
         <v>507</v>
       </c>
       <c r="I518" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.2">
@@ -21003,7 +21162,7 @@
         <v>507</v>
       </c>
       <c r="I519" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
@@ -21033,7 +21192,7 @@
         <v>507</v>
       </c>
       <c r="I520" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
@@ -21063,7 +21222,7 @@
         <v>507</v>
       </c>
       <c r="I521" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
@@ -21093,7 +21252,7 @@
         <v>507</v>
       </c>
       <c r="I522" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
@@ -21123,7 +21282,7 @@
         <v>507</v>
       </c>
       <c r="I523" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
@@ -21153,7 +21312,7 @@
         <v>507</v>
       </c>
       <c r="I524" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
@@ -21183,7 +21342,7 @@
         <v>507</v>
       </c>
       <c r="I525" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
@@ -21213,7 +21372,7 @@
         <v>507</v>
       </c>
       <c r="I526" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
@@ -21243,7 +21402,7 @@
         <v>507</v>
       </c>
       <c r="I527" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
@@ -21273,7 +21432,7 @@
         <v>507</v>
       </c>
       <c r="I528" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
@@ -21303,7 +21462,7 @@
         <v>507</v>
       </c>
       <c r="I529" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.2">
@@ -21333,7 +21492,7 @@
         <v>507</v>
       </c>
       <c r="I530" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.2">
@@ -21363,7 +21522,7 @@
         <v>507</v>
       </c>
       <c r="I531" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
@@ -21393,7 +21552,7 @@
         <v>507</v>
       </c>
       <c r="I532" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
@@ -21423,7 +21582,7 @@
         <v>507</v>
       </c>
       <c r="I533" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.2">
@@ -21453,7 +21612,7 @@
         <v>507</v>
       </c>
       <c r="I534" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
@@ -21483,7 +21642,7 @@
         <v>507</v>
       </c>
       <c r="I535" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
@@ -21513,7 +21672,7 @@
         <v>507</v>
       </c>
       <c r="I536" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
@@ -21543,7 +21702,7 @@
         <v>507</v>
       </c>
       <c r="I537" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
@@ -21573,7 +21732,7 @@
         <v>507</v>
       </c>
       <c r="I538" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
@@ -21603,7 +21762,7 @@
         <v>507</v>
       </c>
       <c r="I539" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
@@ -21633,7 +21792,7 @@
         <v>507</v>
       </c>
       <c r="I540" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
@@ -21663,7 +21822,7 @@
         <v>507</v>
       </c>
       <c r="I541" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.2">
@@ -21693,7 +21852,7 @@
         <v>507</v>
       </c>
       <c r="I542" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
@@ -21723,7 +21882,7 @@
         <v>507</v>
       </c>
       <c r="I543" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.2">
@@ -21753,7 +21912,7 @@
         <v>507</v>
       </c>
       <c r="I544" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
@@ -21783,7 +21942,7 @@
         <v>507</v>
       </c>
       <c r="I545" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.2">
@@ -21813,7 +21972,7 @@
         <v>507</v>
       </c>
       <c r="I546" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.2">
@@ -21843,7 +22002,7 @@
         <v>507</v>
       </c>
       <c r="I547" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
@@ -21873,7 +22032,7 @@
         <v>507</v>
       </c>
       <c r="I548" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
@@ -21903,7 +22062,7 @@
         <v>507</v>
       </c>
       <c r="I549" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
@@ -21933,7 +22092,7 @@
         <v>507</v>
       </c>
       <c r="I550" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
@@ -21963,7 +22122,7 @@
         <v>507</v>
       </c>
       <c r="I551" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
@@ -21993,7 +22152,7 @@
         <v>507</v>
       </c>
       <c r="I552" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.2">
@@ -22023,7 +22182,7 @@
         <v>507</v>
       </c>
       <c r="I553" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
@@ -22053,7 +22212,7 @@
         <v>507</v>
       </c>
       <c r="I554" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
@@ -22083,7 +22242,7 @@
         <v>507</v>
       </c>
       <c r="I555" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
@@ -22113,7 +22272,7 @@
         <v>507</v>
       </c>
       <c r="I556" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.2">
@@ -22143,7 +22302,7 @@
         <v>507</v>
       </c>
       <c r="I557" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.2">
@@ -22173,7 +22332,7 @@
         <v>507</v>
       </c>
       <c r="I558" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
@@ -22203,7 +22362,7 @@
         <v>507</v>
       </c>
       <c r="I559" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
@@ -22233,7 +22392,7 @@
         <v>507</v>
       </c>
       <c r="I560" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
@@ -22263,7 +22422,7 @@
         <v>507</v>
       </c>
       <c r="I561" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
@@ -22293,7 +22452,7 @@
         <v>507</v>
       </c>
       <c r="I562" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
@@ -22323,7 +22482,7 @@
         <v>507</v>
       </c>
       <c r="I563" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.2">
@@ -22353,7 +22512,7 @@
         <v>507</v>
       </c>
       <c r="I564" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.2">
@@ -22383,7 +22542,7 @@
         <v>507</v>
       </c>
       <c r="I565" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.2">
@@ -22413,7 +22572,7 @@
         <v>507</v>
       </c>
       <c r="I566" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
@@ -22443,7 +22602,7 @@
         <v>507</v>
       </c>
       <c r="I567" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.2">
@@ -22473,7 +22632,7 @@
         <v>507</v>
       </c>
       <c r="I568" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.2">
@@ -22503,7 +22662,7 @@
         <v>507</v>
       </c>
       <c r="I569" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.2">
@@ -22533,7 +22692,7 @@
         <v>507</v>
       </c>
       <c r="I570" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.2">
@@ -22563,7 +22722,7 @@
         <v>507</v>
       </c>
       <c r="I571" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.2">
@@ -22593,7 +22752,7 @@
         <v>507</v>
       </c>
       <c r="I572" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
@@ -22623,7 +22782,7 @@
         <v>507</v>
       </c>
       <c r="I573" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
@@ -22653,7 +22812,7 @@
         <v>507</v>
       </c>
       <c r="I574" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
@@ -22683,7 +22842,7 @@
         <v>507</v>
       </c>
       <c r="I575" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
@@ -22713,7 +22872,7 @@
         <v>507</v>
       </c>
       <c r="I576" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
@@ -22743,7 +22902,7 @@
         <v>507</v>
       </c>
       <c r="I577" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
@@ -22773,7 +22932,7 @@
         <v>507</v>
       </c>
       <c r="I578" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
@@ -22803,7 +22962,7 @@
         <v>507</v>
       </c>
       <c r="I579" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
@@ -22833,7 +22992,7 @@
         <v>507</v>
       </c>
       <c r="I580" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
@@ -22863,7 +23022,7 @@
         <v>507</v>
       </c>
       <c r="I581" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
@@ -22893,7 +23052,7 @@
         <v>507</v>
       </c>
       <c r="I582" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
@@ -22923,7 +23082,7 @@
         <v>507</v>
       </c>
       <c r="I583" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
@@ -22953,7 +23112,7 @@
         <v>507</v>
       </c>
       <c r="I584" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
@@ -22982,7 +23141,7 @@
         <v>507</v>
       </c>
       <c r="I585" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
@@ -23011,7 +23170,7 @@
         <v>507</v>
       </c>
       <c r="I586" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
@@ -23040,7 +23199,7 @@
         <v>507</v>
       </c>
       <c r="I587" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
@@ -23069,7 +23228,7 @@
         <v>507</v>
       </c>
       <c r="I588" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
@@ -23098,7 +23257,7 @@
         <v>507</v>
       </c>
       <c r="I589" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
@@ -23127,7 +23286,7 @@
         <v>507</v>
       </c>
       <c r="I590" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
@@ -23156,7 +23315,7 @@
         <v>507</v>
       </c>
       <c r="I591" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
@@ -23185,7 +23344,7 @@
         <v>507</v>
       </c>
       <c r="I592" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
@@ -23214,7 +23373,7 @@
         <v>507</v>
       </c>
       <c r="I593" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
@@ -23243,7 +23402,7 @@
         <v>507</v>
       </c>
       <c r="I594" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
@@ -23272,7 +23431,7 @@
         <v>507</v>
       </c>
       <c r="I595" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
@@ -23301,7 +23460,7 @@
         <v>507</v>
       </c>
       <c r="I596" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
@@ -23330,7 +23489,7 @@
         <v>507</v>
       </c>
       <c r="I597" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
@@ -23359,7 +23518,7 @@
         <v>507</v>
       </c>
       <c r="I598" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.2">
@@ -23388,7 +23547,7 @@
         <v>507</v>
       </c>
       <c r="I599" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.2">
@@ -23417,7 +23576,7 @@
         <v>507</v>
       </c>
       <c r="I600" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
@@ -23446,7 +23605,7 @@
         <v>507</v>
       </c>
       <c r="I601" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
@@ -23475,7 +23634,7 @@
         <v>507</v>
       </c>
       <c r="I602" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
@@ -23504,7 +23663,7 @@
         <v>507</v>
       </c>
       <c r="I603" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
@@ -23533,7 +23692,7 @@
         <v>507</v>
       </c>
       <c r="I604" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
@@ -23562,7 +23721,7 @@
         <v>507</v>
       </c>
       <c r="I605" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.2">
@@ -23591,7 +23750,7 @@
         <v>507</v>
       </c>
       <c r="I606" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
@@ -23620,7 +23779,7 @@
         <v>507</v>
       </c>
       <c r="I607" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.2">
@@ -23649,7 +23808,7 @@
         <v>507</v>
       </c>
       <c r="I608" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.2">
@@ -23678,7 +23837,7 @@
         <v>507</v>
       </c>
       <c r="I609" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.2">
@@ -23707,7 +23866,7 @@
         <v>507</v>
       </c>
       <c r="I610" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
@@ -23736,7 +23895,7 @@
         <v>507</v>
       </c>
       <c r="I611" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.2">
@@ -23765,7 +23924,7 @@
         <v>507</v>
       </c>
       <c r="I612" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.2">
@@ -23794,7 +23953,7 @@
         <v>507</v>
       </c>
       <c r="I613" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.2">
@@ -23823,7 +23982,7 @@
         <v>507</v>
       </c>
       <c r="I614" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.2">
@@ -23852,7 +24011,7 @@
         <v>507</v>
       </c>
       <c r="I615" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.2">
@@ -23881,7 +24040,7 @@
         <v>507</v>
       </c>
       <c r="I616" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.2">
@@ -23910,7 +24069,7 @@
         <v>507</v>
       </c>
       <c r="I617" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.2">
@@ -23939,7 +24098,7 @@
         <v>507</v>
       </c>
       <c r="I618" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.2">
@@ -23968,7 +24127,7 @@
         <v>507</v>
       </c>
       <c r="I619" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.2">
@@ -23997,7 +24156,7 @@
         <v>507</v>
       </c>
       <c r="I620" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.2">
@@ -24026,7 +24185,7 @@
         <v>507</v>
       </c>
       <c r="I621" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.2">
@@ -24055,7 +24214,7 @@
         <v>507</v>
       </c>
       <c r="I622" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
@@ -24084,7 +24243,7 @@
         <v>507</v>
       </c>
       <c r="I623" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
@@ -24113,7 +24272,7 @@
         <v>507</v>
       </c>
       <c r="I624" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.2">
@@ -24142,7 +24301,7 @@
         <v>507</v>
       </c>
       <c r="I625" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.2">
@@ -24171,7 +24330,7 @@
         <v>507</v>
       </c>
       <c r="I626" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.2">
@@ -24200,7 +24359,7 @@
         <v>507</v>
       </c>
       <c r="I627" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.2">
@@ -24229,7 +24388,7 @@
         <v>507</v>
       </c>
       <c r="I628" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.2">
@@ -24258,7 +24417,7 @@
         <v>507</v>
       </c>
       <c r="I629" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.2">
@@ -24287,7 +24446,7 @@
         <v>507</v>
       </c>
       <c r="I630" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
@@ -24317,7 +24476,7 @@
         <v>507</v>
       </c>
       <c r="I631" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
@@ -24347,7 +24506,7 @@
         <v>507</v>
       </c>
       <c r="I632" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.2">
@@ -24377,7 +24536,7 @@
         <v>507</v>
       </c>
       <c r="I633" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.2">
@@ -24407,7 +24566,7 @@
         <v>507</v>
       </c>
       <c r="I634" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
@@ -24437,7 +24596,7 @@
         <v>507</v>
       </c>
       <c r="I635" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
@@ -24467,7 +24626,7 @@
         <v>507</v>
       </c>
       <c r="I636" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
@@ -24497,7 +24656,7 @@
         <v>507</v>
       </c>
       <c r="I637" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
@@ -24527,7 +24686,7 @@
         <v>507</v>
       </c>
       <c r="I638" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
@@ -24557,7 +24716,7 @@
         <v>507</v>
       </c>
       <c r="I639" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
@@ -24587,7 +24746,7 @@
         <v>507</v>
       </c>
       <c r="I640" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
@@ -24617,7 +24776,7 @@
         <v>507</v>
       </c>
       <c r="I641" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
@@ -24647,7 +24806,7 @@
         <v>507</v>
       </c>
       <c r="I642" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
@@ -24677,7 +24836,7 @@
         <v>507</v>
       </c>
       <c r="I643" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.2">
@@ -24707,7 +24866,7 @@
         <v>507</v>
       </c>
       <c r="I644" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
@@ -24737,7 +24896,7 @@
         <v>507</v>
       </c>
       <c r="I645" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
@@ -24767,7 +24926,7 @@
         <v>507</v>
       </c>
       <c r="I646" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
@@ -24797,7 +24956,7 @@
         <v>507</v>
       </c>
       <c r="I647" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
@@ -24827,7 +24986,7 @@
         <v>507</v>
       </c>
       <c r="I648" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
@@ -24857,7 +25016,7 @@
         <v>507</v>
       </c>
       <c r="I649" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.2">
@@ -24887,7 +25046,7 @@
         <v>507</v>
       </c>
       <c r="I650" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
@@ -24917,7 +25076,7 @@
         <v>507</v>
       </c>
       <c r="I651" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
@@ -24947,7 +25106,7 @@
         <v>507</v>
       </c>
       <c r="I652" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.2">
@@ -24977,7 +25136,7 @@
         <v>507</v>
       </c>
       <c r="I653" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.2">
@@ -25007,7 +25166,7 @@
         <v>507</v>
       </c>
       <c r="I654" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.2">
@@ -25037,45 +25196,47 @@
         <v>507</v>
       </c>
       <c r="I655" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="B656" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="C656" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D656" t="s">
-        <v>1417</v>
+        <v>880</v>
+      </c>
+      <c r="D656" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="E656" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F656" t="s">
-        <v>1413</v>
+      <c r="F656" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="G656" t="s">
-        <v>1418</v>
+        <v>1527</v>
       </c>
       <c r="H656" t="s">
         <v>507</v>
       </c>
       <c r="I656" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B657" t="s">
-        <v>1419</v>
+        <v>1428</v>
       </c>
       <c r="C657" t="s">
         <v>880</v>
@@ -25093,21 +25254,21 @@
         <v>#N/A</v>
       </c>
       <c r="G657" t="s">
-        <v>1528</v>
+        <v>1420</v>
       </c>
       <c r="H657" t="s">
         <v>507</v>
       </c>
       <c r="I657" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B658" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C658" t="s">
         <v>880</v>
@@ -25125,24 +25286,24 @@
         <v>#N/A</v>
       </c>
       <c r="G658" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H658" t="s">
         <v>507</v>
       </c>
       <c r="I658" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B659" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C659" t="s">
-        <v>880</v>
+        <v>79</v>
       </c>
       <c r="D659" t="e">
         <f>NA()</f>
@@ -25157,13 +25318,13 @@
         <v>#N/A</v>
       </c>
       <c r="G659" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H659" t="s">
         <v>507</v>
       </c>
       <c r="I659" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
@@ -25189,13 +25350,13 @@
         <v>#N/A</v>
       </c>
       <c r="G660" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H660" t="s">
         <v>507</v>
       </c>
       <c r="I660" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
@@ -25203,7 +25364,7 @@
         <v>1426</v>
       </c>
       <c r="B661" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C661" t="s">
         <v>79</v>
@@ -25221,516 +25382,491 @@
         <v>#N/A</v>
       </c>
       <c r="G661" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H661" t="s">
         <v>507</v>
       </c>
       <c r="I661" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1427</v>
+        <v>1486</v>
       </c>
       <c r="B662" t="s">
-        <v>1430</v>
+        <v>1462</v>
       </c>
       <c r="C662" t="s">
-        <v>79</v>
-      </c>
-      <c r="D662" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E662" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F662" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>86</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F662">
+        <v>2013</v>
       </c>
       <c r="G662" t="s">
-        <v>1421</v>
+        <v>1515</v>
       </c>
       <c r="H662" t="s">
         <v>507</v>
       </c>
       <c r="I662" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A663" s="4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B663" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C663" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="D663" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E663" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F663" s="4">
-        <v>1944</v>
-      </c>
-      <c r="G663" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H663" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I663" s="4" t="s">
-        <v>1526</v>
+      <c r="A663" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C663" t="s">
+        <v>86</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F663">
+        <v>2013</v>
+      </c>
+      <c r="G663" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H663" t="s">
+        <v>507</v>
+      </c>
+      <c r="I663" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A664" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B664" s="4" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C664" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="D664" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E664" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F664" s="4">
-        <v>1972</v>
-      </c>
-      <c r="G664" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H664" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I664" s="4" t="s">
-        <v>1526</v>
+      <c r="A664" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C664" t="s">
+        <v>86</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F664">
+        <v>2013</v>
+      </c>
+      <c r="G664" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H664" t="s">
+        <v>507</v>
+      </c>
+      <c r="I664" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A665" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B665" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C665" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="D665" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E665" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F665" s="4">
-        <v>1980</v>
-      </c>
-      <c r="G665" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H665" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I665" s="4" t="s">
-        <v>1526</v>
+      <c r="A665" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C665" t="s">
+        <v>86</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F665">
+        <v>2013</v>
+      </c>
+      <c r="G665" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H665" t="s">
+        <v>507</v>
+      </c>
+      <c r="I665" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A666" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B666" s="4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C666" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="D666" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E666" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F666" s="4">
-        <v>1994</v>
-      </c>
-      <c r="G666" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H666" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I666" s="4" t="s">
-        <v>1526</v>
+      <c r="A666" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C666" t="s">
+        <v>86</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E666" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F666">
+        <v>2013</v>
+      </c>
+      <c r="G666" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H666" t="s">
+        <v>507</v>
+      </c>
+      <c r="I666" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A667" s="4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B667" s="4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C667" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="D667" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E667" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F667" s="4">
-        <v>2001</v>
-      </c>
-      <c r="G667" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H667" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I667" s="4" t="s">
-        <v>1526</v>
+      <c r="A667" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C667" t="s">
+        <v>86</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F667">
+        <v>2013</v>
+      </c>
+      <c r="G667" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H667" t="s">
+        <v>507</v>
+      </c>
+      <c r="I667" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A668" s="4" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B668" s="4" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C668" s="4" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D668" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E668" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F668" s="4">
-        <v>1996</v>
-      </c>
-      <c r="G668" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H668" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I668" s="4" t="s">
-        <v>1526</v>
+      <c r="A668" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C668" t="s">
+        <v>86</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F668">
+        <v>2013</v>
+      </c>
+      <c r="G668" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H668" t="s">
+        <v>507</v>
+      </c>
+      <c r="I668" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A669" s="4" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B669" s="4" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C669" s="4" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D669" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E669" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F669" s="4">
-        <v>1972</v>
-      </c>
-      <c r="G669" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H669" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I669" s="4" t="s">
-        <v>1526</v>
+      <c r="A669" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C669" t="s">
+        <v>86</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F669">
+        <v>2013</v>
+      </c>
+      <c r="G669" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H669" t="s">
+        <v>507</v>
+      </c>
+      <c r="I669" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A670" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B670" s="4" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C670" s="4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D670" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E670" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F670" s="4">
-        <v>1972</v>
-      </c>
-      <c r="G670" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H670" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I670" s="4" t="s">
-        <v>1526</v>
+      <c r="A670" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C670" t="s">
+        <v>86</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F670">
+        <v>2013</v>
+      </c>
+      <c r="G670" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H670" t="s">
+        <v>507</v>
+      </c>
+      <c r="I670" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A671" s="4" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B671" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C671" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D671" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E671" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F671" s="4" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G671" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H671" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I671" s="4" t="s">
-        <v>1526</v>
+      <c r="A671" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C671" t="s">
+        <v>86</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F671">
+        <v>2013</v>
+      </c>
+      <c r="G671" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H671" t="s">
+        <v>507</v>
+      </c>
+      <c r="I671" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A672" s="4" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B672" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C672" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="D672" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E672" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F672" s="4">
-        <v>1980</v>
-      </c>
-      <c r="G672" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H672" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I672" s="4" t="s">
-        <v>1526</v>
+      <c r="A672" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C672" t="s">
+        <v>86</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E672" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F672">
+        <v>2013</v>
+      </c>
+      <c r="G672" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H672" t="s">
+        <v>507</v>
+      </c>
+      <c r="I672" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A673" s="4" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B673" s="4" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C673" s="4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D673" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E673" s="4" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F673" s="4">
-        <v>1953</v>
-      </c>
-      <c r="G673" s="4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H673" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I673" s="4" t="s">
-        <v>1526</v>
+      <c r="A673" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C673" t="s">
+        <v>86</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E673" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F673">
+        <v>2013</v>
+      </c>
+      <c r="G673" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H673" t="s">
+        <v>507</v>
+      </c>
+      <c r="I673" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1487</v>
+        <v>1498</v>
       </c>
       <c r="B674" t="s">
-        <v>1463</v>
+        <v>1474</v>
       </c>
       <c r="C674" t="s">
         <v>86</v>
       </c>
       <c r="D674" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E674" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F674">
         <v>2013</v>
       </c>
       <c r="G674" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H674" t="s">
         <v>507</v>
       </c>
       <c r="I674" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1488</v>
+        <v>1499</v>
       </c>
       <c r="B675" t="s">
-        <v>1464</v>
+        <v>1475</v>
       </c>
       <c r="C675" t="s">
         <v>86</v>
       </c>
       <c r="D675" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E675" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F675">
         <v>2013</v>
       </c>
       <c r="G675" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H675" t="s">
         <v>507</v>
       </c>
       <c r="I675" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1489</v>
+        <v>1500</v>
       </c>
       <c r="B676" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
       <c r="C676" t="s">
         <v>86</v>
       </c>
       <c r="D676" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E676" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F676">
         <v>2013</v>
       </c>
       <c r="G676" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H676" t="s">
         <v>507</v>
       </c>
       <c r="I676" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1490</v>
+        <v>1501</v>
       </c>
       <c r="B677" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="C677" t="s">
         <v>86</v>
       </c>
       <c r="D677" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E677" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F677">
         <v>2013</v>
       </c>
       <c r="G677" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H677" t="s">
         <v>507</v>
       </c>
       <c r="I677" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1491</v>
+        <v>1502</v>
       </c>
       <c r="B678" t="s">
-        <v>1467</v>
+        <v>1478</v>
       </c>
       <c r="C678" t="s">
         <v>86</v>
       </c>
       <c r="D678" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E678" t="s">
         <v>1513</v>
@@ -25739,27 +25875,27 @@
         <v>2013</v>
       </c>
       <c r="G678" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H678" t="s">
         <v>507</v>
       </c>
       <c r="I678" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1492</v>
+        <v>1503</v>
       </c>
       <c r="B679" t="s">
-        <v>1468</v>
+        <v>1479</v>
       </c>
       <c r="C679" t="s">
         <v>86</v>
       </c>
       <c r="D679" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E679" t="s">
         <v>1513</v>
@@ -25768,27 +25904,27 @@
         <v>2013</v>
       </c>
       <c r="G679" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H679" t="s">
         <v>507</v>
       </c>
       <c r="I679" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="B680" t="s">
-        <v>1469</v>
+        <v>1480</v>
       </c>
       <c r="C680" t="s">
         <v>86</v>
       </c>
       <c r="D680" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E680" t="s">
         <v>1513</v>
@@ -25797,511 +25933,1143 @@
         <v>2013</v>
       </c>
       <c r="G680" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H680" t="s">
         <v>507</v>
       </c>
       <c r="I680" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1494</v>
+        <v>1505</v>
       </c>
       <c r="B681" t="s">
-        <v>1470</v>
+        <v>1481</v>
       </c>
       <c r="C681" t="s">
         <v>86</v>
       </c>
       <c r="D681" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E681" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="F681">
         <v>2013</v>
       </c>
       <c r="G681" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H681" t="s">
         <v>507</v>
       </c>
       <c r="I681" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1495</v>
+        <v>1506</v>
       </c>
       <c r="B682" t="s">
-        <v>1471</v>
+        <v>1482</v>
       </c>
       <c r="C682" t="s">
         <v>86</v>
       </c>
       <c r="D682" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E682" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="F682">
         <v>2013</v>
       </c>
       <c r="G682" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H682" t="s">
         <v>507</v>
       </c>
       <c r="I682" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1496</v>
+        <v>1507</v>
       </c>
       <c r="B683" t="s">
-        <v>1472</v>
+        <v>1483</v>
       </c>
       <c r="C683" t="s">
         <v>86</v>
       </c>
       <c r="D683" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E683" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="F683">
         <v>2013</v>
       </c>
       <c r="G683" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H683" t="s">
         <v>507</v>
       </c>
       <c r="I683" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1497</v>
+        <v>1508</v>
       </c>
       <c r="B684" t="s">
-        <v>1473</v>
+        <v>1484</v>
       </c>
       <c r="C684" t="s">
         <v>86</v>
       </c>
       <c r="D684" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E684" t="s">
         <v>1511</v>
-      </c>
-      <c r="E684" t="s">
-        <v>1513</v>
       </c>
       <c r="F684">
         <v>2013</v>
       </c>
       <c r="G684" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H684" t="s">
         <v>507</v>
       </c>
       <c r="I684" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1498</v>
+        <v>1509</v>
       </c>
       <c r="B685" t="s">
-        <v>1474</v>
+        <v>1485</v>
       </c>
       <c r="C685" t="s">
         <v>86</v>
       </c>
       <c r="D685" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E685" t="s">
         <v>1511</v>
-      </c>
-      <c r="E685" t="s">
-        <v>1514</v>
       </c>
       <c r="F685">
         <v>2013</v>
       </c>
       <c r="G685" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H685" t="s">
         <v>507</v>
       </c>
       <c r="I685" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1499</v>
+        <v>1529</v>
       </c>
       <c r="B686" t="s">
-        <v>1475</v>
+        <v>1551</v>
       </c>
       <c r="C686" t="s">
         <v>86</v>
       </c>
-      <c r="D686" t="s">
-        <v>1511</v>
+      <c r="D686" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E686" t="s">
-        <v>1514</v>
+        <v>1549</v>
       </c>
       <c r="F686">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G686" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H686" t="s">
         <v>507</v>
       </c>
       <c r="I686" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1500</v>
+        <v>1530</v>
       </c>
       <c r="B687" t="s">
-        <v>1476</v>
+        <v>1552</v>
       </c>
       <c r="C687" t="s">
         <v>86</v>
       </c>
-      <c r="D687" t="s">
-        <v>1511</v>
+      <c r="D687" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E687" t="s">
-        <v>1514</v>
+        <v>1549</v>
       </c>
       <c r="F687">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G687" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H687" t="s">
         <v>507</v>
       </c>
       <c r="I687" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1501</v>
+        <v>1531</v>
       </c>
       <c r="B688" t="s">
-        <v>1477</v>
+        <v>1553</v>
       </c>
       <c r="C688" t="s">
         <v>86</v>
       </c>
-      <c r="D688" t="s">
-        <v>1511</v>
+      <c r="D688" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E688" t="s">
-        <v>1514</v>
+        <v>1549</v>
       </c>
       <c r="F688">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G688" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H688" t="s">
         <v>507</v>
       </c>
       <c r="I688" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1502</v>
+        <v>1532</v>
       </c>
       <c r="B689" t="s">
-        <v>1478</v>
+        <v>1554</v>
       </c>
       <c r="C689" t="s">
         <v>86</v>
       </c>
-      <c r="D689" t="s">
-        <v>1511</v>
+      <c r="D689" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E689" t="s">
-        <v>1514</v>
+        <v>1549</v>
       </c>
       <c r="F689">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G689" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H689" t="s">
         <v>507</v>
       </c>
       <c r="I689" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1503</v>
+        <v>1533</v>
       </c>
       <c r="B690" t="s">
-        <v>1479</v>
+        <v>1555</v>
       </c>
       <c r="C690" t="s">
         <v>86</v>
       </c>
-      <c r="D690" t="s">
-        <v>1511</v>
+      <c r="D690" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E690" t="s">
-        <v>1514</v>
+        <v>1549</v>
       </c>
       <c r="F690">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G690" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H690" t="s">
         <v>507</v>
       </c>
       <c r="I690" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1504</v>
+        <v>1534</v>
       </c>
       <c r="B691" t="s">
-        <v>1480</v>
+        <v>1556</v>
       </c>
       <c r="C691" t="s">
         <v>86</v>
       </c>
-      <c r="D691" t="s">
-        <v>1511</v>
+      <c r="D691" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E691" t="s">
-        <v>1514</v>
+        <v>1549</v>
       </c>
       <c r="F691">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G691" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H691" t="s">
         <v>507</v>
       </c>
       <c r="I691" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1505</v>
+        <v>1536</v>
       </c>
       <c r="B692" t="s">
-        <v>1481</v>
+        <v>1557</v>
       </c>
       <c r="C692" t="s">
         <v>86</v>
       </c>
-      <c r="D692" t="s">
-        <v>1511</v>
+      <c r="D692" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E692" t="s">
-        <v>1514</v>
+        <v>1549</v>
       </c>
       <c r="F692">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G692" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H692" t="s">
         <v>507</v>
       </c>
       <c r="I692" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1506</v>
+        <v>1535</v>
       </c>
       <c r="B693" t="s">
-        <v>1482</v>
+        <v>1558</v>
       </c>
       <c r="C693" t="s">
         <v>86</v>
       </c>
-      <c r="D693" t="s">
-        <v>1511</v>
+      <c r="D693" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E693" t="s">
-        <v>1515</v>
+        <v>1549</v>
       </c>
       <c r="F693">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G693" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H693" t="s">
         <v>507</v>
       </c>
       <c r="I693" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1507</v>
+        <v>1537</v>
       </c>
       <c r="B694" t="s">
-        <v>1483</v>
+        <v>1559</v>
       </c>
       <c r="C694" t="s">
         <v>86</v>
       </c>
-      <c r="D694" t="s">
-        <v>1511</v>
+      <c r="D694" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E694" t="s">
-        <v>1515</v>
+        <v>1549</v>
       </c>
       <c r="F694">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G694" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H694" t="s">
         <v>507</v>
       </c>
       <c r="I694" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1508</v>
+        <v>1538</v>
       </c>
       <c r="B695" t="s">
-        <v>1484</v>
+        <v>1560</v>
       </c>
       <c r="C695" t="s">
         <v>86</v>
       </c>
-      <c r="D695" t="s">
-        <v>1511</v>
+      <c r="D695" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E695" t="s">
-        <v>1515</v>
+        <v>1549</v>
       </c>
       <c r="F695">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G695" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H695" t="s">
         <v>507</v>
       </c>
       <c r="I695" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1509</v>
+        <v>1539</v>
       </c>
       <c r="B696" t="s">
-        <v>1485</v>
+        <v>1561</v>
       </c>
       <c r="C696" t="s">
         <v>86</v>
       </c>
-      <c r="D696" t="s">
-        <v>1511</v>
+      <c r="D696" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E696" t="s">
-        <v>1512</v>
+        <v>1549</v>
       </c>
       <c r="F696">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G696" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H696" t="s">
         <v>507</v>
       </c>
       <c r="I696" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1510</v>
+        <v>1540</v>
       </c>
       <c r="B697" t="s">
-        <v>1486</v>
+        <v>1562</v>
       </c>
       <c r="C697" t="s">
         <v>86</v>
       </c>
-      <c r="D697" t="s">
-        <v>1511</v>
+      <c r="D697" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E697" t="s">
-        <v>1512</v>
+        <v>1549</v>
       </c>
       <c r="F697">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G697" t="s">
-        <v>1516</v>
+        <v>1550</v>
       </c>
       <c r="H697" t="s">
         <v>507</v>
       </c>
       <c r="I697" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C698" t="s">
+        <v>86</v>
+      </c>
+      <c r="D698" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E698" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F698">
+        <v>2016</v>
+      </c>
+      <c r="G698" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H698" t="s">
+        <v>507</v>
+      </c>
+      <c r="I698" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C699" t="s">
+        <v>86</v>
+      </c>
+      <c r="D699" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F699">
+        <v>2016</v>
+      </c>
+      <c r="G699" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H699" t="s">
+        <v>507</v>
+      </c>
+      <c r="I699" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C700" t="s">
+        <v>86</v>
+      </c>
+      <c r="D700" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F700">
+        <v>2016</v>
+      </c>
+      <c r="G700" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H700" t="s">
+        <v>507</v>
+      </c>
+      <c r="I700" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C701" t="s">
+        <v>86</v>
+      </c>
+      <c r="D701" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E701" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F701">
+        <v>2016</v>
+      </c>
+      <c r="G701" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H701" t="s">
+        <v>507</v>
+      </c>
+      <c r="I701" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C702" t="s">
+        <v>86</v>
+      </c>
+      <c r="D702" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F702">
+        <v>2016</v>
+      </c>
+      <c r="G702" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H702" t="s">
+        <v>507</v>
+      </c>
+      <c r="I702" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C703" t="s">
+        <v>86</v>
+      </c>
+      <c r="D703" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E703" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F703">
+        <v>2016</v>
+      </c>
+      <c r="G703" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H703" t="s">
+        <v>507</v>
+      </c>
+      <c r="I703" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C704" t="s">
+        <v>86</v>
+      </c>
+      <c r="D704" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E704" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F704">
+        <v>2016</v>
+      </c>
+      <c r="G704" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H704" t="s">
+        <v>507</v>
+      </c>
+      <c r="I704" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C705" t="s">
+        <v>86</v>
+      </c>
+      <c r="D705" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F705">
+        <v>2016</v>
+      </c>
+      <c r="G705" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H705" t="s">
+        <v>507</v>
+      </c>
+      <c r="I705" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A706" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="D706" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E706" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F706" s="5">
+        <v>1944</v>
+      </c>
+      <c r="G706" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H706" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I706" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A707" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B707" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D707" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E707" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F707" s="5">
+        <v>1972</v>
+      </c>
+      <c r="G707" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H707" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I707" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A708" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B708" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D708" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E708" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F708" s="5">
+        <v>1980</v>
+      </c>
+      <c r="G708" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H708" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I708" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A709" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B709" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C709" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D709" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E709" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F709" s="5">
+        <v>1994</v>
+      </c>
+      <c r="G709" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H709" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I709" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A710" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D710" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E710" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F710" s="5">
+        <v>2001</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H710" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I710" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A711" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C711" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D711" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E711" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F711" s="5">
+        <v>1996</v>
+      </c>
+      <c r="G711" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H711" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I711" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A712" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D712" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E712" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F712" s="5">
+        <v>1972</v>
+      </c>
+      <c r="G712" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H712" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I712" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A713" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C713" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D713" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E713" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F713" s="5">
+        <v>1972</v>
+      </c>
+      <c r="G713" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H713" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I713" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A714" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D714" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E714" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F714" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G714" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H714" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I714" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A715" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C715" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="D715" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E715" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F715" s="5">
+        <v>1980</v>
+      </c>
+      <c r="G715" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H715" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I715" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A716" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D716" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E716" s="5" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F716" s="5">
+        <v>1953</v>
+      </c>
+      <c r="G716" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H716" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I716" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C717" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D717" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E717" s="6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F717" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G717" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H717" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="I717" s="6" t="s">
         <v>1524</v>
       </c>
     </row>
+    <row r="718" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C718" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D718" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E718" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F718" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G718" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H718" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I718" s="7" t="s">
+        <v>1525</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:H656">
-    <sortCondition ref="A2:A656"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H655">
+    <sortCondition ref="A2:A655"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAF9D7F-4AC2-4046-ADDE-E2F24472312C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFD208-4F1C-F640-A1E2-5D0532CEE46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="16800" windowHeight="20480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5402" uniqueCount="1576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="1576">
   <si>
     <t>Kudat</t>
   </si>
@@ -4269,9 +4269,6 @@
     <t>1942-1944</t>
   </si>
   <si>
-    <t>vivax-definitiu-310316</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
@@ -4753,6 +4750,9 @@
   </si>
   <si>
     <t>IN_Macaque</t>
+  </si>
+  <si>
+    <t>Ebro1944</t>
   </si>
 </sst>
 </file>
@@ -5982,8 +5982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A698" workbookViewId="0">
-      <selection activeCell="E738" sqref="E738"/>
+    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
+      <selection activeCell="E718" sqref="E718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6024,7 +6024,7 @@
         <v>509</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6053,7 +6053,7 @@
         <v>507</v>
       </c>
       <c r="I2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6082,7 +6082,7 @@
         <v>507</v>
       </c>
       <c r="I3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>507</v>
       </c>
       <c r="I4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6140,7 +6140,7 @@
         <v>507</v>
       </c>
       <c r="I5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6169,7 +6169,7 @@
         <v>507</v>
       </c>
       <c r="I6" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
         <v>507</v>
       </c>
       <c r="I7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6227,7 +6227,7 @@
         <v>507</v>
       </c>
       <c r="I8" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6256,7 +6256,7 @@
         <v>507</v>
       </c>
       <c r="I9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6285,7 +6285,7 @@
         <v>507</v>
       </c>
       <c r="I10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6314,7 +6314,7 @@
         <v>507</v>
       </c>
       <c r="I11" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>507</v>
       </c>
       <c r="I12" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6372,7 +6372,7 @@
         <v>507</v>
       </c>
       <c r="I13" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6401,7 +6401,7 @@
         <v>507</v>
       </c>
       <c r="I14" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6430,7 +6430,7 @@
         <v>507</v>
       </c>
       <c r="I15" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6459,7 +6459,7 @@
         <v>507</v>
       </c>
       <c r="I16" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6488,7 +6488,7 @@
         <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6517,7 +6517,7 @@
         <v>507</v>
       </c>
       <c r="I18" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6546,7 +6546,7 @@
         <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6575,7 +6575,7 @@
         <v>507</v>
       </c>
       <c r="I20" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6604,7 +6604,7 @@
         <v>507</v>
       </c>
       <c r="I21" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
         <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6662,7 +6662,7 @@
         <v>507</v>
       </c>
       <c r="I23" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6691,7 +6691,7 @@
         <v>507</v>
       </c>
       <c r="I24" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6720,7 +6720,7 @@
         <v>507</v>
       </c>
       <c r="I25" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6749,7 +6749,7 @@
         <v>507</v>
       </c>
       <c r="I26" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6778,7 +6778,7 @@
         <v>507</v>
       </c>
       <c r="I27" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6836,7 +6836,7 @@
         <v>507</v>
       </c>
       <c r="I29" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6865,7 +6865,7 @@
         <v>507</v>
       </c>
       <c r="I30" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6891,7 +6891,7 @@
         <v>508</v>
       </c>
       <c r="I31" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6920,7 +6920,7 @@
         <v>508</v>
       </c>
       <c r="I32" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6949,7 +6949,7 @@
         <v>508</v>
       </c>
       <c r="I33" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -6978,7 +6978,7 @@
         <v>508</v>
       </c>
       <c r="I34" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>508</v>
       </c>
       <c r="I35" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7036,7 +7036,7 @@
         <v>510</v>
       </c>
       <c r="I36" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
         <v>507</v>
       </c>
       <c r="I37" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -7088,13 +7088,13 @@
         <v>2015</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H38" t="s">
         <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -7117,13 +7117,13 @@
         <v>2015</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H39" t="s">
         <v>507</v>
       </c>
       <c r="I39" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -7146,13 +7146,13 @@
         <v>2015</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H40" t="s">
         <v>507</v>
       </c>
       <c r="I40" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7175,13 +7175,13 @@
         <v>2015</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H41" t="s">
         <v>507</v>
       </c>
       <c r="I41" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7204,13 +7204,13 @@
         <v>2015</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H42" t="s">
         <v>507</v>
       </c>
       <c r="I42" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7239,7 +7239,7 @@
         <v>507</v>
       </c>
       <c r="I43" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7268,7 +7268,7 @@
         <v>507</v>
       </c>
       <c r="I44" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7297,7 +7297,7 @@
         <v>507</v>
       </c>
       <c r="I45" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>507</v>
       </c>
       <c r="I46" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7355,7 +7355,7 @@
         <v>507</v>
       </c>
       <c r="I47" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7384,7 +7384,7 @@
         <v>507</v>
       </c>
       <c r="I48" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7413,7 +7413,7 @@
         <v>507</v>
       </c>
       <c r="I49" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7442,7 +7442,7 @@
         <v>507</v>
       </c>
       <c r="I50" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7471,7 +7471,7 @@
         <v>507</v>
       </c>
       <c r="I51" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7500,7 +7500,7 @@
         <v>507</v>
       </c>
       <c r="I52" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7529,7 +7529,7 @@
         <v>507</v>
       </c>
       <c r="I53" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7558,7 +7558,7 @@
         <v>507</v>
       </c>
       <c r="I54" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7587,7 +7587,7 @@
         <v>507</v>
       </c>
       <c r="I55" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7616,7 +7616,7 @@
         <v>507</v>
       </c>
       <c r="I56" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7645,7 +7645,7 @@
         <v>507</v>
       </c>
       <c r="I57" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -7674,7 +7674,7 @@
         <v>507</v>
       </c>
       <c r="I58" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -7703,7 +7703,7 @@
         <v>507</v>
       </c>
       <c r="I59" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -7732,7 +7732,7 @@
         <v>507</v>
       </c>
       <c r="I60" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -7761,7 +7761,7 @@
         <v>507</v>
       </c>
       <c r="I61" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -7790,7 +7790,7 @@
         <v>507</v>
       </c>
       <c r="I62" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -7819,7 +7819,7 @@
         <v>507</v>
       </c>
       <c r="I63" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -7848,7 +7848,7 @@
         <v>507</v>
       </c>
       <c r="I64" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -7877,7 +7877,7 @@
         <v>507</v>
       </c>
       <c r="I65" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -7906,7 +7906,7 @@
         <v>507</v>
       </c>
       <c r="I66" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -7935,7 +7935,7 @@
         <v>507</v>
       </c>
       <c r="I67" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -7964,7 +7964,7 @@
         <v>507</v>
       </c>
       <c r="I68" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -7993,7 +7993,7 @@
         <v>507</v>
       </c>
       <c r="I69" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
         <v>507</v>
       </c>
       <c r="I70" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -8051,7 +8051,7 @@
         <v>507</v>
       </c>
       <c r="I71" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -8080,7 +8080,7 @@
         <v>507</v>
       </c>
       <c r="I72" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -8109,7 +8109,7 @@
         <v>508</v>
       </c>
       <c r="I73" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -8138,7 +8138,7 @@
         <v>508</v>
       </c>
       <c r="I74" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -8167,7 +8167,7 @@
         <v>508</v>
       </c>
       <c r="I75" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -8196,7 +8196,7 @@
         <v>508</v>
       </c>
       <c r="I76" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -8225,7 +8225,7 @@
         <v>508</v>
       </c>
       <c r="I77" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -8254,7 +8254,7 @@
         <v>508</v>
       </c>
       <c r="I78" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -8283,7 +8283,7 @@
         <v>508</v>
       </c>
       <c r="I79" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -8312,7 +8312,7 @@
         <v>508</v>
       </c>
       <c r="I80" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -8341,7 +8341,7 @@
         <v>511</v>
       </c>
       <c r="I81" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -8370,7 +8370,7 @@
         <v>508</v>
       </c>
       <c r="I82" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -8399,7 +8399,7 @@
         <v>508</v>
       </c>
       <c r="I83" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -8430,7 +8430,7 @@
         <v>507</v>
       </c>
       <c r="I84" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -8459,7 +8459,7 @@
         <v>507</v>
       </c>
       <c r="I85" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -8488,7 +8488,7 @@
         <v>507</v>
       </c>
       <c r="I86" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -8517,7 +8517,7 @@
         <v>507</v>
       </c>
       <c r="I87" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -8546,7 +8546,7 @@
         <v>507</v>
       </c>
       <c r="I88" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -8575,7 +8575,7 @@
         <v>507</v>
       </c>
       <c r="I89" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -8604,7 +8604,7 @@
         <v>507</v>
       </c>
       <c r="I90" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -8633,7 +8633,7 @@
         <v>507</v>
       </c>
       <c r="I91" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -8662,7 +8662,7 @@
         <v>507</v>
       </c>
       <c r="I92" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -8691,7 +8691,7 @@
         <v>507</v>
       </c>
       <c r="I93" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -8720,7 +8720,7 @@
         <v>507</v>
       </c>
       <c r="I94" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -8749,7 +8749,7 @@
         <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -8778,7 +8778,7 @@
         <v>507</v>
       </c>
       <c r="I96" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -8807,7 +8807,7 @@
         <v>507</v>
       </c>
       <c r="I97" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -8836,7 +8836,7 @@
         <v>507</v>
       </c>
       <c r="I98" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -8865,7 +8865,7 @@
         <v>507</v>
       </c>
       <c r="I99" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -8894,7 +8894,7 @@
         <v>507</v>
       </c>
       <c r="I100" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -8923,7 +8923,7 @@
         <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
         <v>507</v>
       </c>
       <c r="I102" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -8981,7 +8981,7 @@
         <v>507</v>
       </c>
       <c r="I103" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -9010,7 +9010,7 @@
         <v>507</v>
       </c>
       <c r="I104" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -9039,7 +9039,7 @@
         <v>507</v>
       </c>
       <c r="I105" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -9068,7 +9068,7 @@
         <v>507</v>
       </c>
       <c r="I106" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -9097,7 +9097,7 @@
         <v>507</v>
       </c>
       <c r="I107" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -9126,7 +9126,7 @@
         <v>507</v>
       </c>
       <c r="I108" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -9155,7 +9155,7 @@
         <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -9184,7 +9184,7 @@
         <v>507</v>
       </c>
       <c r="I110" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -9213,7 +9213,7 @@
         <v>507</v>
       </c>
       <c r="I111" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -9242,7 +9242,7 @@
         <v>507</v>
       </c>
       <c r="I112" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -9271,7 +9271,7 @@
         <v>507</v>
       </c>
       <c r="I113" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -9300,7 +9300,7 @@
         <v>507</v>
       </c>
       <c r="I114" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -9329,7 +9329,7 @@
         <v>507</v>
       </c>
       <c r="I115" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
         <v>507</v>
       </c>
       <c r="I116" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -9387,7 +9387,7 @@
         <v>507</v>
       </c>
       <c r="I117" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -9416,7 +9416,7 @@
         <v>507</v>
       </c>
       <c r="I118" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -9445,7 +9445,7 @@
         <v>507</v>
       </c>
       <c r="I119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -9474,7 +9474,7 @@
         <v>507</v>
       </c>
       <c r="I120" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -9503,7 +9503,7 @@
         <v>507</v>
       </c>
       <c r="I121" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -9532,7 +9532,7 @@
         <v>507</v>
       </c>
       <c r="I122" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -9561,7 +9561,7 @@
         <v>507</v>
       </c>
       <c r="I123" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -9590,7 +9590,7 @@
         <v>507</v>
       </c>
       <c r="I124" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -9619,7 +9619,7 @@
         <v>507</v>
       </c>
       <c r="I125" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -9648,7 +9648,7 @@
         <v>507</v>
       </c>
       <c r="I126" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -9677,7 +9677,7 @@
         <v>507</v>
       </c>
       <c r="I127" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -9706,7 +9706,7 @@
         <v>507</v>
       </c>
       <c r="I128" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -9735,7 +9735,7 @@
         <v>507</v>
       </c>
       <c r="I129" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -9764,7 +9764,7 @@
         <v>507</v>
       </c>
       <c r="I130" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -9793,7 +9793,7 @@
         <v>507</v>
       </c>
       <c r="I131" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -9822,7 +9822,7 @@
         <v>507</v>
       </c>
       <c r="I132" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -9851,7 +9851,7 @@
         <v>507</v>
       </c>
       <c r="I133" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -9880,7 +9880,7 @@
         <v>507</v>
       </c>
       <c r="I134" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -9909,7 +9909,7 @@
         <v>507</v>
       </c>
       <c r="I135" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -9938,7 +9938,7 @@
         <v>507</v>
       </c>
       <c r="I136" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -9967,7 +9967,7 @@
         <v>507</v>
       </c>
       <c r="I137" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -9996,7 +9996,7 @@
         <v>507</v>
       </c>
       <c r="I138" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -10025,7 +10025,7 @@
         <v>507</v>
       </c>
       <c r="I139" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -10054,7 +10054,7 @@
         <v>507</v>
       </c>
       <c r="I140" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -10083,7 +10083,7 @@
         <v>507</v>
       </c>
       <c r="I141" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -10112,7 +10112,7 @@
         <v>507</v>
       </c>
       <c r="I142" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -10141,7 +10141,7 @@
         <v>507</v>
       </c>
       <c r="I143" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -10170,7 +10170,7 @@
         <v>507</v>
       </c>
       <c r="I144" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -10199,7 +10199,7 @@
         <v>507</v>
       </c>
       <c r="I145" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -10228,7 +10228,7 @@
         <v>507</v>
       </c>
       <c r="I146" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -10257,7 +10257,7 @@
         <v>507</v>
       </c>
       <c r="I147" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -10286,7 +10286,7 @@
         <v>507</v>
       </c>
       <c r="I148" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -10315,7 +10315,7 @@
         <v>507</v>
       </c>
       <c r="I149" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -10344,7 +10344,7 @@
         <v>507</v>
       </c>
       <c r="I150" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -10373,7 +10373,7 @@
         <v>507</v>
       </c>
       <c r="I151" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -10402,7 +10402,7 @@
         <v>507</v>
       </c>
       <c r="I152" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -10431,7 +10431,7 @@
         <v>507</v>
       </c>
       <c r="I153" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -10460,7 +10460,7 @@
         <v>507</v>
       </c>
       <c r="I154" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -10489,7 +10489,7 @@
         <v>507</v>
       </c>
       <c r="I155" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -10518,7 +10518,7 @@
         <v>507</v>
       </c>
       <c r="I156" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -10547,7 +10547,7 @@
         <v>507</v>
       </c>
       <c r="I157" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -10576,7 +10576,7 @@
         <v>507</v>
       </c>
       <c r="I158" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -10605,7 +10605,7 @@
         <v>507</v>
       </c>
       <c r="I159" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -10634,7 +10634,7 @@
         <v>507</v>
       </c>
       <c r="I160" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -10663,7 +10663,7 @@
         <v>507</v>
       </c>
       <c r="I161" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -10692,7 +10692,7 @@
         <v>507</v>
       </c>
       <c r="I162" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -10721,7 +10721,7 @@
         <v>507</v>
       </c>
       <c r="I163" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -10750,7 +10750,7 @@
         <v>507</v>
       </c>
       <c r="I164" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -10779,7 +10779,7 @@
         <v>507</v>
       </c>
       <c r="I165" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -10808,7 +10808,7 @@
         <v>507</v>
       </c>
       <c r="I166" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -10837,7 +10837,7 @@
         <v>507</v>
       </c>
       <c r="I167" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -10866,7 +10866,7 @@
         <v>507</v>
       </c>
       <c r="I168" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -10895,7 +10895,7 @@
         <v>507</v>
       </c>
       <c r="I169" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -10924,7 +10924,7 @@
         <v>507</v>
       </c>
       <c r="I170" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -10953,7 +10953,7 @@
         <v>507</v>
       </c>
       <c r="I171" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -10982,7 +10982,7 @@
         <v>507</v>
       </c>
       <c r="I172" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -11011,7 +11011,7 @@
         <v>507</v>
       </c>
       <c r="I173" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -11040,7 +11040,7 @@
         <v>507</v>
       </c>
       <c r="I174" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -11069,7 +11069,7 @@
         <v>507</v>
       </c>
       <c r="I175" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -11098,7 +11098,7 @@
         <v>507</v>
       </c>
       <c r="I176" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -11127,7 +11127,7 @@
         <v>507</v>
       </c>
       <c r="I177" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -11156,7 +11156,7 @@
         <v>507</v>
       </c>
       <c r="I178" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -11185,7 +11185,7 @@
         <v>507</v>
       </c>
       <c r="I179" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -11214,7 +11214,7 @@
         <v>507</v>
       </c>
       <c r="I180" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -11243,7 +11243,7 @@
         <v>507</v>
       </c>
       <c r="I181" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -11272,7 +11272,7 @@
         <v>507</v>
       </c>
       <c r="I182" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -11301,7 +11301,7 @@
         <v>507</v>
       </c>
       <c r="I183" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -11330,7 +11330,7 @@
         <v>507</v>
       </c>
       <c r="I184" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -11359,7 +11359,7 @@
         <v>507</v>
       </c>
       <c r="I185" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -11388,7 +11388,7 @@
         <v>507</v>
       </c>
       <c r="I186" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -11417,7 +11417,7 @@
         <v>507</v>
       </c>
       <c r="I187" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -11446,7 +11446,7 @@
         <v>507</v>
       </c>
       <c r="I188" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -11475,7 +11475,7 @@
         <v>507</v>
       </c>
       <c r="I189" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
         <v>507</v>
       </c>
       <c r="I190" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -11533,7 +11533,7 @@
         <v>507</v>
       </c>
       <c r="I191" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -11562,7 +11562,7 @@
         <v>507</v>
       </c>
       <c r="I192" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -11591,7 +11591,7 @@
         <v>507</v>
       </c>
       <c r="I193" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -11620,7 +11620,7 @@
         <v>507</v>
       </c>
       <c r="I194" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -11649,7 +11649,7 @@
         <v>507</v>
       </c>
       <c r="I195" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -11678,7 +11678,7 @@
         <v>507</v>
       </c>
       <c r="I196" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -11707,7 +11707,7 @@
         <v>507</v>
       </c>
       <c r="I197" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -11736,7 +11736,7 @@
         <v>507</v>
       </c>
       <c r="I198" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -11765,7 +11765,7 @@
         <v>507</v>
       </c>
       <c r="I199" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -11794,7 +11794,7 @@
         <v>507</v>
       </c>
       <c r="I200" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -11823,7 +11823,7 @@
         <v>507</v>
       </c>
       <c r="I201" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -11852,7 +11852,7 @@
         <v>507</v>
       </c>
       <c r="I202" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -11881,7 +11881,7 @@
         <v>507</v>
       </c>
       <c r="I203" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -11910,7 +11910,7 @@
         <v>507</v>
       </c>
       <c r="I204" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -11939,7 +11939,7 @@
         <v>507</v>
       </c>
       <c r="I205" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -11968,7 +11968,7 @@
         <v>507</v>
       </c>
       <c r="I206" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -11997,7 +11997,7 @@
         <v>507</v>
       </c>
       <c r="I207" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -12026,7 +12026,7 @@
         <v>507</v>
       </c>
       <c r="I208" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -12055,7 +12055,7 @@
         <v>507</v>
       </c>
       <c r="I209" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -12084,7 +12084,7 @@
         <v>507</v>
       </c>
       <c r="I210" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -12113,7 +12113,7 @@
         <v>507</v>
       </c>
       <c r="I211" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -12142,7 +12142,7 @@
         <v>507</v>
       </c>
       <c r="I212" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -12171,7 +12171,7 @@
         <v>507</v>
       </c>
       <c r="I213" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -12200,7 +12200,7 @@
         <v>507</v>
       </c>
       <c r="I214" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -12229,7 +12229,7 @@
         <v>507</v>
       </c>
       <c r="I215" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -12258,7 +12258,7 @@
         <v>507</v>
       </c>
       <c r="I216" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -12287,7 +12287,7 @@
         <v>507</v>
       </c>
       <c r="I217" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -12316,7 +12316,7 @@
         <v>507</v>
       </c>
       <c r="I218" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
         <v>507</v>
       </c>
       <c r="I219" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -12374,7 +12374,7 @@
         <v>507</v>
       </c>
       <c r="I220" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -12403,7 +12403,7 @@
         <v>507</v>
       </c>
       <c r="I221" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -12432,7 +12432,7 @@
         <v>507</v>
       </c>
       <c r="I222" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -12461,7 +12461,7 @@
         <v>507</v>
       </c>
       <c r="I223" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -12490,7 +12490,7 @@
         <v>507</v>
       </c>
       <c r="I224" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -12519,7 +12519,7 @@
         <v>507</v>
       </c>
       <c r="I225" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -12548,7 +12548,7 @@
         <v>507</v>
       </c>
       <c r="I226" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -12577,7 +12577,7 @@
         <v>507</v>
       </c>
       <c r="I227" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -12606,7 +12606,7 @@
         <v>507</v>
       </c>
       <c r="I228" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -12635,7 +12635,7 @@
         <v>507</v>
       </c>
       <c r="I229" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -12664,7 +12664,7 @@
         <v>507</v>
       </c>
       <c r="I230" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -12693,7 +12693,7 @@
         <v>507</v>
       </c>
       <c r="I231" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -12722,7 +12722,7 @@
         <v>507</v>
       </c>
       <c r="I232" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -12751,7 +12751,7 @@
         <v>507</v>
       </c>
       <c r="I233" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -12780,7 +12780,7 @@
         <v>507</v>
       </c>
       <c r="I234" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>507</v>
       </c>
       <c r="I235" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -12838,7 +12838,7 @@
         <v>507</v>
       </c>
       <c r="I236" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -12867,7 +12867,7 @@
         <v>507</v>
       </c>
       <c r="I237" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -12896,7 +12896,7 @@
         <v>507</v>
       </c>
       <c r="I238" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -12925,7 +12925,7 @@
         <v>507</v>
       </c>
       <c r="I239" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -12954,7 +12954,7 @@
         <v>507</v>
       </c>
       <c r="I240" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -12983,7 +12983,7 @@
         <v>507</v>
       </c>
       <c r="I241" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -13012,7 +13012,7 @@
         <v>507</v>
       </c>
       <c r="I242" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -13041,7 +13041,7 @@
         <v>507</v>
       </c>
       <c r="I243" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -13070,7 +13070,7 @@
         <v>507</v>
       </c>
       <c r="I244" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -13099,7 +13099,7 @@
         <v>507</v>
       </c>
       <c r="I245" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>507</v>
       </c>
       <c r="I246" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -13157,7 +13157,7 @@
         <v>507</v>
       </c>
       <c r="I247" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -13186,7 +13186,7 @@
         <v>507</v>
       </c>
       <c r="I248" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -13215,7 +13215,7 @@
         <v>507</v>
       </c>
       <c r="I249" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -13244,7 +13244,7 @@
         <v>507</v>
       </c>
       <c r="I250" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -13273,7 +13273,7 @@
         <v>507</v>
       </c>
       <c r="I251" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -13303,7 +13303,7 @@
         <v>507</v>
       </c>
       <c r="I252" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -13333,7 +13333,7 @@
         <v>507</v>
       </c>
       <c r="I253" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -13363,7 +13363,7 @@
         <v>507</v>
       </c>
       <c r="I254" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -13393,7 +13393,7 @@
         <v>507</v>
       </c>
       <c r="I255" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -13423,7 +13423,7 @@
         <v>507</v>
       </c>
       <c r="I256" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -13453,7 +13453,7 @@
         <v>507</v>
       </c>
       <c r="I257" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -13483,7 +13483,7 @@
         <v>507</v>
       </c>
       <c r="I258" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -13513,7 +13513,7 @@
         <v>507</v>
       </c>
       <c r="I259" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -13543,7 +13543,7 @@
         <v>507</v>
       </c>
       <c r="I260" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -13573,7 +13573,7 @@
         <v>507</v>
       </c>
       <c r="I261" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -13603,7 +13603,7 @@
         <v>507</v>
       </c>
       <c r="I262" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -13633,7 +13633,7 @@
         <v>507</v>
       </c>
       <c r="I263" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -13663,7 +13663,7 @@
         <v>507</v>
       </c>
       <c r="I264" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -13693,7 +13693,7 @@
         <v>507</v>
       </c>
       <c r="I265" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -13723,7 +13723,7 @@
         <v>507</v>
       </c>
       <c r="I266" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -13753,7 +13753,7 @@
         <v>507</v>
       </c>
       <c r="I267" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -13783,7 +13783,7 @@
         <v>507</v>
       </c>
       <c r="I268" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -13813,7 +13813,7 @@
         <v>507</v>
       </c>
       <c r="I269" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -13843,7 +13843,7 @@
         <v>507</v>
       </c>
       <c r="I270" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -13873,7 +13873,7 @@
         <v>507</v>
       </c>
       <c r="I271" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -13903,7 +13903,7 @@
         <v>507</v>
       </c>
       <c r="I272" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -13933,7 +13933,7 @@
         <v>507</v>
       </c>
       <c r="I273" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -13963,7 +13963,7 @@
         <v>507</v>
       </c>
       <c r="I274" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -13993,7 +13993,7 @@
         <v>507</v>
       </c>
       <c r="I275" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -14023,7 +14023,7 @@
         <v>507</v>
       </c>
       <c r="I276" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -14053,7 +14053,7 @@
         <v>507</v>
       </c>
       <c r="I277" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -14083,7 +14083,7 @@
         <v>507</v>
       </c>
       <c r="I278" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -14113,7 +14113,7 @@
         <v>507</v>
       </c>
       <c r="I279" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -14143,7 +14143,7 @@
         <v>507</v>
       </c>
       <c r="I280" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -14173,7 +14173,7 @@
         <v>507</v>
       </c>
       <c r="I281" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -14203,7 +14203,7 @@
         <v>507</v>
       </c>
       <c r="I282" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -14233,7 +14233,7 @@
         <v>507</v>
       </c>
       <c r="I283" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -14263,7 +14263,7 @@
         <v>507</v>
       </c>
       <c r="I284" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -14293,7 +14293,7 @@
         <v>507</v>
       </c>
       <c r="I285" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -14323,7 +14323,7 @@
         <v>507</v>
       </c>
       <c r="I286" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -14353,7 +14353,7 @@
         <v>507</v>
       </c>
       <c r="I287" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -14383,7 +14383,7 @@
         <v>507</v>
       </c>
       <c r="I288" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -14413,7 +14413,7 @@
         <v>507</v>
       </c>
       <c r="I289" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -14443,7 +14443,7 @@
         <v>507</v>
       </c>
       <c r="I290" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -14473,7 +14473,7 @@
         <v>507</v>
       </c>
       <c r="I291" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -14503,7 +14503,7 @@
         <v>507</v>
       </c>
       <c r="I292" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -14533,7 +14533,7 @@
         <v>507</v>
       </c>
       <c r="I293" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -14563,7 +14563,7 @@
         <v>507</v>
       </c>
       <c r="I294" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -14593,7 +14593,7 @@
         <v>507</v>
       </c>
       <c r="I295" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -14622,7 +14622,7 @@
         <v>507</v>
       </c>
       <c r="I296" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -14652,7 +14652,7 @@
         <v>507</v>
       </c>
       <c r="I297" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -14682,7 +14682,7 @@
         <v>507</v>
       </c>
       <c r="I298" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -14712,7 +14712,7 @@
         <v>507</v>
       </c>
       <c r="I299" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -14742,7 +14742,7 @@
         <v>507</v>
       </c>
       <c r="I300" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -14771,7 +14771,7 @@
         <v>507</v>
       </c>
       <c r="I301" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -14800,7 +14800,7 @@
         <v>507</v>
       </c>
       <c r="I302" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -14830,7 +14830,7 @@
         <v>507</v>
       </c>
       <c r="I303" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -14860,7 +14860,7 @@
         <v>507</v>
       </c>
       <c r="I304" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -14890,7 +14890,7 @@
         <v>507</v>
       </c>
       <c r="I305" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -14920,7 +14920,7 @@
         <v>507</v>
       </c>
       <c r="I306" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -14950,7 +14950,7 @@
         <v>507</v>
       </c>
       <c r="I307" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -14980,7 +14980,7 @@
         <v>507</v>
       </c>
       <c r="I308" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -15010,7 +15010,7 @@
         <v>507</v>
       </c>
       <c r="I309" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -15040,7 +15040,7 @@
         <v>507</v>
       </c>
       <c r="I310" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -15069,7 +15069,7 @@
         <v>507</v>
       </c>
       <c r="I311" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -15099,7 +15099,7 @@
         <v>507</v>
       </c>
       <c r="I312" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -15129,7 +15129,7 @@
         <v>507</v>
       </c>
       <c r="I313" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -15159,7 +15159,7 @@
         <v>507</v>
       </c>
       <c r="I314" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -15189,7 +15189,7 @@
         <v>507</v>
       </c>
       <c r="I315" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -15218,7 +15218,7 @@
         <v>507</v>
       </c>
       <c r="I316" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -15247,7 +15247,7 @@
         <v>507</v>
       </c>
       <c r="I317" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -15277,7 +15277,7 @@
         <v>507</v>
       </c>
       <c r="I318" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -15307,7 +15307,7 @@
         <v>507</v>
       </c>
       <c r="I319" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -15337,7 +15337,7 @@
         <v>507</v>
       </c>
       <c r="I320" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
@@ -15367,7 +15367,7 @@
         <v>507</v>
       </c>
       <c r="I321" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
@@ -15397,7 +15397,7 @@
         <v>507</v>
       </c>
       <c r="I322" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -15427,7 +15427,7 @@
         <v>507</v>
       </c>
       <c r="I323" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -15457,7 +15457,7 @@
         <v>507</v>
       </c>
       <c r="I324" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
@@ -15487,7 +15487,7 @@
         <v>507</v>
       </c>
       <c r="I325" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -15517,7 +15517,7 @@
         <v>507</v>
       </c>
       <c r="I326" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
@@ -15547,7 +15547,7 @@
         <v>507</v>
       </c>
       <c r="I327" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
@@ -15577,7 +15577,7 @@
         <v>507</v>
       </c>
       <c r="I328" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
@@ -15607,7 +15607,7 @@
         <v>507</v>
       </c>
       <c r="I329" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
@@ -15637,7 +15637,7 @@
         <v>507</v>
       </c>
       <c r="I330" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
@@ -15667,7 +15667,7 @@
         <v>507</v>
       </c>
       <c r="I331" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -15697,7 +15697,7 @@
         <v>507</v>
       </c>
       <c r="I332" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -15727,7 +15727,7 @@
         <v>507</v>
       </c>
       <c r="I333" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
@@ -15757,7 +15757,7 @@
         <v>507</v>
       </c>
       <c r="I334" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
@@ -15787,7 +15787,7 @@
         <v>507</v>
       </c>
       <c r="I335" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -15817,7 +15817,7 @@
         <v>507</v>
       </c>
       <c r="I336" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
@@ -15847,7 +15847,7 @@
         <v>507</v>
       </c>
       <c r="I337" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
@@ -15877,7 +15877,7 @@
         <v>507</v>
       </c>
       <c r="I338" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
@@ -15907,7 +15907,7 @@
         <v>507</v>
       </c>
       <c r="I339" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
@@ -15937,7 +15937,7 @@
         <v>507</v>
       </c>
       <c r="I340" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
@@ -15967,7 +15967,7 @@
         <v>507</v>
       </c>
       <c r="I341" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
@@ -15997,7 +15997,7 @@
         <v>507</v>
       </c>
       <c r="I342" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -16027,7 +16027,7 @@
         <v>507</v>
       </c>
       <c r="I343" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -16057,7 +16057,7 @@
         <v>507</v>
       </c>
       <c r="I344" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
@@ -16087,7 +16087,7 @@
         <v>507</v>
       </c>
       <c r="I345" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
@@ -16117,7 +16117,7 @@
         <v>507</v>
       </c>
       <c r="I346" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
@@ -16147,7 +16147,7 @@
         <v>507</v>
       </c>
       <c r="I347" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
@@ -16177,7 +16177,7 @@
         <v>507</v>
       </c>
       <c r="I348" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
@@ -16207,7 +16207,7 @@
         <v>507</v>
       </c>
       <c r="I349" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
@@ -16236,7 +16236,7 @@
         <v>507</v>
       </c>
       <c r="I350" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
@@ -16265,7 +16265,7 @@
         <v>507</v>
       </c>
       <c r="I351" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
@@ -16294,7 +16294,7 @@
         <v>507</v>
       </c>
       <c r="I352" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
@@ -16323,7 +16323,7 @@
         <v>507</v>
       </c>
       <c r="I353" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
@@ -16352,7 +16352,7 @@
         <v>507</v>
       </c>
       <c r="I354" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
@@ -16382,7 +16382,7 @@
         <v>507</v>
       </c>
       <c r="I355" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
@@ -16412,7 +16412,7 @@
         <v>507</v>
       </c>
       <c r="I356" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
@@ -16442,7 +16442,7 @@
         <v>507</v>
       </c>
       <c r="I357" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
@@ -16472,7 +16472,7 @@
         <v>507</v>
       </c>
       <c r="I358" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
@@ -16502,7 +16502,7 @@
         <v>507</v>
       </c>
       <c r="I359" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
@@ -16531,7 +16531,7 @@
         <v>507</v>
       </c>
       <c r="I360" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -16560,7 +16560,7 @@
         <v>507</v>
       </c>
       <c r="I361" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -16589,7 +16589,7 @@
         <v>507</v>
       </c>
       <c r="I362" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
@@ -16618,7 +16618,7 @@
         <v>507</v>
       </c>
       <c r="I363" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -16647,7 +16647,7 @@
         <v>507</v>
       </c>
       <c r="I364" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
@@ -16676,7 +16676,7 @@
         <v>507</v>
       </c>
       <c r="I365" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
@@ -16705,7 +16705,7 @@
         <v>507</v>
       </c>
       <c r="I366" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
@@ -16734,7 +16734,7 @@
         <v>507</v>
       </c>
       <c r="I367" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
@@ -16763,7 +16763,7 @@
         <v>507</v>
       </c>
       <c r="I368" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -16792,7 +16792,7 @@
         <v>507</v>
       </c>
       <c r="I369" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -16821,7 +16821,7 @@
         <v>507</v>
       </c>
       <c r="I370" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -16850,7 +16850,7 @@
         <v>507</v>
       </c>
       <c r="I371" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -16879,7 +16879,7 @@
         <v>507</v>
       </c>
       <c r="I372" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
@@ -16908,7 +16908,7 @@
         <v>507</v>
       </c>
       <c r="I373" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
@@ -16937,7 +16937,7 @@
         <v>507</v>
       </c>
       <c r="I374" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
@@ -16966,7 +16966,7 @@
         <v>507</v>
       </c>
       <c r="I375" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -16995,7 +16995,7 @@
         <v>507</v>
       </c>
       <c r="I376" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -17024,7 +17024,7 @@
         <v>507</v>
       </c>
       <c r="I377" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
@@ -17053,7 +17053,7 @@
         <v>507</v>
       </c>
       <c r="I378" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -17082,7 +17082,7 @@
         <v>507</v>
       </c>
       <c r="I379" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
@@ -17111,7 +17111,7 @@
         <v>507</v>
       </c>
       <c r="I380" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -17140,7 +17140,7 @@
         <v>507</v>
       </c>
       <c r="I381" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
@@ -17169,7 +17169,7 @@
         <v>507</v>
       </c>
       <c r="I382" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
@@ -17198,7 +17198,7 @@
         <v>507</v>
       </c>
       <c r="I383" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
@@ -17227,7 +17227,7 @@
         <v>507</v>
       </c>
       <c r="I384" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -17256,7 +17256,7 @@
         <v>507</v>
       </c>
       <c r="I385" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -17285,7 +17285,7 @@
         <v>507</v>
       </c>
       <c r="I386" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
@@ -17314,7 +17314,7 @@
         <v>507</v>
       </c>
       <c r="I387" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -17343,7 +17343,7 @@
         <v>507</v>
       </c>
       <c r="I388" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
@@ -17372,7 +17372,7 @@
         <v>507</v>
       </c>
       <c r="I389" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
@@ -17401,7 +17401,7 @@
         <v>507</v>
       </c>
       <c r="I390" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
@@ -17430,7 +17430,7 @@
         <v>507</v>
       </c>
       <c r="I391" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
@@ -17459,7 +17459,7 @@
         <v>507</v>
       </c>
       <c r="I392" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -17488,7 +17488,7 @@
         <v>507</v>
       </c>
       <c r="I393" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
@@ -17517,7 +17517,7 @@
         <v>507</v>
       </c>
       <c r="I394" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
@@ -17546,7 +17546,7 @@
         <v>507</v>
       </c>
       <c r="I395" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -17575,7 +17575,7 @@
         <v>507</v>
       </c>
       <c r="I396" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -17604,7 +17604,7 @@
         <v>507</v>
       </c>
       <c r="I397" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
@@ -17633,7 +17633,7 @@
         <v>507</v>
       </c>
       <c r="I398" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -17662,7 +17662,7 @@
         <v>507</v>
       </c>
       <c r="I399" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
@@ -17691,7 +17691,7 @@
         <v>507</v>
       </c>
       <c r="I400" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
@@ -17720,7 +17720,7 @@
         <v>507</v>
       </c>
       <c r="I401" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
@@ -17749,7 +17749,7 @@
         <v>507</v>
       </c>
       <c r="I402" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
@@ -17778,7 +17778,7 @@
         <v>507</v>
       </c>
       <c r="I403" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
         <v>507</v>
       </c>
       <c r="I404" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -17836,7 +17836,7 @@
         <v>507</v>
       </c>
       <c r="I405" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -17865,7 +17865,7 @@
         <v>507</v>
       </c>
       <c r="I406" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -17894,7 +17894,7 @@
         <v>507</v>
       </c>
       <c r="I407" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -17923,7 +17923,7 @@
         <v>507</v>
       </c>
       <c r="I408" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -17952,7 +17952,7 @@
         <v>507</v>
       </c>
       <c r="I409" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -17981,7 +17981,7 @@
         <v>507</v>
       </c>
       <c r="I410" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -18010,7 +18010,7 @@
         <v>507</v>
       </c>
       <c r="I411" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -18039,7 +18039,7 @@
         <v>507</v>
       </c>
       <c r="I412" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -18068,7 +18068,7 @@
         <v>507</v>
       </c>
       <c r="I413" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -18097,7 +18097,7 @@
         <v>507</v>
       </c>
       <c r="I414" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
@@ -18126,7 +18126,7 @@
         <v>507</v>
       </c>
       <c r="I415" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
@@ -18155,7 +18155,7 @@
         <v>507</v>
       </c>
       <c r="I416" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
@@ -18184,7 +18184,7 @@
         <v>507</v>
       </c>
       <c r="I417" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
@@ -18213,7 +18213,7 @@
         <v>507</v>
       </c>
       <c r="I418" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
@@ -18242,7 +18242,7 @@
         <v>507</v>
       </c>
       <c r="I419" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
@@ -18271,7 +18271,7 @@
         <v>507</v>
       </c>
       <c r="I420" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
@@ -18300,7 +18300,7 @@
         <v>507</v>
       </c>
       <c r="I421" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
@@ -18329,7 +18329,7 @@
         <v>507</v>
       </c>
       <c r="I422" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
@@ -18358,7 +18358,7 @@
         <v>507</v>
       </c>
       <c r="I423" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
@@ -18387,7 +18387,7 @@
         <v>507</v>
       </c>
       <c r="I424" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
@@ -18416,7 +18416,7 @@
         <v>507</v>
       </c>
       <c r="I425" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
@@ -18445,7 +18445,7 @@
         <v>507</v>
       </c>
       <c r="I426" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
@@ -18474,7 +18474,7 @@
         <v>507</v>
       </c>
       <c r="I427" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -18503,7 +18503,7 @@
         <v>507</v>
       </c>
       <c r="I428" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
@@ -18532,7 +18532,7 @@
         <v>507</v>
       </c>
       <c r="I429" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -18561,7 +18561,7 @@
         <v>507</v>
       </c>
       <c r="I430" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
@@ -18590,7 +18590,7 @@
         <v>507</v>
       </c>
       <c r="I431" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -18619,7 +18619,7 @@
         <v>507</v>
       </c>
       <c r="I432" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -18648,7 +18648,7 @@
         <v>507</v>
       </c>
       <c r="I433" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -18677,7 +18677,7 @@
         <v>507</v>
       </c>
       <c r="I434" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
@@ -18706,7 +18706,7 @@
         <v>507</v>
       </c>
       <c r="I435" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
@@ -18735,7 +18735,7 @@
         <v>507</v>
       </c>
       <c r="I436" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -18764,7 +18764,7 @@
         <v>507</v>
       </c>
       <c r="I437" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
@@ -18793,7 +18793,7 @@
         <v>507</v>
       </c>
       <c r="I438" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
@@ -18822,7 +18822,7 @@
         <v>507</v>
       </c>
       <c r="I439" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
@@ -18851,7 +18851,7 @@
         <v>507</v>
       </c>
       <c r="I440" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -18880,7 +18880,7 @@
         <v>507</v>
       </c>
       <c r="I441" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -18909,7 +18909,7 @@
         <v>507</v>
       </c>
       <c r="I442" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
@@ -18938,7 +18938,7 @@
         <v>507</v>
       </c>
       <c r="I443" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -18967,7 +18967,7 @@
         <v>507</v>
       </c>
       <c r="I444" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
@@ -18996,7 +18996,7 @@
         <v>507</v>
       </c>
       <c r="I445" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -19025,7 +19025,7 @@
         <v>507</v>
       </c>
       <c r="I446" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
@@ -19054,7 +19054,7 @@
         <v>507</v>
       </c>
       <c r="I447" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
@@ -19083,7 +19083,7 @@
         <v>507</v>
       </c>
       <c r="I448" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
@@ -19112,7 +19112,7 @@
         <v>507</v>
       </c>
       <c r="I449" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
@@ -19141,7 +19141,7 @@
         <v>507</v>
       </c>
       <c r="I450" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
@@ -19170,7 +19170,7 @@
         <v>507</v>
       </c>
       <c r="I451" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
@@ -19199,7 +19199,7 @@
         <v>507</v>
       </c>
       <c r="I452" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -19228,7 +19228,7 @@
         <v>507</v>
       </c>
       <c r="I453" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
@@ -19257,7 +19257,7 @@
         <v>507</v>
       </c>
       <c r="I454" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
@@ -19286,7 +19286,7 @@
         <v>507</v>
       </c>
       <c r="I455" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -19315,7 +19315,7 @@
         <v>507</v>
       </c>
       <c r="I456" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
@@ -19344,7 +19344,7 @@
         <v>507</v>
       </c>
       <c r="I457" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -19373,7 +19373,7 @@
         <v>507</v>
       </c>
       <c r="I458" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
@@ -19402,7 +19402,7 @@
         <v>507</v>
       </c>
       <c r="I459" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
@@ -19431,7 +19431,7 @@
         <v>507</v>
       </c>
       <c r="I460" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
@@ -19460,7 +19460,7 @@
         <v>507</v>
       </c>
       <c r="I461" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
@@ -19489,7 +19489,7 @@
         <v>507</v>
       </c>
       <c r="I462" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
@@ -19518,7 +19518,7 @@
         <v>507</v>
       </c>
       <c r="I463" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
@@ -19547,7 +19547,7 @@
         <v>507</v>
       </c>
       <c r="I464" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -19576,7 +19576,7 @@
         <v>507</v>
       </c>
       <c r="I465" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
@@ -19605,7 +19605,7 @@
         <v>507</v>
       </c>
       <c r="I466" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -19634,7 +19634,7 @@
         <v>507</v>
       </c>
       <c r="I467" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
@@ -19663,7 +19663,7 @@
         <v>507</v>
       </c>
       <c r="I468" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
@@ -19692,7 +19692,7 @@
         <v>507</v>
       </c>
       <c r="I469" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
@@ -19721,7 +19721,7 @@
         <v>507</v>
       </c>
       <c r="I470" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.2">
@@ -19750,7 +19750,7 @@
         <v>507</v>
       </c>
       <c r="I471" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
@@ -19779,7 +19779,7 @@
         <v>507</v>
       </c>
       <c r="I472" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
@@ -19808,7 +19808,7 @@
         <v>507</v>
       </c>
       <c r="I473" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -19837,7 +19837,7 @@
         <v>507</v>
       </c>
       <c r="I474" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -19866,7 +19866,7 @@
         <v>507</v>
       </c>
       <c r="I475" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -19895,7 +19895,7 @@
         <v>507</v>
       </c>
       <c r="I476" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -19924,7 +19924,7 @@
         <v>507</v>
       </c>
       <c r="I477" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
@@ -19953,7 +19953,7 @@
         <v>507</v>
       </c>
       <c r="I478" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
@@ -19982,7 +19982,7 @@
         <v>507</v>
       </c>
       <c r="I479" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
@@ -20011,7 +20011,7 @@
         <v>507</v>
       </c>
       <c r="I480" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
@@ -20040,7 +20040,7 @@
         <v>507</v>
       </c>
       <c r="I481" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
@@ -20069,7 +20069,7 @@
         <v>507</v>
       </c>
       <c r="I482" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
@@ -20098,7 +20098,7 @@
         <v>507</v>
       </c>
       <c r="I483" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
@@ -20127,7 +20127,7 @@
         <v>507</v>
       </c>
       <c r="I484" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
@@ -20156,7 +20156,7 @@
         <v>507</v>
       </c>
       <c r="I485" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
@@ -20185,7 +20185,7 @@
         <v>507</v>
       </c>
       <c r="I486" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
@@ -20214,7 +20214,7 @@
         <v>507</v>
       </c>
       <c r="I487" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
@@ -20243,7 +20243,7 @@
         <v>507</v>
       </c>
       <c r="I488" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
@@ -20272,7 +20272,7 @@
         <v>507</v>
       </c>
       <c r="I489" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
@@ -20301,7 +20301,7 @@
         <v>507</v>
       </c>
       <c r="I490" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
@@ -20330,7 +20330,7 @@
         <v>507</v>
       </c>
       <c r="I491" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
@@ -20359,7 +20359,7 @@
         <v>507</v>
       </c>
       <c r="I492" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
@@ -20388,7 +20388,7 @@
         <v>507</v>
       </c>
       <c r="I493" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
@@ -20417,7 +20417,7 @@
         <v>507</v>
       </c>
       <c r="I494" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
@@ -20446,7 +20446,7 @@
         <v>507</v>
       </c>
       <c r="I495" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
@@ -20475,7 +20475,7 @@
         <v>507</v>
       </c>
       <c r="I496" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
@@ -20504,7 +20504,7 @@
         <v>507</v>
       </c>
       <c r="I497" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
@@ -20533,7 +20533,7 @@
         <v>507</v>
       </c>
       <c r="I498" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
@@ -20562,7 +20562,7 @@
         <v>507</v>
       </c>
       <c r="I499" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
@@ -20592,7 +20592,7 @@
         <v>507</v>
       </c>
       <c r="I500" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
@@ -20622,7 +20622,7 @@
         <v>507</v>
       </c>
       <c r="I501" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
@@ -20652,7 +20652,7 @@
         <v>507</v>
       </c>
       <c r="I502" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
@@ -20682,7 +20682,7 @@
         <v>507</v>
       </c>
       <c r="I503" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
@@ -20712,7 +20712,7 @@
         <v>507</v>
       </c>
       <c r="I504" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
@@ -20742,7 +20742,7 @@
         <v>507</v>
       </c>
       <c r="I505" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
@@ -20772,7 +20772,7 @@
         <v>507</v>
       </c>
       <c r="I506" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
@@ -20802,7 +20802,7 @@
         <v>507</v>
       </c>
       <c r="I507" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
@@ -20832,7 +20832,7 @@
         <v>507</v>
       </c>
       <c r="I508" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
@@ -20862,7 +20862,7 @@
         <v>507</v>
       </c>
       <c r="I509" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
@@ -20892,7 +20892,7 @@
         <v>507</v>
       </c>
       <c r="I510" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
@@ -20922,7 +20922,7 @@
         <v>507</v>
       </c>
       <c r="I511" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
@@ -20952,7 +20952,7 @@
         <v>507</v>
       </c>
       <c r="I512" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
@@ -20982,7 +20982,7 @@
         <v>507</v>
       </c>
       <c r="I513" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
@@ -21012,7 +21012,7 @@
         <v>507</v>
       </c>
       <c r="I514" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
@@ -21042,7 +21042,7 @@
         <v>507</v>
       </c>
       <c r="I515" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
@@ -21072,7 +21072,7 @@
         <v>507</v>
       </c>
       <c r="I516" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
@@ -21102,7 +21102,7 @@
         <v>507</v>
       </c>
       <c r="I517" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
@@ -21132,7 +21132,7 @@
         <v>507</v>
       </c>
       <c r="I518" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.2">
@@ -21162,7 +21162,7 @@
         <v>507</v>
       </c>
       <c r="I519" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
@@ -21192,7 +21192,7 @@
         <v>507</v>
       </c>
       <c r="I520" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
@@ -21222,7 +21222,7 @@
         <v>507</v>
       </c>
       <c r="I521" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
@@ -21252,7 +21252,7 @@
         <v>507</v>
       </c>
       <c r="I522" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
@@ -21282,7 +21282,7 @@
         <v>507</v>
       </c>
       <c r="I523" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
@@ -21312,7 +21312,7 @@
         <v>507</v>
       </c>
       <c r="I524" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
@@ -21342,7 +21342,7 @@
         <v>507</v>
       </c>
       <c r="I525" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
@@ -21372,7 +21372,7 @@
         <v>507</v>
       </c>
       <c r="I526" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
@@ -21402,7 +21402,7 @@
         <v>507</v>
       </c>
       <c r="I527" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
@@ -21432,7 +21432,7 @@
         <v>507</v>
       </c>
       <c r="I528" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
@@ -21462,7 +21462,7 @@
         <v>507</v>
       </c>
       <c r="I529" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.2">
@@ -21492,7 +21492,7 @@
         <v>507</v>
       </c>
       <c r="I530" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.2">
@@ -21522,7 +21522,7 @@
         <v>507</v>
       </c>
       <c r="I531" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
@@ -21552,7 +21552,7 @@
         <v>507</v>
       </c>
       <c r="I532" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
@@ -21582,7 +21582,7 @@
         <v>507</v>
       </c>
       <c r="I533" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.2">
@@ -21612,7 +21612,7 @@
         <v>507</v>
       </c>
       <c r="I534" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
@@ -21642,7 +21642,7 @@
         <v>507</v>
       </c>
       <c r="I535" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
@@ -21672,7 +21672,7 @@
         <v>507</v>
       </c>
       <c r="I536" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
@@ -21702,7 +21702,7 @@
         <v>507</v>
       </c>
       <c r="I537" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
@@ -21732,7 +21732,7 @@
         <v>507</v>
       </c>
       <c r="I538" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
@@ -21762,7 +21762,7 @@
         <v>507</v>
       </c>
       <c r="I539" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
@@ -21792,7 +21792,7 @@
         <v>507</v>
       </c>
       <c r="I540" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
@@ -21822,7 +21822,7 @@
         <v>507</v>
       </c>
       <c r="I541" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.2">
@@ -21852,7 +21852,7 @@
         <v>507</v>
       </c>
       <c r="I542" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
@@ -21882,7 +21882,7 @@
         <v>507</v>
       </c>
       <c r="I543" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.2">
@@ -21912,7 +21912,7 @@
         <v>507</v>
       </c>
       <c r="I544" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
@@ -21942,7 +21942,7 @@
         <v>507</v>
       </c>
       <c r="I545" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.2">
@@ -21972,7 +21972,7 @@
         <v>507</v>
       </c>
       <c r="I546" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.2">
@@ -22002,7 +22002,7 @@
         <v>507</v>
       </c>
       <c r="I547" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
@@ -22032,7 +22032,7 @@
         <v>507</v>
       </c>
       <c r="I548" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
@@ -22062,7 +22062,7 @@
         <v>507</v>
       </c>
       <c r="I549" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
@@ -22092,7 +22092,7 @@
         <v>507</v>
       </c>
       <c r="I550" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
@@ -22122,7 +22122,7 @@
         <v>507</v>
       </c>
       <c r="I551" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
@@ -22152,7 +22152,7 @@
         <v>507</v>
       </c>
       <c r="I552" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.2">
@@ -22182,7 +22182,7 @@
         <v>507</v>
       </c>
       <c r="I553" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
@@ -22212,7 +22212,7 @@
         <v>507</v>
       </c>
       <c r="I554" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
@@ -22242,7 +22242,7 @@
         <v>507</v>
       </c>
       <c r="I555" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
@@ -22272,7 +22272,7 @@
         <v>507</v>
       </c>
       <c r="I556" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.2">
@@ -22302,7 +22302,7 @@
         <v>507</v>
       </c>
       <c r="I557" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.2">
@@ -22332,7 +22332,7 @@
         <v>507</v>
       </c>
       <c r="I558" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
@@ -22362,7 +22362,7 @@
         <v>507</v>
       </c>
       <c r="I559" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
@@ -22392,7 +22392,7 @@
         <v>507</v>
       </c>
       <c r="I560" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
@@ -22422,7 +22422,7 @@
         <v>507</v>
       </c>
       <c r="I561" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
@@ -22452,7 +22452,7 @@
         <v>507</v>
       </c>
       <c r="I562" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
@@ -22482,7 +22482,7 @@
         <v>507</v>
       </c>
       <c r="I563" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.2">
@@ -22512,7 +22512,7 @@
         <v>507</v>
       </c>
       <c r="I564" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.2">
@@ -22542,7 +22542,7 @@
         <v>507</v>
       </c>
       <c r="I565" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.2">
@@ -22572,7 +22572,7 @@
         <v>507</v>
       </c>
       <c r="I566" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
@@ -22602,7 +22602,7 @@
         <v>507</v>
       </c>
       <c r="I567" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.2">
@@ -22632,7 +22632,7 @@
         <v>507</v>
       </c>
       <c r="I568" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.2">
@@ -22662,7 +22662,7 @@
         <v>507</v>
       </c>
       <c r="I569" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.2">
@@ -22692,7 +22692,7 @@
         <v>507</v>
       </c>
       <c r="I570" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.2">
@@ -22722,7 +22722,7 @@
         <v>507</v>
       </c>
       <c r="I571" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.2">
@@ -22752,7 +22752,7 @@
         <v>507</v>
       </c>
       <c r="I572" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
@@ -22782,7 +22782,7 @@
         <v>507</v>
       </c>
       <c r="I573" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
@@ -22812,7 +22812,7 @@
         <v>507</v>
       </c>
       <c r="I574" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
@@ -22842,7 +22842,7 @@
         <v>507</v>
       </c>
       <c r="I575" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
@@ -22872,7 +22872,7 @@
         <v>507</v>
       </c>
       <c r="I576" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
@@ -22902,7 +22902,7 @@
         <v>507</v>
       </c>
       <c r="I577" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
@@ -22932,7 +22932,7 @@
         <v>507</v>
       </c>
       <c r="I578" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
@@ -22962,7 +22962,7 @@
         <v>507</v>
       </c>
       <c r="I579" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
@@ -22992,7 +22992,7 @@
         <v>507</v>
       </c>
       <c r="I580" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
@@ -23022,7 +23022,7 @@
         <v>507</v>
       </c>
       <c r="I581" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
@@ -23052,7 +23052,7 @@
         <v>507</v>
       </c>
       <c r="I582" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
@@ -23082,7 +23082,7 @@
         <v>507</v>
       </c>
       <c r="I583" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
@@ -23112,7 +23112,7 @@
         <v>507</v>
       </c>
       <c r="I584" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
@@ -23141,7 +23141,7 @@
         <v>507</v>
       </c>
       <c r="I585" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
@@ -23170,7 +23170,7 @@
         <v>507</v>
       </c>
       <c r="I586" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
@@ -23199,7 +23199,7 @@
         <v>507</v>
       </c>
       <c r="I587" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
@@ -23228,7 +23228,7 @@
         <v>507</v>
       </c>
       <c r="I588" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
@@ -23257,7 +23257,7 @@
         <v>507</v>
       </c>
       <c r="I589" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
@@ -23286,7 +23286,7 @@
         <v>507</v>
       </c>
       <c r="I590" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
@@ -23315,7 +23315,7 @@
         <v>507</v>
       </c>
       <c r="I591" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
@@ -23344,7 +23344,7 @@
         <v>507</v>
       </c>
       <c r="I592" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
@@ -23373,7 +23373,7 @@
         <v>507</v>
       </c>
       <c r="I593" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
@@ -23402,7 +23402,7 @@
         <v>507</v>
       </c>
       <c r="I594" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
@@ -23431,7 +23431,7 @@
         <v>507</v>
       </c>
       <c r="I595" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
@@ -23460,7 +23460,7 @@
         <v>507</v>
       </c>
       <c r="I596" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
@@ -23489,7 +23489,7 @@
         <v>507</v>
       </c>
       <c r="I597" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
@@ -23518,7 +23518,7 @@
         <v>507</v>
       </c>
       <c r="I598" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.2">
@@ -23547,7 +23547,7 @@
         <v>507</v>
       </c>
       <c r="I599" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.2">
@@ -23576,7 +23576,7 @@
         <v>507</v>
       </c>
       <c r="I600" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
@@ -23605,7 +23605,7 @@
         <v>507</v>
       </c>
       <c r="I601" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
@@ -23634,7 +23634,7 @@
         <v>507</v>
       </c>
       <c r="I602" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
@@ -23663,7 +23663,7 @@
         <v>507</v>
       </c>
       <c r="I603" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
@@ -23692,7 +23692,7 @@
         <v>507</v>
       </c>
       <c r="I604" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
@@ -23721,7 +23721,7 @@
         <v>507</v>
       </c>
       <c r="I605" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.2">
@@ -23750,7 +23750,7 @@
         <v>507</v>
       </c>
       <c r="I606" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
@@ -23779,7 +23779,7 @@
         <v>507</v>
       </c>
       <c r="I607" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.2">
@@ -23808,7 +23808,7 @@
         <v>507</v>
       </c>
       <c r="I608" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.2">
@@ -23837,7 +23837,7 @@
         <v>507</v>
       </c>
       <c r="I609" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.2">
@@ -23866,7 +23866,7 @@
         <v>507</v>
       </c>
       <c r="I610" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
@@ -23895,7 +23895,7 @@
         <v>507</v>
       </c>
       <c r="I611" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.2">
@@ -23924,7 +23924,7 @@
         <v>507</v>
       </c>
       <c r="I612" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.2">
@@ -23953,7 +23953,7 @@
         <v>507</v>
       </c>
       <c r="I613" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.2">
@@ -23982,7 +23982,7 @@
         <v>507</v>
       </c>
       <c r="I614" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.2">
@@ -24011,7 +24011,7 @@
         <v>507</v>
       </c>
       <c r="I615" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.2">
@@ -24040,7 +24040,7 @@
         <v>507</v>
       </c>
       <c r="I616" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.2">
@@ -24069,7 +24069,7 @@
         <v>507</v>
       </c>
       <c r="I617" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.2">
@@ -24098,7 +24098,7 @@
         <v>507</v>
       </c>
       <c r="I618" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.2">
@@ -24127,7 +24127,7 @@
         <v>507</v>
       </c>
       <c r="I619" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.2">
@@ -24156,7 +24156,7 @@
         <v>507</v>
       </c>
       <c r="I620" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.2">
@@ -24185,7 +24185,7 @@
         <v>507</v>
       </c>
       <c r="I621" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.2">
@@ -24214,7 +24214,7 @@
         <v>507</v>
       </c>
       <c r="I622" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
@@ -24243,7 +24243,7 @@
         <v>507</v>
       </c>
       <c r="I623" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
@@ -24272,7 +24272,7 @@
         <v>507</v>
       </c>
       <c r="I624" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.2">
@@ -24301,7 +24301,7 @@
         <v>507</v>
       </c>
       <c r="I625" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.2">
@@ -24330,7 +24330,7 @@
         <v>507</v>
       </c>
       <c r="I626" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.2">
@@ -24359,7 +24359,7 @@
         <v>507</v>
       </c>
       <c r="I627" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.2">
@@ -24388,7 +24388,7 @@
         <v>507</v>
       </c>
       <c r="I628" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.2">
@@ -24417,7 +24417,7 @@
         <v>507</v>
       </c>
       <c r="I629" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.2">
@@ -24446,7 +24446,7 @@
         <v>507</v>
       </c>
       <c r="I630" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
@@ -24476,7 +24476,7 @@
         <v>507</v>
       </c>
       <c r="I631" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
@@ -24506,7 +24506,7 @@
         <v>507</v>
       </c>
       <c r="I632" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.2">
@@ -24536,7 +24536,7 @@
         <v>507</v>
       </c>
       <c r="I633" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.2">
@@ -24566,7 +24566,7 @@
         <v>507</v>
       </c>
       <c r="I634" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
@@ -24596,7 +24596,7 @@
         <v>507</v>
       </c>
       <c r="I635" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
@@ -24626,7 +24626,7 @@
         <v>507</v>
       </c>
       <c r="I636" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
@@ -24656,7 +24656,7 @@
         <v>507</v>
       </c>
       <c r="I637" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
@@ -24686,7 +24686,7 @@
         <v>507</v>
       </c>
       <c r="I638" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
@@ -24716,7 +24716,7 @@
         <v>507</v>
       </c>
       <c r="I639" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
@@ -24746,7 +24746,7 @@
         <v>507</v>
       </c>
       <c r="I640" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
@@ -24776,7 +24776,7 @@
         <v>507</v>
       </c>
       <c r="I641" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
@@ -24806,7 +24806,7 @@
         <v>507</v>
       </c>
       <c r="I642" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
@@ -24836,7 +24836,7 @@
         <v>507</v>
       </c>
       <c r="I643" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.2">
@@ -24866,7 +24866,7 @@
         <v>507</v>
       </c>
       <c r="I644" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
@@ -24896,7 +24896,7 @@
         <v>507</v>
       </c>
       <c r="I645" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
@@ -24926,7 +24926,7 @@
         <v>507</v>
       </c>
       <c r="I646" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
@@ -24956,7 +24956,7 @@
         <v>507</v>
       </c>
       <c r="I647" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
@@ -24986,7 +24986,7 @@
         <v>507</v>
       </c>
       <c r="I648" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
@@ -25016,7 +25016,7 @@
         <v>507</v>
       </c>
       <c r="I649" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.2">
@@ -25046,7 +25046,7 @@
         <v>507</v>
       </c>
       <c r="I650" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
@@ -25076,7 +25076,7 @@
         <v>507</v>
       </c>
       <c r="I651" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
@@ -25106,7 +25106,7 @@
         <v>507</v>
       </c>
       <c r="I652" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.2">
@@ -25136,7 +25136,7 @@
         <v>507</v>
       </c>
       <c r="I653" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.2">
@@ -25166,7 +25166,7 @@
         <v>507</v>
       </c>
       <c r="I654" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.2">
@@ -25196,15 +25196,15 @@
         <v>507</v>
       </c>
       <c r="I655" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B656" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C656" t="s">
         <v>880</v>
@@ -25222,21 +25222,21 @@
         <v>#N/A</v>
       </c>
       <c r="G656" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H656" t="s">
         <v>507</v>
       </c>
       <c r="I656" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B657" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C657" t="s">
         <v>880</v>
@@ -25254,21 +25254,21 @@
         <v>#N/A</v>
       </c>
       <c r="G657" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H657" t="s">
         <v>507</v>
       </c>
       <c r="I657" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B658" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C658" t="s">
         <v>880</v>
@@ -25286,21 +25286,21 @@
         <v>#N/A</v>
       </c>
       <c r="G658" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H658" t="s">
         <v>507</v>
       </c>
       <c r="I658" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B659" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C659" t="s">
         <v>79</v>
@@ -25318,21 +25318,21 @@
         <v>#N/A</v>
       </c>
       <c r="G659" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H659" t="s">
         <v>507</v>
       </c>
       <c r="I659" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B660" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C660" t="s">
         <v>79</v>
@@ -25350,21 +25350,21 @@
         <v>#N/A</v>
       </c>
       <c r="G660" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H660" t="s">
         <v>507</v>
       </c>
       <c r="I660" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B661" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C661" t="s">
         <v>79</v>
@@ -25382,717 +25382,717 @@
         <v>#N/A</v>
       </c>
       <c r="G661" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H661" t="s">
         <v>507</v>
       </c>
       <c r="I661" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B662" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C662" t="s">
         <v>86</v>
       </c>
       <c r="D662" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E662" t="s">
         <v>1510</v>
-      </c>
-      <c r="E662" t="s">
-        <v>1511</v>
       </c>
       <c r="F662">
         <v>2013</v>
       </c>
       <c r="G662" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H662" t="s">
         <v>507</v>
       </c>
       <c r="I662" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B663" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C663" t="s">
         <v>86</v>
       </c>
       <c r="D663" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E663" t="s">
         <v>1510</v>
-      </c>
-      <c r="E663" t="s">
-        <v>1511</v>
       </c>
       <c r="F663">
         <v>2013</v>
       </c>
       <c r="G663" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H663" t="s">
         <v>507</v>
       </c>
       <c r="I663" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B664" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C664" t="s">
         <v>86</v>
       </c>
       <c r="D664" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E664" t="s">
         <v>1510</v>
-      </c>
-      <c r="E664" t="s">
-        <v>1511</v>
       </c>
       <c r="F664">
         <v>2013</v>
       </c>
       <c r="G664" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H664" t="s">
         <v>507</v>
       </c>
       <c r="I664" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B665" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C665" t="s">
         <v>86</v>
       </c>
       <c r="D665" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E665" t="s">
         <v>1510</v>
-      </c>
-      <c r="E665" t="s">
-        <v>1511</v>
       </c>
       <c r="F665">
         <v>2013</v>
       </c>
       <c r="G665" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H665" t="s">
         <v>507</v>
       </c>
       <c r="I665" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B666" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C666" t="s">
         <v>86</v>
       </c>
       <c r="D666" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E666" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F666">
         <v>2013</v>
       </c>
       <c r="G666" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H666" t="s">
         <v>507</v>
       </c>
       <c r="I666" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B667" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C667" t="s">
         <v>86</v>
       </c>
       <c r="D667" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E667" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F667">
         <v>2013</v>
       </c>
       <c r="G667" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H667" t="s">
         <v>507</v>
       </c>
       <c r="I667" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B668" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C668" t="s">
         <v>86</v>
       </c>
       <c r="D668" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E668" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F668">
         <v>2013</v>
       </c>
       <c r="G668" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H668" t="s">
         <v>507</v>
       </c>
       <c r="I668" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B669" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C669" t="s">
         <v>86</v>
       </c>
       <c r="D669" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E669" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F669">
         <v>2013</v>
       </c>
       <c r="G669" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H669" t="s">
         <v>507</v>
       </c>
       <c r="I669" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B670" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C670" t="s">
         <v>86</v>
       </c>
       <c r="D670" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E670" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F670">
         <v>2013</v>
       </c>
       <c r="G670" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H670" t="s">
         <v>507</v>
       </c>
       <c r="I670" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B671" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C671" t="s">
         <v>86</v>
       </c>
       <c r="D671" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E671" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F671">
         <v>2013</v>
       </c>
       <c r="G671" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H671" t="s">
         <v>507</v>
       </c>
       <c r="I671" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B672" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C672" t="s">
         <v>86</v>
       </c>
       <c r="D672" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E672" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F672">
         <v>2013</v>
       </c>
       <c r="G672" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H672" t="s">
         <v>507</v>
       </c>
       <c r="I672" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B673" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C673" t="s">
         <v>86</v>
       </c>
       <c r="D673" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E673" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F673">
         <v>2013</v>
       </c>
       <c r="G673" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H673" t="s">
         <v>507</v>
       </c>
       <c r="I673" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B674" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C674" t="s">
         <v>86</v>
       </c>
       <c r="D674" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E674" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F674">
         <v>2013</v>
       </c>
       <c r="G674" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H674" t="s">
         <v>507</v>
       </c>
       <c r="I674" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B675" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C675" t="s">
         <v>86</v>
       </c>
       <c r="D675" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E675" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F675">
         <v>2013</v>
       </c>
       <c r="G675" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H675" t="s">
         <v>507</v>
       </c>
       <c r="I675" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B676" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C676" t="s">
         <v>86</v>
       </c>
       <c r="D676" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E676" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F676">
         <v>2013</v>
       </c>
       <c r="G676" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H676" t="s">
         <v>507</v>
       </c>
       <c r="I676" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B677" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C677" t="s">
         <v>86</v>
       </c>
       <c r="D677" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E677" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F677">
         <v>2013</v>
       </c>
       <c r="G677" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H677" t="s">
         <v>507</v>
       </c>
       <c r="I677" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B678" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C678" t="s">
         <v>86</v>
       </c>
       <c r="D678" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E678" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F678">
         <v>2013</v>
       </c>
       <c r="G678" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H678" t="s">
         <v>507</v>
       </c>
       <c r="I678" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B679" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C679" t="s">
         <v>86</v>
       </c>
       <c r="D679" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E679" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F679">
         <v>2013</v>
       </c>
       <c r="G679" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H679" t="s">
         <v>507</v>
       </c>
       <c r="I679" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B680" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C680" t="s">
         <v>86</v>
       </c>
       <c r="D680" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E680" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F680">
         <v>2013</v>
       </c>
       <c r="G680" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H680" t="s">
         <v>507</v>
       </c>
       <c r="I680" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B681" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C681" t="s">
         <v>86</v>
       </c>
       <c r="D681" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E681" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F681">
         <v>2013</v>
       </c>
       <c r="G681" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H681" t="s">
         <v>507</v>
       </c>
       <c r="I681" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B682" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C682" t="s">
         <v>86</v>
       </c>
       <c r="D682" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E682" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F682">
         <v>2013</v>
       </c>
       <c r="G682" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H682" t="s">
         <v>507</v>
       </c>
       <c r="I682" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B683" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C683" t="s">
         <v>86</v>
       </c>
       <c r="D683" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E683" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F683">
         <v>2013</v>
       </c>
       <c r="G683" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H683" t="s">
         <v>507</v>
       </c>
       <c r="I683" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B684" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C684" t="s">
         <v>86</v>
       </c>
       <c r="D684" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E684" t="s">
         <v>1510</v>
-      </c>
-      <c r="E684" t="s">
-        <v>1511</v>
       </c>
       <c r="F684">
         <v>2013</v>
       </c>
       <c r="G684" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H684" t="s">
         <v>507</v>
       </c>
       <c r="I684" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B685" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C685" t="s">
         <v>86</v>
       </c>
       <c r="D685" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E685" t="s">
         <v>1510</v>
-      </c>
-      <c r="E685" t="s">
-        <v>1511</v>
       </c>
       <c r="F685">
         <v>2013</v>
       </c>
       <c r="G685" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H685" t="s">
         <v>507</v>
       </c>
       <c r="I685" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B686" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C686" t="s">
         <v>86</v>
@@ -26101,27 +26101,27 @@
         <v>#N/A</v>
       </c>
       <c r="E686" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F686">
         <v>2016</v>
       </c>
       <c r="G686" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H686" t="s">
         <v>507</v>
       </c>
       <c r="I686" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B687" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C687" t="s">
         <v>86</v>
@@ -26130,27 +26130,27 @@
         <v>#N/A</v>
       </c>
       <c r="E687" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F687">
         <v>2016</v>
       </c>
       <c r="G687" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H687" t="s">
         <v>507</v>
       </c>
       <c r="I687" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B688" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C688" t="s">
         <v>86</v>
@@ -26159,27 +26159,27 @@
         <v>#N/A</v>
       </c>
       <c r="E688" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F688">
         <v>2016</v>
       </c>
       <c r="G688" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H688" t="s">
         <v>507</v>
       </c>
       <c r="I688" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B689" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C689" t="s">
         <v>86</v>
@@ -26188,27 +26188,27 @@
         <v>#N/A</v>
       </c>
       <c r="E689" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F689">
         <v>2016</v>
       </c>
       <c r="G689" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H689" t="s">
         <v>507</v>
       </c>
       <c r="I689" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B690" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C690" t="s">
         <v>86</v>
@@ -26217,27 +26217,27 @@
         <v>#N/A</v>
       </c>
       <c r="E690" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F690">
         <v>2016</v>
       </c>
       <c r="G690" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H690" t="s">
         <v>507</v>
       </c>
       <c r="I690" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B691" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C691" t="s">
         <v>86</v>
@@ -26246,27 +26246,27 @@
         <v>#N/A</v>
       </c>
       <c r="E691" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F691">
         <v>2016</v>
       </c>
       <c r="G691" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H691" t="s">
         <v>507</v>
       </c>
       <c r="I691" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B692" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C692" t="s">
         <v>86</v>
@@ -26275,27 +26275,27 @@
         <v>#N/A</v>
       </c>
       <c r="E692" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F692">
         <v>2016</v>
       </c>
       <c r="G692" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H692" t="s">
         <v>507</v>
       </c>
       <c r="I692" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B693" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C693" t="s">
         <v>86</v>
@@ -26304,27 +26304,27 @@
         <v>#N/A</v>
       </c>
       <c r="E693" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F693">
         <v>2016</v>
       </c>
       <c r="G693" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H693" t="s">
         <v>507</v>
       </c>
       <c r="I693" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B694" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C694" t="s">
         <v>86</v>
@@ -26333,27 +26333,27 @@
         <v>#N/A</v>
       </c>
       <c r="E694" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F694">
         <v>2016</v>
       </c>
       <c r="G694" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H694" t="s">
         <v>507</v>
       </c>
       <c r="I694" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B695" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C695" t="s">
         <v>86</v>
@@ -26362,27 +26362,27 @@
         <v>#N/A</v>
       </c>
       <c r="E695" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F695">
         <v>2016</v>
       </c>
       <c r="G695" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H695" t="s">
         <v>507</v>
       </c>
       <c r="I695" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B696" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C696" t="s">
         <v>86</v>
@@ -26391,27 +26391,27 @@
         <v>#N/A</v>
       </c>
       <c r="E696" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F696">
         <v>2016</v>
       </c>
       <c r="G696" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H696" t="s">
         <v>507</v>
       </c>
       <c r="I696" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B697" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C697" t="s">
         <v>86</v>
@@ -26420,27 +26420,27 @@
         <v>#N/A</v>
       </c>
       <c r="E697" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F697">
         <v>2016</v>
       </c>
       <c r="G697" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H697" t="s">
         <v>507</v>
       </c>
       <c r="I697" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B698" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C698" t="s">
         <v>86</v>
@@ -26449,27 +26449,27 @@
         <v>#N/A</v>
       </c>
       <c r="E698" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F698">
         <v>2016</v>
       </c>
       <c r="G698" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H698" t="s">
         <v>507</v>
       </c>
       <c r="I698" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B699" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C699" t="s">
         <v>86</v>
@@ -26478,27 +26478,27 @@
         <v>#N/A</v>
       </c>
       <c r="E699" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F699">
         <v>2016</v>
       </c>
       <c r="G699" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H699" t="s">
         <v>507</v>
       </c>
       <c r="I699" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B700" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C700" t="s">
         <v>86</v>
@@ -26507,27 +26507,27 @@
         <v>#N/A</v>
       </c>
       <c r="E700" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F700">
         <v>2016</v>
       </c>
       <c r="G700" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H700" t="s">
         <v>507</v>
       </c>
       <c r="I700" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B701" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C701" t="s">
         <v>86</v>
@@ -26536,27 +26536,27 @@
         <v>#N/A</v>
       </c>
       <c r="E701" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F701">
         <v>2016</v>
       </c>
       <c r="G701" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H701" t="s">
         <v>507</v>
       </c>
       <c r="I701" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B702" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C702" t="s">
         <v>86</v>
@@ -26565,27 +26565,27 @@
         <v>#N/A</v>
       </c>
       <c r="E702" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F702">
         <v>2016</v>
       </c>
       <c r="G702" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H702" t="s">
         <v>507</v>
       </c>
       <c r="I702" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B703" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C703" t="s">
         <v>86</v>
@@ -26594,27 +26594,27 @@
         <v>#N/A</v>
       </c>
       <c r="E703" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F703">
         <v>2016</v>
       </c>
       <c r="G703" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H703" t="s">
         <v>507</v>
       </c>
       <c r="I703" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B704" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C704" t="s">
         <v>86</v>
@@ -26623,27 +26623,27 @@
         <v>#N/A</v>
       </c>
       <c r="E704" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F704">
         <v>2016</v>
       </c>
       <c r="G704" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H704" t="s">
         <v>507</v>
       </c>
       <c r="I704" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B705" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C705" t="s">
         <v>86</v>
@@ -26652,27 +26652,27 @@
         <v>#N/A</v>
       </c>
       <c r="E705" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F705">
         <v>2016</v>
       </c>
       <c r="G705" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H705" t="s">
         <v>507</v>
       </c>
       <c r="I705" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" s="5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C706" s="5" t="s">
         <v>869</v>
@@ -26689,21 +26689,21 @@
         <v>1944</v>
       </c>
       <c r="G706" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H706" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I706" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" s="5" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C707" s="5" t="s">
         <v>867</v>
@@ -26720,21 +26720,21 @@
         <v>1972</v>
       </c>
       <c r="G707" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H707" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I707" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" s="5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C708" s="5" t="s">
         <v>867</v>
@@ -26751,21 +26751,21 @@
         <v>1980</v>
       </c>
       <c r="G708" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H708" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I708" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C709" s="5" t="s">
         <v>867</v>
@@ -26782,21 +26782,21 @@
         <v>1994</v>
       </c>
       <c r="G709" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H709" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I709" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B710" s="5" t="s">
         <v>1441</v>
-      </c>
-      <c r="B710" s="5" t="s">
-        <v>1442</v>
       </c>
       <c r="C710" s="5" t="s">
         <v>874</v>
@@ -26813,24 +26813,24 @@
         <v>2001</v>
       </c>
       <c r="G710" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H710" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I710" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C711" s="5" t="s">
         <v>1444</v>
-      </c>
-      <c r="B711" s="5" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C711" s="5" t="s">
-        <v>1445</v>
       </c>
       <c r="D711" s="5" t="e">
         <f>NA()</f>
@@ -26844,24 +26844,24 @@
         <v>1996</v>
       </c>
       <c r="G711" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H711" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I711" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C712" s="5" t="s">
         <v>1447</v>
-      </c>
-      <c r="B712" s="5" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C712" s="5" t="s">
-        <v>1448</v>
       </c>
       <c r="D712" s="5" t="e">
         <f>NA()</f>
@@ -26875,24 +26875,24 @@
         <v>1972</v>
       </c>
       <c r="G712" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H712" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I712" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B713" s="5" t="s">
         <v>1450</v>
       </c>
-      <c r="B713" s="5" t="s">
+      <c r="C713" s="5" t="s">
         <v>1451</v>
-      </c>
-      <c r="C713" s="5" t="s">
-        <v>1452</v>
       </c>
       <c r="D713" s="5" t="e">
         <f>NA()</f>
@@ -26906,21 +26906,21 @@
         <v>1972</v>
       </c>
       <c r="G713" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H713" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I713" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C714" s="5" t="s">
         <v>54</v>
@@ -26934,24 +26934,24 @@
         <v>#N/A</v>
       </c>
       <c r="F714" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G714" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H714" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I714" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715" s="5" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C715" s="5" t="s">
         <v>870</v>
@@ -26968,24 +26968,24 @@
         <v>1980</v>
       </c>
       <c r="G715" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H715" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I715" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C716" s="5" t="s">
         <v>1456</v>
-      </c>
-      <c r="B716" s="5" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C716" s="5" t="s">
-        <v>1457</v>
       </c>
       <c r="D716" s="5" t="e">
         <f>NA()</f>
@@ -26999,72 +26999,71 @@
         <v>1953</v>
       </c>
       <c r="G716" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H716" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I716" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="717" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A717" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C717" s="6" t="s">
         <v>1414</v>
       </c>
-      <c r="B717" s="6" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C717" s="6" t="s">
+      <c r="D717" s="6" t="s">
         <v>1415</v>
       </c>
-      <c r="D717" s="6" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E717" s="6" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="E717" s="6" t="s">
+        <v>1527</v>
       </c>
       <c r="F717" s="6" t="s">
         <v>1413</v>
       </c>
       <c r="G717" s="6" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H717" s="6" t="s">
         <v>507</v>
       </c>
       <c r="I717" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="718" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C718" s="7" t="s">
         <v>1572</v>
       </c>
-      <c r="B718" s="7" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C718" s="7" t="s">
+      <c r="D718" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E718" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F718" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G718" s="7" t="s">
         <v>1573</v>
       </c>
-      <c r="D718" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E718" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F718" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G718" s="7" t="s">
+      <c r="H718" s="7" t="s">
         <v>1574</v>
       </c>
-      <c r="H718" s="7" t="s">
-        <v>1575</v>
-      </c>
       <c r="I718" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
   </sheetData>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFD208-4F1C-F640-A1E2-5D0532CEE46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC8921-74BC-374E-B479-50A8C2303394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="16800" windowHeight="20480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19920" yWindow="760" windowWidth="16300" windowHeight="12180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL samples" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="1576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="1577">
   <si>
     <t>Kudat</t>
   </si>
@@ -4753,6 +4755,9 @@
   </si>
   <si>
     <t>Ebro1944</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic Foundation</t>
   </si>
 </sst>
 </file>
@@ -5983,7 +5988,7 @@
   <dimension ref="A1:I718"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
-      <selection activeCell="E718" sqref="E718"/>
+      <selection activeCell="G708" sqref="G708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26689,7 +26694,7 @@
         <v>1944</v>
       </c>
       <c r="G706" s="5" t="s">
-        <v>1422</v>
+        <v>1576</v>
       </c>
       <c r="H706" s="5" t="s">
         <v>1432</v>
@@ -26720,7 +26725,7 @@
         <v>1972</v>
       </c>
       <c r="G707" s="5" t="s">
-        <v>1422</v>
+        <v>1576</v>
       </c>
       <c r="H707" s="5" t="s">
         <v>1432</v>
@@ -26751,7 +26756,7 @@
         <v>1980</v>
       </c>
       <c r="G708" s="5" t="s">
-        <v>1422</v>
+        <v>1576</v>
       </c>
       <c r="H708" s="5" t="s">
         <v>1432</v>
@@ -27079,4 +27084,123 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE9FC0A-C9E6-2F4D-9A01-98FA9A412D34}">
+  <dimension ref="A5:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76787A5B-086E-5141-848B-CD1F58881498}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC8921-74BC-374E-B479-50A8C2303394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126EA9F-7FE1-4247-83C8-4438767018D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="760" windowWidth="16300" windowHeight="12180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="760" windowWidth="22420" windowHeight="20840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL samples" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1582">
   <si>
     <t>Kudat</t>
   </si>
@@ -4758,13 +4758,28 @@
   </si>
   <si>
     <t>Cleveland Clinic Foundation</t>
+  </si>
+  <si>
+    <t>CD1001</t>
+  </si>
+  <si>
+    <t>CD1002</t>
+  </si>
+  <si>
+    <t>CD1003</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>This Study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4840,6 +4855,13 @@
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5251,7 +5273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5260,6 +5282,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="387">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5985,10 +6008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I718"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
-      <selection activeCell="G708" sqref="G708"/>
+    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="A719" sqref="A719:I721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27069,6 +27092,93 @@
       </c>
       <c r="I718" s="7" t="s">
         <v>1524</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A719" s="8" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B719" s="8"/>
+      <c r="C719" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D719" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E719" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F719" s="8">
+        <v>2013</v>
+      </c>
+      <c r="G719" s="8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H719" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="I719" s="8" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A720" s="8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B720" s="8"/>
+      <c r="C720" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D720" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E720" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F720" s="8">
+        <v>2013</v>
+      </c>
+      <c r="G720" s="8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H720" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="I720" s="8" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A721" s="8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B721" s="8"/>
+      <c r="C721" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D721" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E721" s="8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F721" s="8">
+        <v>2013</v>
+      </c>
+      <c r="G721" s="8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H721" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="I721" s="8" t="s">
+        <v>1522</v>
       </c>
     </row>
   </sheetData>

--- a/scrape_pubseqs/vivid_seq_public_NGS.xlsx
+++ b/scrape_pubseqs/vivid_seq_public_NGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbrazeau/Documents/GitHub/VivID_Seq/scrape_pubseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126EA9F-7FE1-4247-83C8-4438767018D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99534343-3F47-5B49-9622-3A5A1FA9E1B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="760" windowWidth="22420" windowHeight="20840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="1577">
   <si>
     <t>Kudat</t>
   </si>
@@ -4758,28 +4758,13 @@
   </si>
   <si>
     <t>Cleveland Clinic Foundation</t>
-  </si>
-  <si>
-    <t>CD1001</t>
-  </si>
-  <si>
-    <t>CD1002</t>
-  </si>
-  <si>
-    <t>CD1003</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>This Study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4855,13 +4840,6 @@
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5273,7 +5251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5282,7 +5260,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="387">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6008,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:I718"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
-      <selection activeCell="A719" sqref="A719:I721"/>
+      <selection activeCell="D728" sqref="D728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27092,93 +27069,6 @@
       </c>
       <c r="I718" s="7" t="s">
         <v>1524</v>
-      </c>
-    </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A719" s="8" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B719" s="8"/>
-      <c r="C719" s="8" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D719" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E719" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F719" s="8">
-        <v>2013</v>
-      </c>
-      <c r="G719" s="8" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H719" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="I719" s="8" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A720" s="8" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B720" s="8"/>
-      <c r="C720" s="8" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D720" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E720" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F720" s="8">
-        <v>2013</v>
-      </c>
-      <c r="G720" s="8" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H720" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="I720" s="8" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A721" s="8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B721" s="8"/>
-      <c r="C721" s="8" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D721" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E721" s="8" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F721" s="8">
-        <v>2013</v>
-      </c>
-      <c r="G721" s="8" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H721" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="I721" s="8" t="s">
-        <v>1522</v>
       </c>
     </row>
   </sheetData>
